--- a/FORWARDED FOR PRINTING PURPOSE.xlsx
+++ b/FORWARDED FOR PRINTING PURPOSE.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\bashir\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD49295-ABC6-45B6-80A6-A99771475381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5754EDB6-AC50-44B2-8BB6-BD21556617BD}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19440" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="7TH" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7TH'!$A$1:$O$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7TH'!$A$1:$I$618</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7TH'!$A$1:$O$618</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7TH'!$A$1:$I$616</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'7TH'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5332" uniqueCount="2352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5459" uniqueCount="2359">
   <si>
     <t>SR</t>
   </si>
@@ -7086,12 +7080,33 @@
   </si>
   <si>
     <t>IMRAN</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>03434809878</t>
+  </si>
+  <si>
+    <t>03002382023</t>
+  </si>
+  <si>
+    <t>03014717150'</t>
+  </si>
+  <si>
+    <t>03066384840'</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7285,7 +7300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -7337,7 +7352,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -7531,34 +7546,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDD6B5C-CAB7-4E5A-9A83-AB3221945E1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O618"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B2:B1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" hidden="1" customWidth="1"/>
     <col min="13" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8411,7 +8426,7 @@
       </c>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>1313</v>
       </c>
@@ -8445,7 +8460,7 @@
       </c>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>1314</v>
       </c>
@@ -8479,7 +8494,7 @@
       </c>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>1315</v>
       </c>
@@ -8513,11 +8528,13 @@
       </c>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>1316</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C26" s="13" t="s">
         <v>131</v>
       </c>
@@ -8547,7 +8564,7 @@
       </c>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>1317</v>
       </c>
@@ -8581,7 +8598,7 @@
       </c>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>1318</v>
       </c>
@@ -8615,7 +8632,7 @@
       </c>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>1319</v>
       </c>
@@ -8649,7 +8666,7 @@
       </c>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>1320</v>
       </c>
@@ -8683,7 +8700,7 @@
       </c>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>1321</v>
       </c>
@@ -8717,7 +8734,7 @@
       </c>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>1322</v>
       </c>
@@ -8751,7 +8768,7 @@
       </c>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>1323</v>
       </c>
@@ -8785,7 +8802,7 @@
       </c>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>1324</v>
       </c>
@@ -8819,7 +8836,7 @@
       </c>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>1325</v>
       </c>
@@ -8853,7 +8870,7 @@
       </c>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>1326</v>
       </c>
@@ -8887,7 +8904,7 @@
       </c>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>1327</v>
       </c>
@@ -8921,7 +8938,7 @@
       </c>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>1328</v>
       </c>
@@ -8955,7 +8972,7 @@
       </c>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>1329</v>
       </c>
@@ -8989,7 +9006,7 @@
       </c>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>1330</v>
       </c>
@@ -9023,7 +9040,7 @@
       </c>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>1331</v>
       </c>
@@ -9057,7 +9074,7 @@
       </c>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>1332</v>
       </c>
@@ -9091,7 +9108,7 @@
       </c>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>1333</v>
       </c>
@@ -9125,7 +9142,7 @@
       </c>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>1334</v>
       </c>
@@ -9159,7 +9176,7 @@
       </c>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>1335</v>
       </c>
@@ -9193,7 +9210,7 @@
       </c>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>1336</v>
       </c>
@@ -9227,7 +9244,7 @@
       </c>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>1337</v>
       </c>
@@ -9261,7 +9278,7 @@
       </c>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>1338</v>
       </c>
@@ -9295,7 +9312,7 @@
       </c>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>1339</v>
       </c>
@@ -9329,7 +9346,7 @@
       </c>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>1340</v>
       </c>
@@ -9363,7 +9380,7 @@
       </c>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>1341</v>
       </c>
@@ -9397,7 +9414,7 @@
       </c>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>1342</v>
       </c>
@@ -9431,7 +9448,7 @@
       </c>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>1343</v>
       </c>
@@ -9465,7 +9482,7 @@
       </c>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>1344</v>
       </c>
@@ -9499,7 +9516,7 @@
       </c>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>1345</v>
       </c>
@@ -9533,7 +9550,7 @@
       </c>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>1346</v>
       </c>
@@ -9567,7 +9584,7 @@
       </c>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>1347</v>
       </c>
@@ -9601,7 +9618,7 @@
       </c>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>1348</v>
       </c>
@@ -9635,7 +9652,7 @@
       </c>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>1349</v>
       </c>
@@ -9669,7 +9686,7 @@
       </c>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>1350</v>
       </c>
@@ -9703,11 +9720,13 @@
       </c>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>1351</v>
       </c>
-      <c r="B61" s="12"/>
+      <c r="B61" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C61" s="13" t="s">
         <v>196</v>
       </c>
@@ -9735,7 +9754,7 @@
       <c r="K61" s="15"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>1352</v>
       </c>
@@ -9769,7 +9788,7 @@
       </c>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>1353</v>
       </c>
@@ -9803,7 +9822,7 @@
       </c>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12">
         <v>1354</v>
       </c>
@@ -9837,7 +9856,7 @@
       </c>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>1355</v>
       </c>
@@ -9871,7 +9890,7 @@
       </c>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="12">
         <v>1356</v>
       </c>
@@ -9905,7 +9924,7 @@
       </c>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>1357</v>
       </c>
@@ -9939,7 +9958,7 @@
       </c>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
         <v>1358</v>
       </c>
@@ -9973,7 +9992,7 @@
       </c>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>1359</v>
       </c>
@@ -10007,7 +10026,7 @@
       </c>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="12">
         <v>1360</v>
       </c>
@@ -10041,7 +10060,7 @@
       </c>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>1361</v>
       </c>
@@ -10075,7 +10094,7 @@
       </c>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>1362</v>
       </c>
@@ -10109,7 +10128,7 @@
       </c>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>1363</v>
       </c>
@@ -10143,7 +10162,7 @@
       </c>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="12">
         <v>1364</v>
       </c>
@@ -10177,7 +10196,7 @@
       </c>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="12">
         <v>1365</v>
       </c>
@@ -10211,11 +10230,13 @@
       </c>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="12">
         <v>1366</v>
       </c>
-      <c r="B76" s="12"/>
+      <c r="B76" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C76" s="13" t="s">
         <v>225</v>
       </c>
@@ -10245,7 +10266,7 @@
       </c>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12">
         <v>1367</v>
       </c>
@@ -10279,7 +10300,7 @@
       </c>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>1368</v>
       </c>
@@ -10313,7 +10334,7 @@
       </c>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
         <v>1369</v>
       </c>
@@ -10347,7 +10368,7 @@
       </c>
       <c r="L79" s="9"/>
     </row>
-    <row r="80" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12">
         <v>1370</v>
       </c>
@@ -10381,7 +10402,7 @@
       </c>
       <c r="L80" s="9"/>
     </row>
-    <row r="81" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
         <v>1371</v>
       </c>
@@ -10415,7 +10436,7 @@
       </c>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>1372</v>
       </c>
@@ -10449,7 +10470,7 @@
       </c>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>1373</v>
       </c>
@@ -10483,7 +10504,7 @@
       </c>
       <c r="L83" s="9"/>
     </row>
-    <row r="84" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12">
         <v>1374</v>
       </c>
@@ -10517,7 +10538,7 @@
       </c>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>1375</v>
       </c>
@@ -10551,7 +10572,7 @@
       </c>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="12">
         <v>1376</v>
       </c>
@@ -10585,7 +10606,7 @@
       </c>
       <c r="L86" s="9"/>
     </row>
-    <row r="87" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12">
         <v>1377</v>
       </c>
@@ -10619,7 +10640,7 @@
       </c>
       <c r="L87" s="9"/>
     </row>
-    <row r="88" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="12">
         <v>1378</v>
       </c>
@@ -10653,7 +10674,7 @@
       </c>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12">
         <v>1379</v>
       </c>
@@ -10687,7 +10708,7 @@
       </c>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12">
         <v>1380</v>
       </c>
@@ -10721,7 +10742,7 @@
       </c>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12">
         <v>1381</v>
       </c>
@@ -10755,7 +10776,7 @@
       </c>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12">
         <v>1382</v>
       </c>
@@ -10789,7 +10810,7 @@
       </c>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12">
         <v>1383</v>
       </c>
@@ -10823,7 +10844,7 @@
       </c>
       <c r="L93" s="9"/>
     </row>
-    <row r="94" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12">
         <v>1384</v>
       </c>
@@ -10857,7 +10878,7 @@
       </c>
       <c r="L94" s="9"/>
     </row>
-    <row r="95" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12">
         <v>1385</v>
       </c>
@@ -10891,7 +10912,7 @@
       </c>
       <c r="L95" s="9"/>
     </row>
-    <row r="96" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12">
         <v>1386</v>
       </c>
@@ -10925,7 +10946,7 @@
       </c>
       <c r="L96" s="9"/>
     </row>
-    <row r="97" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12">
         <v>1387</v>
       </c>
@@ -10957,7 +10978,7 @@
       <c r="K97" s="15"/>
       <c r="L97" s="9"/>
     </row>
-    <row r="98" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12">
         <v>1388</v>
       </c>
@@ -10991,7 +11012,7 @@
       </c>
       <c r="L98" s="9"/>
     </row>
-    <row r="99" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="12">
         <v>1389</v>
       </c>
@@ -11025,7 +11046,7 @@
       </c>
       <c r="L99" s="9"/>
     </row>
-    <row r="100" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12">
         <v>1390</v>
       </c>
@@ -11059,7 +11080,7 @@
       </c>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12">
         <v>1391</v>
       </c>
@@ -11093,7 +11114,7 @@
       </c>
       <c r="L101" s="9"/>
     </row>
-    <row r="102" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12">
         <v>1392</v>
       </c>
@@ -11127,7 +11148,7 @@
       </c>
       <c r="L102" s="9"/>
     </row>
-    <row r="103" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12">
         <v>1393</v>
       </c>
@@ -11161,7 +11182,7 @@
       </c>
       <c r="L103" s="9"/>
     </row>
-    <row r="104" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12">
         <v>1394</v>
       </c>
@@ -11195,7 +11216,7 @@
       </c>
       <c r="L104" s="9"/>
     </row>
-    <row r="105" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12">
         <v>1395</v>
       </c>
@@ -11229,7 +11250,7 @@
       </c>
       <c r="L105" s="9"/>
     </row>
-    <row r="106" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12">
         <v>1396</v>
       </c>
@@ -11263,7 +11284,7 @@
       </c>
       <c r="L106" s="9"/>
     </row>
-    <row r="107" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12">
         <v>1397</v>
       </c>
@@ -11297,7 +11318,7 @@
       </c>
       <c r="L107" s="9"/>
     </row>
-    <row r="108" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="12">
         <v>1398</v>
       </c>
@@ -11325,11 +11346,13 @@
       <c r="K108" s="15"/>
       <c r="L108" s="9"/>
     </row>
-    <row r="109" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12">
         <v>1399</v>
       </c>
-      <c r="B109" s="12"/>
+      <c r="B109" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C109" s="13" t="s">
         <v>325</v>
       </c>
@@ -11359,11 +11382,13 @@
       </c>
       <c r="L109" s="9"/>
     </row>
-    <row r="110" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12">
         <v>1400</v>
       </c>
-      <c r="B110" s="12"/>
+      <c r="B110" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C110" s="13" t="s">
         <v>327</v>
       </c>
@@ -11393,11 +11418,13 @@
       </c>
       <c r="L110" s="9"/>
     </row>
-    <row r="111" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12">
         <v>1401</v>
       </c>
-      <c r="B111" s="12"/>
+      <c r="B111" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C111" s="13" t="s">
         <v>329</v>
       </c>
@@ -11427,11 +11454,13 @@
       </c>
       <c r="L111" s="9"/>
     </row>
-    <row r="112" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12">
         <v>1402</v>
       </c>
-      <c r="B112" s="12"/>
+      <c r="B112" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C112" s="13" t="s">
         <v>331</v>
       </c>
@@ -11461,11 +11490,13 @@
       </c>
       <c r="L112" s="9"/>
     </row>
-    <row r="113" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12">
         <v>1403</v>
       </c>
-      <c r="B113" s="12"/>
+      <c r="B113" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C113" s="13" t="s">
         <v>332</v>
       </c>
@@ -11495,11 +11526,13 @@
       </c>
       <c r="L113" s="9"/>
     </row>
-    <row r="114" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12">
         <v>1404</v>
       </c>
-      <c r="B114" s="12"/>
+      <c r="B114" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C114" s="13" t="s">
         <v>334</v>
       </c>
@@ -11529,11 +11562,13 @@
       </c>
       <c r="L114" s="9"/>
     </row>
-    <row r="115" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="12">
         <v>1405</v>
       </c>
-      <c r="B115" s="12"/>
+      <c r="B115" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C115" s="13" t="s">
         <v>336</v>
       </c>
@@ -11563,11 +11598,13 @@
       </c>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12">
         <v>1406</v>
       </c>
-      <c r="B116" s="12"/>
+      <c r="B116" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C116" s="13" t="s">
         <v>338</v>
       </c>
@@ -11597,11 +11634,13 @@
       </c>
       <c r="L116" s="9"/>
     </row>
-    <row r="117" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12">
         <v>1407</v>
       </c>
-      <c r="B117" s="12"/>
+      <c r="B117" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C117" s="13" t="s">
         <v>340</v>
       </c>
@@ -11631,11 +11670,13 @@
       </c>
       <c r="L117" s="9"/>
     </row>
-    <row r="118" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="12">
         <v>1408</v>
       </c>
-      <c r="B118" s="12"/>
+      <c r="B118" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C118" s="13" t="s">
         <v>342</v>
       </c>
@@ -11665,11 +11706,13 @@
       </c>
       <c r="L118" s="9"/>
     </row>
-    <row r="119" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12">
         <v>1409</v>
       </c>
-      <c r="B119" s="12"/>
+      <c r="B119" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C119" s="13" t="s">
         <v>343</v>
       </c>
@@ -11699,7 +11742,7 @@
       </c>
       <c r="L119" s="9"/>
     </row>
-    <row r="120" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12">
         <v>1410</v>
       </c>
@@ -11733,11 +11776,13 @@
       </c>
       <c r="L120" s="9"/>
     </row>
-    <row r="121" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12">
         <v>1411</v>
       </c>
-      <c r="B121" s="12"/>
+      <c r="B121" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C121" s="13" t="s">
         <v>347</v>
       </c>
@@ -11767,11 +11812,13 @@
       </c>
       <c r="L121" s="9"/>
     </row>
-    <row r="122" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="12">
         <v>1412</v>
       </c>
-      <c r="B122" s="12"/>
+      <c r="B122" s="12" t="s">
+        <v>2358</v>
+      </c>
       <c r="C122" s="13" t="s">
         <v>348</v>
       </c>
@@ -11801,11 +11848,13 @@
       </c>
       <c r="L122" s="9"/>
     </row>
-    <row r="123" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="12">
         <v>1413</v>
       </c>
-      <c r="B123" s="12"/>
+      <c r="B123" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C123" s="13" t="s">
         <v>350</v>
       </c>
@@ -11835,11 +11884,13 @@
       </c>
       <c r="L123" s="9"/>
     </row>
-    <row r="124" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12">
         <v>1414</v>
       </c>
-      <c r="B124" s="12"/>
+      <c r="B124" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C124" s="13" t="s">
         <v>352</v>
       </c>
@@ -11869,11 +11920,13 @@
       </c>
       <c r="L124" s="9"/>
     </row>
-    <row r="125" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="12">
         <v>1415</v>
       </c>
-      <c r="B125" s="12"/>
+      <c r="B125" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C125" s="13" t="s">
         <v>354</v>
       </c>
@@ -11903,11 +11956,13 @@
       </c>
       <c r="L125" s="9"/>
     </row>
-    <row r="126" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="12">
         <v>1416</v>
       </c>
-      <c r="B126" s="12"/>
+      <c r="B126" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C126" s="13" t="s">
         <v>356</v>
       </c>
@@ -11937,11 +11992,13 @@
       </c>
       <c r="L126" s="9"/>
     </row>
-    <row r="127" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="12">
         <v>1417</v>
       </c>
-      <c r="B127" s="12"/>
+      <c r="B127" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C127" s="13" t="s">
         <v>358</v>
       </c>
@@ -11971,11 +12028,13 @@
       </c>
       <c r="L127" s="9"/>
     </row>
-    <row r="128" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="12">
         <v>1418</v>
       </c>
-      <c r="B128" s="12"/>
+      <c r="B128" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C128" s="13" t="s">
         <v>360</v>
       </c>
@@ -12005,11 +12064,13 @@
       </c>
       <c r="L128" s="9"/>
     </row>
-    <row r="129" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12">
         <v>1419</v>
       </c>
-      <c r="B129" s="12"/>
+      <c r="B129" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C129" s="13" t="s">
         <v>362</v>
       </c>
@@ -12039,11 +12100,13 @@
       </c>
       <c r="L129" s="9"/>
     </row>
-    <row r="130" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12">
         <v>1420</v>
       </c>
-      <c r="B130" s="12"/>
+      <c r="B130" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C130" s="13" t="s">
         <v>363</v>
       </c>
@@ -12073,11 +12136,13 @@
       </c>
       <c r="L130" s="9"/>
     </row>
-    <row r="131" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12">
         <v>1421</v>
       </c>
-      <c r="B131" s="12"/>
+      <c r="B131" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C131" s="13" t="s">
         <v>365</v>
       </c>
@@ -12107,11 +12172,13 @@
       </c>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="12">
         <v>1422</v>
       </c>
-      <c r="B132" s="12"/>
+      <c r="B132" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C132" s="13" t="s">
         <v>367</v>
       </c>
@@ -12141,11 +12208,13 @@
       </c>
       <c r="L132" s="9"/>
     </row>
-    <row r="133" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12">
         <v>1423</v>
       </c>
-      <c r="B133" s="12"/>
+      <c r="B133" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C133" s="13" t="s">
         <v>369</v>
       </c>
@@ -12175,11 +12244,13 @@
       </c>
       <c r="L133" s="9"/>
     </row>
-    <row r="134" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="12">
         <v>1424</v>
       </c>
-      <c r="B134" s="12"/>
+      <c r="B134" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C134" s="13" t="s">
         <v>371</v>
       </c>
@@ -12209,7 +12280,7 @@
       </c>
       <c r="L134" s="9"/>
     </row>
-    <row r="135" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="12">
         <v>1425</v>
       </c>
@@ -12237,11 +12308,13 @@
       <c r="K135" s="15"/>
       <c r="L135" s="9"/>
     </row>
-    <row r="136" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12">
         <v>1426</v>
       </c>
-      <c r="B136" s="12"/>
+      <c r="B136" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C136" s="13" t="s">
         <v>375</v>
       </c>
@@ -12271,11 +12344,13 @@
       </c>
       <c r="L136" s="9"/>
     </row>
-    <row r="137" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="12">
         <v>1427</v>
       </c>
-      <c r="B137" s="12"/>
+      <c r="B137" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C137" s="13" t="s">
         <v>377</v>
       </c>
@@ -12305,11 +12380,13 @@
       </c>
       <c r="L137" s="9"/>
     </row>
-    <row r="138" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12">
         <v>1428</v>
       </c>
-      <c r="B138" s="12"/>
+      <c r="B138" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C138" s="13" t="s">
         <v>379</v>
       </c>
@@ -12339,11 +12416,13 @@
       </c>
       <c r="L138" s="9"/>
     </row>
-    <row r="139" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="12">
         <v>1429</v>
       </c>
-      <c r="B139" s="12"/>
+      <c r="B139" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C139" s="13" t="s">
         <v>380</v>
       </c>
@@ -12373,11 +12452,13 @@
       </c>
       <c r="L139" s="9"/>
     </row>
-    <row r="140" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12">
         <v>1430</v>
       </c>
-      <c r="B140" s="12"/>
+      <c r="B140" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C140" s="13" t="s">
         <v>382</v>
       </c>
@@ -12407,11 +12488,13 @@
       </c>
       <c r="L140" s="9"/>
     </row>
-    <row r="141" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12">
         <v>1431</v>
       </c>
-      <c r="B141" s="12"/>
+      <c r="B141" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C141" s="13" t="s">
         <v>384</v>
       </c>
@@ -12441,11 +12524,13 @@
       </c>
       <c r="L141" s="9"/>
     </row>
-    <row r="142" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="12">
         <v>1432</v>
       </c>
-      <c r="B142" s="12"/>
+      <c r="B142" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C142" s="13" t="s">
         <v>386</v>
       </c>
@@ -12475,11 +12560,13 @@
       </c>
       <c r="L142" s="9"/>
     </row>
-    <row r="143" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12">
         <v>1433</v>
       </c>
-      <c r="B143" s="12"/>
+      <c r="B143" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C143" s="13" t="s">
         <v>388</v>
       </c>
@@ -12509,11 +12596,13 @@
       </c>
       <c r="L143" s="9"/>
     </row>
-    <row r="144" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="12">
         <v>1434</v>
       </c>
-      <c r="B144" s="12"/>
+      <c r="B144" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C144" s="13" t="s">
         <v>390</v>
       </c>
@@ -12543,11 +12632,13 @@
       </c>
       <c r="L144" s="9"/>
     </row>
-    <row r="145" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="12">
         <v>1435</v>
       </c>
-      <c r="B145" s="12"/>
+      <c r="B145" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C145" s="13" t="s">
         <v>392</v>
       </c>
@@ -12577,11 +12668,13 @@
       </c>
       <c r="L145" s="9"/>
     </row>
-    <row r="146" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="12">
         <v>1436</v>
       </c>
-      <c r="B146" s="12"/>
+      <c r="B146" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C146" s="13" t="s">
         <v>394</v>
       </c>
@@ -12611,11 +12704,13 @@
       </c>
       <c r="L146" s="9"/>
     </row>
-    <row r="147" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="12">
         <v>1437</v>
       </c>
-      <c r="B147" s="12"/>
+      <c r="B147" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C147" s="13" t="s">
         <v>396</v>
       </c>
@@ -12645,11 +12740,13 @@
       </c>
       <c r="L147" s="9"/>
     </row>
-    <row r="148" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="12">
         <v>1438</v>
       </c>
-      <c r="B148" s="12"/>
+      <c r="B148" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C148" s="13" t="s">
         <v>398</v>
       </c>
@@ -12677,11 +12774,13 @@
       <c r="K148" s="15"/>
       <c r="L148" s="9"/>
     </row>
-    <row r="149" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="12">
         <v>1439</v>
       </c>
-      <c r="B149" s="12"/>
+      <c r="B149" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C149" s="13" t="s">
         <v>400</v>
       </c>
@@ -12711,11 +12810,13 @@
       </c>
       <c r="L149" s="9"/>
     </row>
-    <row r="150" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="12">
         <v>1440</v>
       </c>
-      <c r="B150" s="12"/>
+      <c r="B150" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C150" s="13" t="s">
         <v>402</v>
       </c>
@@ -12745,11 +12846,13 @@
       </c>
       <c r="L150" s="9"/>
     </row>
-    <row r="151" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="12">
         <v>1441</v>
       </c>
-      <c r="B151" s="12"/>
+      <c r="B151" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C151" s="13" t="s">
         <v>404</v>
       </c>
@@ -12777,11 +12880,13 @@
       <c r="K151" s="15"/>
       <c r="L151" s="9"/>
     </row>
-    <row r="152" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="12">
         <v>1442</v>
       </c>
-      <c r="B152" s="12"/>
+      <c r="B152" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C152" s="13" t="s">
         <v>406</v>
       </c>
@@ -12811,11 +12916,13 @@
       </c>
       <c r="L152" s="9"/>
     </row>
-    <row r="153" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="12">
         <v>1443</v>
       </c>
-      <c r="B153" s="12"/>
+      <c r="B153" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C153" s="13" t="s">
         <v>408</v>
       </c>
@@ -12845,11 +12952,13 @@
       </c>
       <c r="L153" s="9"/>
     </row>
-    <row r="154" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="12">
         <v>1444</v>
       </c>
-      <c r="B154" s="12"/>
+      <c r="B154" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C154" s="13" t="s">
         <v>410</v>
       </c>
@@ -12879,11 +12988,13 @@
       </c>
       <c r="L154" s="9"/>
     </row>
-    <row r="155" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="12">
         <v>1445</v>
       </c>
-      <c r="B155" s="12"/>
+      <c r="B155" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C155" s="13" t="s">
         <v>412</v>
       </c>
@@ -12913,11 +13024,13 @@
       </c>
       <c r="L155" s="9"/>
     </row>
-    <row r="156" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="12">
         <v>1446</v>
       </c>
-      <c r="B156" s="12"/>
+      <c r="B156" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C156" s="13" t="s">
         <v>413</v>
       </c>
@@ -12947,11 +13060,13 @@
       </c>
       <c r="L156" s="9"/>
     </row>
-    <row r="157" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="12">
         <v>1447</v>
       </c>
-      <c r="B157" s="12"/>
+      <c r="B157" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C157" s="13" t="s">
         <v>415</v>
       </c>
@@ -12981,11 +13096,13 @@
       </c>
       <c r="L157" s="9"/>
     </row>
-    <row r="158" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="12">
         <v>1448</v>
       </c>
-      <c r="B158" s="12"/>
+      <c r="B158" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C158" s="13" t="s">
         <v>417</v>
       </c>
@@ -13015,11 +13132,13 @@
       </c>
       <c r="L158" s="9"/>
     </row>
-    <row r="159" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="12">
         <v>1449</v>
       </c>
-      <c r="B159" s="12"/>
+      <c r="B159" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C159" s="13" t="s">
         <v>419</v>
       </c>
@@ -13049,11 +13168,13 @@
       </c>
       <c r="L159" s="9"/>
     </row>
-    <row r="160" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="12">
         <v>1450</v>
       </c>
-      <c r="B160" s="12"/>
+      <c r="B160" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C160" s="13" t="s">
         <v>421</v>
       </c>
@@ -13083,7 +13204,7 @@
       </c>
       <c r="L160" s="9"/>
     </row>
-    <row r="161" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="12">
         <v>1451</v>
       </c>
@@ -13117,7 +13238,7 @@
       </c>
       <c r="L161" s="9"/>
     </row>
-    <row r="162" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="12">
         <v>1452</v>
       </c>
@@ -13151,7 +13272,7 @@
       </c>
       <c r="L162" s="9"/>
     </row>
-    <row r="163" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="12">
         <v>1453</v>
       </c>
@@ -13185,7 +13306,7 @@
       </c>
       <c r="L163" s="9"/>
     </row>
-    <row r="164" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="12">
         <v>1454</v>
       </c>
@@ -13219,7 +13340,7 @@
       </c>
       <c r="L164" s="9"/>
     </row>
-    <row r="165" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="12">
         <v>1455</v>
       </c>
@@ -13253,7 +13374,7 @@
       </c>
       <c r="L165" s="9"/>
     </row>
-    <row r="166" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="12">
         <v>1456</v>
       </c>
@@ -13287,7 +13408,7 @@
       </c>
       <c r="L166" s="9"/>
     </row>
-    <row r="167" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="12">
         <v>1457</v>
       </c>
@@ -13321,7 +13442,7 @@
       </c>
       <c r="L167" s="9"/>
     </row>
-    <row r="168" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="12">
         <v>1458</v>
       </c>
@@ -13355,7 +13476,7 @@
       </c>
       <c r="L168" s="9"/>
     </row>
-    <row r="169" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="12">
         <v>1459</v>
       </c>
@@ -13389,7 +13510,7 @@
       </c>
       <c r="L169" s="9"/>
     </row>
-    <row r="170" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="12">
         <v>1460</v>
       </c>
@@ -13423,7 +13544,7 @@
       </c>
       <c r="L170" s="9"/>
     </row>
-    <row r="171" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="12">
         <v>1461</v>
       </c>
@@ -13457,7 +13578,7 @@
       </c>
       <c r="L171" s="9"/>
     </row>
-    <row r="172" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="12">
         <v>1462</v>
       </c>
@@ -13491,7 +13612,7 @@
       </c>
       <c r="L172" s="9"/>
     </row>
-    <row r="173" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="12">
         <v>1463</v>
       </c>
@@ -13525,7 +13646,7 @@
       </c>
       <c r="L173" s="9"/>
     </row>
-    <row r="174" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="12">
         <v>1464</v>
       </c>
@@ -13559,7 +13680,7 @@
       </c>
       <c r="L174" s="9"/>
     </row>
-    <row r="175" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="12">
         <v>1465</v>
       </c>
@@ -13593,7 +13714,7 @@
       </c>
       <c r="L175" s="9"/>
     </row>
-    <row r="176" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="12">
         <v>1466</v>
       </c>
@@ -13627,7 +13748,7 @@
       </c>
       <c r="L176" s="9"/>
     </row>
-    <row r="177" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="12">
         <v>1467</v>
       </c>
@@ -13661,7 +13782,7 @@
       </c>
       <c r="L177" s="9"/>
     </row>
-    <row r="178" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="12">
         <v>1468</v>
       </c>
@@ -13695,7 +13816,7 @@
       </c>
       <c r="L178" s="9"/>
     </row>
-    <row r="179" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="12">
         <v>1469</v>
       </c>
@@ -13729,7 +13850,7 @@
       </c>
       <c r="L179" s="9"/>
     </row>
-    <row r="180" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="12">
         <v>1470</v>
       </c>
@@ -13763,7 +13884,7 @@
       </c>
       <c r="L180" s="9"/>
     </row>
-    <row r="181" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="12">
         <v>1471</v>
       </c>
@@ -13797,7 +13918,7 @@
       </c>
       <c r="L181" s="9"/>
     </row>
-    <row r="182" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="12">
         <v>1472</v>
       </c>
@@ -13831,7 +13952,7 @@
       </c>
       <c r="L182" s="9"/>
     </row>
-    <row r="183" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="12">
         <v>1473</v>
       </c>
@@ -13865,7 +13986,7 @@
       </c>
       <c r="L183" s="9"/>
     </row>
-    <row r="184" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="12">
         <v>1474</v>
       </c>
@@ -13899,7 +14020,7 @@
       </c>
       <c r="L184" s="9"/>
     </row>
-    <row r="185" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="12">
         <v>1475</v>
       </c>
@@ -13933,7 +14054,7 @@
       </c>
       <c r="L185" s="9"/>
     </row>
-    <row r="186" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="12">
         <v>1476</v>
       </c>
@@ -13961,7 +14082,7 @@
       <c r="K186" s="15"/>
       <c r="L186" s="9"/>
     </row>
-    <row r="187" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="12">
         <v>1477</v>
       </c>
@@ -13995,7 +14116,7 @@
       </c>
       <c r="L187" s="9"/>
     </row>
-    <row r="188" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="12">
         <v>1478</v>
       </c>
@@ -14029,7 +14150,7 @@
       </c>
       <c r="L188" s="9"/>
     </row>
-    <row r="189" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="12">
         <v>1479</v>
       </c>
@@ -14063,7 +14184,7 @@
       </c>
       <c r="L189" s="9"/>
     </row>
-    <row r="190" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="12">
         <v>1480</v>
       </c>
@@ -14097,7 +14218,7 @@
       </c>
       <c r="L190" s="9"/>
     </row>
-    <row r="191" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="12">
         <v>1481</v>
       </c>
@@ -14131,7 +14252,7 @@
       </c>
       <c r="L191" s="9"/>
     </row>
-    <row r="192" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="12">
         <v>1482</v>
       </c>
@@ -14165,7 +14286,7 @@
       </c>
       <c r="L192" s="9"/>
     </row>
-    <row r="193" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="12">
         <v>1483</v>
       </c>
@@ -14199,7 +14320,7 @@
       </c>
       <c r="L193" s="9"/>
     </row>
-    <row r="194" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="12">
         <v>1484</v>
       </c>
@@ -14233,7 +14354,7 @@
       </c>
       <c r="L194" s="9"/>
     </row>
-    <row r="195" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="12">
         <v>1485</v>
       </c>
@@ -14267,7 +14388,7 @@
       </c>
       <c r="L195" s="9"/>
     </row>
-    <row r="196" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="12">
         <v>1486</v>
       </c>
@@ -14301,7 +14422,7 @@
       </c>
       <c r="L196" s="9"/>
     </row>
-    <row r="197" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="12">
         <v>1487</v>
       </c>
@@ -14335,7 +14456,7 @@
       </c>
       <c r="L197" s="9"/>
     </row>
-    <row r="198" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="12">
         <v>1488</v>
       </c>
@@ -14363,11 +14484,13 @@
       <c r="K198" s="15"/>
       <c r="L198" s="9"/>
     </row>
-    <row r="199" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="12">
         <v>1489</v>
       </c>
-      <c r="B199" s="12"/>
+      <c r="B199" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C199" s="13" t="s">
         <v>429</v>
       </c>
@@ -14397,7 +14520,7 @@
       </c>
       <c r="L199" s="9"/>
     </row>
-    <row r="200" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="12">
         <v>1490</v>
       </c>
@@ -14431,11 +14554,13 @@
       </c>
       <c r="L200" s="9"/>
     </row>
-    <row r="201" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="12">
         <v>1491</v>
       </c>
-      <c r="B201" s="12"/>
+      <c r="B201" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C201" s="13" t="s">
         <v>433</v>
       </c>
@@ -14457,15 +14582,15 @@
       <c r="I201" s="14" t="s">
         <v>1668</v>
       </c>
-      <c r="J201" s="14">
-        <v>0</v>
+      <c r="J201" s="16" t="s">
+        <v>1668</v>
       </c>
       <c r="K201" s="15" t="s">
         <v>2315</v>
       </c>
       <c r="L201" s="9"/>
     </row>
-    <row r="202" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="12">
         <v>1492</v>
       </c>
@@ -14499,7 +14624,7 @@
       </c>
       <c r="L202" s="9"/>
     </row>
-    <row r="203" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="12">
         <v>1493</v>
       </c>
@@ -14531,7 +14656,7 @@
       <c r="K203" s="15"/>
       <c r="L203" s="9"/>
     </row>
-    <row r="204" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="12">
         <v>1494</v>
       </c>
@@ -14565,7 +14690,7 @@
       </c>
       <c r="L204" s="9"/>
     </row>
-    <row r="205" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="12">
         <v>1495</v>
       </c>
@@ -14599,7 +14724,7 @@
       </c>
       <c r="L205" s="9"/>
     </row>
-    <row r="206" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="12">
         <v>1496</v>
       </c>
@@ -14633,7 +14758,7 @@
       </c>
       <c r="L206" s="9"/>
     </row>
-    <row r="207" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="12">
         <v>1497</v>
       </c>
@@ -14667,7 +14792,7 @@
       </c>
       <c r="L207" s="9"/>
     </row>
-    <row r="208" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="12">
         <v>1498</v>
       </c>
@@ -14701,7 +14826,7 @@
       </c>
       <c r="L208" s="9"/>
     </row>
-    <row r="209" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="12">
         <v>1499</v>
       </c>
@@ -14735,7 +14860,7 @@
       </c>
       <c r="L209" s="9"/>
     </row>
-    <row r="210" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="12">
         <v>1500</v>
       </c>
@@ -14769,7 +14894,7 @@
       </c>
       <c r="L210" s="9"/>
     </row>
-    <row r="211" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="12">
         <v>1501</v>
       </c>
@@ -14803,7 +14928,7 @@
       </c>
       <c r="L211" s="9"/>
     </row>
-    <row r="212" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="12">
         <v>1502</v>
       </c>
@@ -14837,7 +14962,7 @@
       </c>
       <c r="L212" s="9"/>
     </row>
-    <row r="213" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="12">
         <v>1503</v>
       </c>
@@ -14871,7 +14996,7 @@
       </c>
       <c r="L213" s="9"/>
     </row>
-    <row r="214" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="12">
         <v>1504</v>
       </c>
@@ -14905,7 +15030,7 @@
       </c>
       <c r="L214" s="9"/>
     </row>
-    <row r="215" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="12">
         <v>1505</v>
       </c>
@@ -14939,11 +15064,13 @@
       </c>
       <c r="L215" s="9"/>
     </row>
-    <row r="216" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="12">
         <v>1506</v>
       </c>
-      <c r="B216" s="12"/>
+      <c r="B216" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C216" s="13" t="s">
         <v>461</v>
       </c>
@@ -14973,7 +15100,7 @@
       </c>
       <c r="L216" s="9"/>
     </row>
-    <row r="217" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="12">
         <v>1507</v>
       </c>
@@ -15007,7 +15134,7 @@
       </c>
       <c r="L217" s="9"/>
     </row>
-    <row r="218" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="12">
         <v>1508</v>
       </c>
@@ -15035,11 +15162,13 @@
       <c r="K218" s="15"/>
       <c r="L218" s="9"/>
     </row>
-    <row r="219" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="12">
         <v>1509</v>
       </c>
-      <c r="B219" s="12"/>
+      <c r="B219" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C219" s="13" t="s">
         <v>467</v>
       </c>
@@ -15069,7 +15198,7 @@
       </c>
       <c r="L219" s="9"/>
     </row>
-    <row r="220" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="12">
         <v>1510</v>
       </c>
@@ -15103,7 +15232,7 @@
       </c>
       <c r="L220" s="9"/>
     </row>
-    <row r="221" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="12">
         <v>1511</v>
       </c>
@@ -15137,7 +15266,7 @@
       </c>
       <c r="L221" s="9"/>
     </row>
-    <row r="222" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="12">
         <v>1512</v>
       </c>
@@ -15171,7 +15300,7 @@
       </c>
       <c r="L222" s="9"/>
     </row>
-    <row r="223" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="12">
         <v>1513</v>
       </c>
@@ -15205,7 +15334,7 @@
       </c>
       <c r="L223" s="9"/>
     </row>
-    <row r="224" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="12">
         <v>1514</v>
       </c>
@@ -15239,11 +15368,13 @@
       </c>
       <c r="L224" s="9"/>
     </row>
-    <row r="225" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="12">
         <v>1515</v>
       </c>
-      <c r="B225" s="12"/>
+      <c r="B225" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C225" s="13" t="s">
         <v>478</v>
       </c>
@@ -15273,7 +15404,7 @@
       </c>
       <c r="L225" s="9"/>
     </row>
-    <row r="226" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="12">
         <v>1516</v>
       </c>
@@ -15307,7 +15438,7 @@
       </c>
       <c r="L226" s="9"/>
     </row>
-    <row r="227" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="12">
         <v>1517</v>
       </c>
@@ -15341,7 +15472,7 @@
       </c>
       <c r="L227" s="9"/>
     </row>
-    <row r="228" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="12">
         <v>1518</v>
       </c>
@@ -15375,11 +15506,13 @@
       </c>
       <c r="L228" s="9"/>
     </row>
-    <row r="229" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="12">
         <v>1519</v>
       </c>
-      <c r="B229" s="12"/>
+      <c r="B229" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C229" s="13" t="s">
         <v>485</v>
       </c>
@@ -15409,7 +15542,7 @@
       </c>
       <c r="L229" s="9"/>
     </row>
-    <row r="230" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="12">
         <v>1520</v>
       </c>
@@ -15443,7 +15576,7 @@
       </c>
       <c r="L230" s="9"/>
     </row>
-    <row r="231" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="12">
         <v>1521</v>
       </c>
@@ -15477,7 +15610,7 @@
       </c>
       <c r="L231" s="9"/>
     </row>
-    <row r="232" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="12">
         <v>1522</v>
       </c>
@@ -15511,7 +15644,7 @@
       </c>
       <c r="L232" s="9"/>
     </row>
-    <row r="233" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="12">
         <v>1523</v>
       </c>
@@ -15545,7 +15678,7 @@
       </c>
       <c r="L233" s="9"/>
     </row>
-    <row r="234" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="12">
         <v>1524</v>
       </c>
@@ -15579,7 +15712,7 @@
       </c>
       <c r="L234" s="9"/>
     </row>
-    <row r="235" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="12">
         <v>1525</v>
       </c>
@@ -15613,11 +15746,13 @@
       </c>
       <c r="L235" s="9"/>
     </row>
-    <row r="236" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="12">
         <v>1526</v>
       </c>
-      <c r="B236" s="12"/>
+      <c r="B236" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C236" s="13" t="s">
         <v>498</v>
       </c>
@@ -15647,7 +15782,7 @@
       </c>
       <c r="L236" s="9"/>
     </row>
-    <row r="237" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="12">
         <v>1527</v>
       </c>
@@ -15681,7 +15816,7 @@
       </c>
       <c r="L237" s="9"/>
     </row>
-    <row r="238" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="12">
         <v>1528</v>
       </c>
@@ -15715,7 +15850,7 @@
       </c>
       <c r="L238" s="9"/>
     </row>
-    <row r="239" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="12">
         <v>1529</v>
       </c>
@@ -15749,7 +15884,7 @@
       </c>
       <c r="L239" s="9"/>
     </row>
-    <row r="240" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="12">
         <v>1530</v>
       </c>
@@ -15783,11 +15918,13 @@
       </c>
       <c r="L240" s="9"/>
     </row>
-    <row r="241" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="12">
         <v>1531</v>
       </c>
-      <c r="B241" s="12"/>
+      <c r="B241" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C241" s="13" t="s">
         <v>508</v>
       </c>
@@ -15817,7 +15954,7 @@
       </c>
       <c r="L241" s="9"/>
     </row>
-    <row r="242" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="12">
         <v>1532</v>
       </c>
@@ -15851,11 +15988,13 @@
       </c>
       <c r="L242" s="9"/>
     </row>
-    <row r="243" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="12">
         <v>1533</v>
       </c>
-      <c r="B243" s="12"/>
+      <c r="B243" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C243" s="13" t="s">
         <v>512</v>
       </c>
@@ -15883,7 +16022,7 @@
       <c r="K243" s="15"/>
       <c r="L243" s="9"/>
     </row>
-    <row r="244" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="12">
         <v>1534</v>
       </c>
@@ -15911,7 +16050,7 @@
       <c r="K244" s="15"/>
       <c r="L244" s="9"/>
     </row>
-    <row r="245" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="12">
         <v>1535</v>
       </c>
@@ -15945,11 +16084,13 @@
       </c>
       <c r="L245" s="9"/>
     </row>
-    <row r="246" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="12">
         <v>1536</v>
       </c>
-      <c r="B246" s="12"/>
+      <c r="B246" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C246" s="13" t="s">
         <v>518</v>
       </c>
@@ -15977,7 +16118,7 @@
       <c r="K246" s="15"/>
       <c r="L246" s="9"/>
     </row>
-    <row r="247" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="12">
         <v>1537</v>
       </c>
@@ -16011,7 +16152,7 @@
       </c>
       <c r="L247" s="9"/>
     </row>
-    <row r="248" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="12">
         <v>1538</v>
       </c>
@@ -16045,7 +16186,7 @@
       </c>
       <c r="L248" s="9"/>
     </row>
-    <row r="249" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="12">
         <v>1539</v>
       </c>
@@ -16077,7 +16218,7 @@
       <c r="K249" s="15"/>
       <c r="L249" s="9"/>
     </row>
-    <row r="250" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="12">
         <v>1540</v>
       </c>
@@ -16111,7 +16252,7 @@
       </c>
       <c r="L250" s="9"/>
     </row>
-    <row r="251" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="12">
         <v>1541</v>
       </c>
@@ -16145,7 +16286,7 @@
       </c>
       <c r="L251" s="9"/>
     </row>
-    <row r="252" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="12">
         <v>1542</v>
       </c>
@@ -16179,7 +16320,7 @@
       </c>
       <c r="L252" s="9"/>
     </row>
-    <row r="253" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="12">
         <v>1543</v>
       </c>
@@ -16213,7 +16354,7 @@
       </c>
       <c r="L253" s="9"/>
     </row>
-    <row r="254" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="12">
         <v>1544</v>
       </c>
@@ -16247,11 +16388,13 @@
       </c>
       <c r="L254" s="9"/>
     </row>
-    <row r="255" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="12">
         <v>1545</v>
       </c>
-      <c r="B255" s="12"/>
+      <c r="B255" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C255" s="13" t="s">
         <v>536</v>
       </c>
@@ -16281,7 +16424,7 @@
       </c>
       <c r="L255" s="9"/>
     </row>
-    <row r="256" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="12">
         <v>1546</v>
       </c>
@@ -16315,7 +16458,7 @@
       </c>
       <c r="L256" s="9"/>
     </row>
-    <row r="257" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="12">
         <v>1547</v>
       </c>
@@ -16349,7 +16492,7 @@
       </c>
       <c r="L257" s="9"/>
     </row>
-    <row r="258" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="12">
         <v>1548</v>
       </c>
@@ -16383,7 +16526,7 @@
       </c>
       <c r="L258" s="9"/>
     </row>
-    <row r="259" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="12">
         <v>1549</v>
       </c>
@@ -16417,7 +16560,7 @@
       </c>
       <c r="L259" s="9"/>
     </row>
-    <row r="260" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="12">
         <v>1550</v>
       </c>
@@ -16451,7 +16594,7 @@
       </c>
       <c r="L260" s="9"/>
     </row>
-    <row r="261" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="12">
         <v>1551</v>
       </c>
@@ -16485,7 +16628,7 @@
       </c>
       <c r="L261" s="9"/>
     </row>
-    <row r="262" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="12">
         <v>1552</v>
       </c>
@@ -16519,7 +16662,7 @@
       </c>
       <c r="L262" s="9"/>
     </row>
-    <row r="263" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="12">
         <v>1553</v>
       </c>
@@ -16553,7 +16696,7 @@
       </c>
       <c r="L263" s="9"/>
     </row>
-    <row r="264" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="12">
         <v>1554</v>
       </c>
@@ -16587,7 +16730,7 @@
       </c>
       <c r="L264" s="9"/>
     </row>
-    <row r="265" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="12">
         <v>1555</v>
       </c>
@@ -16621,7 +16764,7 @@
       </c>
       <c r="L265" s="9"/>
     </row>
-    <row r="266" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="12">
         <v>1556</v>
       </c>
@@ -16655,7 +16798,7 @@
       </c>
       <c r="L266" s="9"/>
     </row>
-    <row r="267" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="12">
         <v>1557</v>
       </c>
@@ -16689,7 +16832,7 @@
       </c>
       <c r="L267" s="9"/>
     </row>
-    <row r="268" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="12">
         <v>1558</v>
       </c>
@@ -16723,11 +16866,13 @@
       </c>
       <c r="L268" s="9"/>
     </row>
-    <row r="269" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="12">
         <v>1559</v>
       </c>
-      <c r="B269" s="12"/>
+      <c r="B269" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C269" s="13" t="s">
         <v>562</v>
       </c>
@@ -16757,7 +16902,7 @@
       </c>
       <c r="L269" s="9"/>
     </row>
-    <row r="270" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="12">
         <v>1560</v>
       </c>
@@ -16791,11 +16936,13 @@
       </c>
       <c r="L270" s="9"/>
     </row>
-    <row r="271" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="12">
         <v>1561</v>
       </c>
-      <c r="B271" s="12"/>
+      <c r="B271" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C271" s="13" t="s">
         <v>566</v>
       </c>
@@ -16825,7 +16972,7 @@
       </c>
       <c r="L271" s="9"/>
     </row>
-    <row r="272" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="12">
         <v>1562</v>
       </c>
@@ -16853,7 +17000,7 @@
       <c r="K272" s="15"/>
       <c r="L272" s="9"/>
     </row>
-    <row r="273" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="12">
         <v>1563</v>
       </c>
@@ -16887,11 +17034,13 @@
       </c>
       <c r="L273" s="9"/>
     </row>
-    <row r="274" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="12">
         <v>1564</v>
       </c>
-      <c r="B274" s="12"/>
+      <c r="B274" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C274" s="13" t="s">
         <v>572</v>
       </c>
@@ -16921,7 +17070,7 @@
       </c>
       <c r="L274" s="9"/>
     </row>
-    <row r="275" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="12">
         <v>1565</v>
       </c>
@@ -16955,7 +17104,7 @@
       </c>
       <c r="L275" s="9"/>
     </row>
-    <row r="276" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="12">
         <v>1566</v>
       </c>
@@ -16989,7 +17138,7 @@
       </c>
       <c r="L276" s="9"/>
     </row>
-    <row r="277" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="12">
         <v>1567</v>
       </c>
@@ -17023,7 +17172,7 @@
       </c>
       <c r="L277" s="9"/>
     </row>
-    <row r="278" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="12">
         <v>1568</v>
       </c>
@@ -17057,7 +17206,7 @@
       </c>
       <c r="L278" s="9"/>
     </row>
-    <row r="279" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="12">
         <v>1569</v>
       </c>
@@ -17091,7 +17240,7 @@
       </c>
       <c r="L279" s="9"/>
     </row>
-    <row r="280" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="12">
         <v>1570</v>
       </c>
@@ -17125,7 +17274,7 @@
       </c>
       <c r="L280" s="9"/>
     </row>
-    <row r="281" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="12">
         <v>1571</v>
       </c>
@@ -17159,7 +17308,7 @@
       </c>
       <c r="L281" s="9"/>
     </row>
-    <row r="282" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="12">
         <v>1572</v>
       </c>
@@ -17193,7 +17342,7 @@
       </c>
       <c r="L282" s="9"/>
     </row>
-    <row r="283" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="12">
         <v>1573</v>
       </c>
@@ -17227,7 +17376,7 @@
       </c>
       <c r="L283" s="9"/>
     </row>
-    <row r="284" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="12">
         <v>1574</v>
       </c>
@@ -17261,7 +17410,7 @@
       </c>
       <c r="L284" s="9"/>
     </row>
-    <row r="285" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="12">
         <v>1575</v>
       </c>
@@ -17295,7 +17444,7 @@
       </c>
       <c r="L285" s="9"/>
     </row>
-    <row r="286" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="12">
         <v>1576</v>
       </c>
@@ -17329,7 +17478,7 @@
       </c>
       <c r="L286" s="9"/>
     </row>
-    <row r="287" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="12">
         <v>1577</v>
       </c>
@@ -17363,7 +17512,7 @@
       </c>
       <c r="L287" s="9"/>
     </row>
-    <row r="288" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="12">
         <v>1578</v>
       </c>
@@ -17397,7 +17546,7 @@
       </c>
       <c r="L288" s="9"/>
     </row>
-    <row r="289" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="12">
         <v>1579</v>
       </c>
@@ -17431,7 +17580,7 @@
       </c>
       <c r="L289" s="9"/>
     </row>
-    <row r="290" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="12">
         <v>1580</v>
       </c>
@@ -17465,7 +17614,7 @@
       </c>
       <c r="L290" s="9"/>
     </row>
-    <row r="291" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="12">
         <v>1581</v>
       </c>
@@ -17499,7 +17648,7 @@
       </c>
       <c r="L291" s="9"/>
     </row>
-    <row r="292" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="12">
         <v>1582</v>
       </c>
@@ -17533,7 +17682,7 @@
       </c>
       <c r="L292" s="9"/>
     </row>
-    <row r="293" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="12">
         <v>1583</v>
       </c>
@@ -17567,7 +17716,7 @@
       </c>
       <c r="L293" s="9"/>
     </row>
-    <row r="294" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="12">
         <v>1584</v>
       </c>
@@ -17601,11 +17750,13 @@
       </c>
       <c r="L294" s="9"/>
     </row>
-    <row r="295" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="12">
         <v>1585</v>
       </c>
-      <c r="B295" s="12"/>
+      <c r="B295" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C295" s="13" t="s">
         <v>607</v>
       </c>
@@ -17635,7 +17786,7 @@
       </c>
       <c r="L295" s="9"/>
     </row>
-    <row r="296" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="12">
         <v>1586</v>
       </c>
@@ -17669,7 +17820,7 @@
       </c>
       <c r="L296" s="9"/>
     </row>
-    <row r="297" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="12">
         <v>1587</v>
       </c>
@@ -17703,11 +17854,13 @@
       </c>
       <c r="L297" s="9"/>
     </row>
-    <row r="298" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="12">
         <v>1588</v>
       </c>
-      <c r="B298" s="12"/>
+      <c r="B298" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C298" s="13" t="s">
         <v>612</v>
       </c>
@@ -17737,7 +17890,7 @@
       </c>
       <c r="L298" s="9"/>
     </row>
-    <row r="299" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="12">
         <v>1589</v>
       </c>
@@ -17771,11 +17924,13 @@
       </c>
       <c r="L299" s="9"/>
     </row>
-    <row r="300" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="12">
         <v>1590</v>
       </c>
-      <c r="B300" s="12"/>
+      <c r="B300" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C300" s="13" t="s">
         <v>616</v>
       </c>
@@ -17805,7 +17960,7 @@
       </c>
       <c r="L300" s="9"/>
     </row>
-    <row r="301" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="12">
         <v>1591</v>
       </c>
@@ -17839,7 +17994,7 @@
       </c>
       <c r="L301" s="9"/>
     </row>
-    <row r="302" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="12">
         <v>1592</v>
       </c>
@@ -17873,7 +18028,7 @@
       </c>
       <c r="L302" s="9"/>
     </row>
-    <row r="303" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="12">
         <v>1593</v>
       </c>
@@ -17907,7 +18062,7 @@
       </c>
       <c r="L303" s="9"/>
     </row>
-    <row r="304" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="12">
         <v>1594</v>
       </c>
@@ -17941,7 +18096,7 @@
       </c>
       <c r="L304" s="9"/>
     </row>
-    <row r="305" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="12">
         <v>1595</v>
       </c>
@@ -17975,7 +18130,7 @@
       </c>
       <c r="L305" s="9"/>
     </row>
-    <row r="306" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="12">
         <v>1596</v>
       </c>
@@ -18009,7 +18164,7 @@
       </c>
       <c r="L306" s="9"/>
     </row>
-    <row r="307" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="12">
         <v>1597</v>
       </c>
@@ -18043,11 +18198,13 @@
       </c>
       <c r="L307" s="9"/>
     </row>
-    <row r="308" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="12">
         <v>1598</v>
       </c>
-      <c r="B308" s="12"/>
+      <c r="B308" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C308" s="13" t="s">
         <v>631</v>
       </c>
@@ -18077,7 +18234,7 @@
       </c>
       <c r="L308" s="9"/>
     </row>
-    <row r="309" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="12">
         <v>1599</v>
       </c>
@@ -18111,7 +18268,7 @@
       </c>
       <c r="L309" s="9"/>
     </row>
-    <row r="310" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="12">
         <v>1600</v>
       </c>
@@ -18145,7 +18302,7 @@
       </c>
       <c r="L310" s="9"/>
     </row>
-    <row r="311" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="12">
         <v>1601</v>
       </c>
@@ -18179,7 +18336,7 @@
       </c>
       <c r="L311" s="9"/>
     </row>
-    <row r="312" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="12">
         <v>1602</v>
       </c>
@@ -18213,7 +18370,7 @@
       </c>
       <c r="L312" s="9"/>
     </row>
-    <row r="313" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="12">
         <v>1603</v>
       </c>
@@ -18247,7 +18404,7 @@
       </c>
       <c r="L313" s="9"/>
     </row>
-    <row r="314" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="12">
         <v>1604</v>
       </c>
@@ -18281,7 +18438,7 @@
       </c>
       <c r="L314" s="9"/>
     </row>
-    <row r="315" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="12">
         <v>1605</v>
       </c>
@@ -18315,7 +18472,7 @@
       </c>
       <c r="L315" s="9"/>
     </row>
-    <row r="316" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="12">
         <v>1606</v>
       </c>
@@ -18349,7 +18506,7 @@
       </c>
       <c r="L316" s="9"/>
     </row>
-    <row r="317" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="12">
         <v>1607</v>
       </c>
@@ -18383,7 +18540,7 @@
       </c>
       <c r="L317" s="9"/>
     </row>
-    <row r="318" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="12">
         <v>1608</v>
       </c>
@@ -18417,7 +18574,7 @@
       </c>
       <c r="L318" s="9"/>
     </row>
-    <row r="319" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="12">
         <v>1609</v>
       </c>
@@ -18449,11 +18606,13 @@
       <c r="K319" s="15"/>
       <c r="L319" s="9"/>
     </row>
-    <row r="320" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="12">
         <v>1610</v>
       </c>
-      <c r="B320" s="12"/>
+      <c r="B320" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C320" s="13" t="s">
         <v>655</v>
       </c>
@@ -18483,7 +18642,7 @@
       </c>
       <c r="L320" s="9"/>
     </row>
-    <row r="321" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="12">
         <v>1611</v>
       </c>
@@ -18511,7 +18670,7 @@
       <c r="K321" s="15"/>
       <c r="L321" s="9"/>
     </row>
-    <row r="322" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="12">
         <v>1612</v>
       </c>
@@ -18545,7 +18704,7 @@
       </c>
       <c r="L322" s="9"/>
     </row>
-    <row r="323" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="12">
         <v>1613</v>
       </c>
@@ -18579,7 +18738,7 @@
       </c>
       <c r="L323" s="9"/>
     </row>
-    <row r="324" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="12">
         <v>1614</v>
       </c>
@@ -18613,7 +18772,7 @@
       </c>
       <c r="L324" s="9"/>
     </row>
-    <row r="325" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="12">
         <v>1615</v>
       </c>
@@ -18647,7 +18806,7 @@
       </c>
       <c r="L325" s="9"/>
     </row>
-    <row r="326" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="12">
         <v>1616</v>
       </c>
@@ -18681,7 +18840,7 @@
       </c>
       <c r="L326" s="9"/>
     </row>
-    <row r="327" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="12">
         <v>1617</v>
       </c>
@@ -18715,7 +18874,7 @@
       </c>
       <c r="L327" s="9"/>
     </row>
-    <row r="328" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="12">
         <v>1618</v>
       </c>
@@ -18749,7 +18908,7 @@
       </c>
       <c r="L328" s="9"/>
     </row>
-    <row r="329" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="12">
         <v>1619</v>
       </c>
@@ -18783,7 +18942,7 @@
       </c>
       <c r="L329" s="9"/>
     </row>
-    <row r="330" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="12">
         <v>1620</v>
       </c>
@@ -18817,7 +18976,7 @@
       </c>
       <c r="L330" s="9"/>
     </row>
-    <row r="331" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="12">
         <v>1621</v>
       </c>
@@ -18851,7 +19010,7 @@
       </c>
       <c r="L331" s="9"/>
     </row>
-    <row r="332" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="12">
         <v>1622</v>
       </c>
@@ -18885,7 +19044,7 @@
       </c>
       <c r="L332" s="9"/>
     </row>
-    <row r="333" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="12">
         <v>1623</v>
       </c>
@@ -18919,7 +19078,7 @@
       </c>
       <c r="L333" s="9"/>
     </row>
-    <row r="334" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="12">
         <v>1624</v>
       </c>
@@ -18953,7 +19112,7 @@
       </c>
       <c r="L334" s="9"/>
     </row>
-    <row r="335" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="12">
         <v>1625</v>
       </c>
@@ -18987,7 +19146,7 @@
       </c>
       <c r="L335" s="9"/>
     </row>
-    <row r="336" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="12">
         <v>1626</v>
       </c>
@@ -19021,11 +19180,13 @@
       </c>
       <c r="L336" s="9"/>
     </row>
-    <row r="337" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="12">
         <v>1627</v>
       </c>
-      <c r="B337" s="12"/>
+      <c r="B337" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C337" s="13" t="s">
         <v>749</v>
       </c>
@@ -19055,7 +19216,7 @@
       </c>
       <c r="L337" s="9"/>
     </row>
-    <row r="338" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="12">
         <v>1628</v>
       </c>
@@ -19089,7 +19250,7 @@
       </c>
       <c r="L338" s="9"/>
     </row>
-    <row r="339" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="12">
         <v>1629</v>
       </c>
@@ -19123,7 +19284,7 @@
       </c>
       <c r="L339" s="9"/>
     </row>
-    <row r="340" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="12">
         <v>1630</v>
       </c>
@@ -19157,7 +19318,7 @@
       </c>
       <c r="L340" s="9"/>
     </row>
-    <row r="341" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="12">
         <v>1631</v>
       </c>
@@ -19191,7 +19352,7 @@
       </c>
       <c r="L341" s="9"/>
     </row>
-    <row r="342" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="12">
         <v>1632</v>
       </c>
@@ -19225,7 +19386,7 @@
       </c>
       <c r="L342" s="9"/>
     </row>
-    <row r="343" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="12">
         <v>1633</v>
       </c>
@@ -19259,7 +19420,7 @@
       </c>
       <c r="L343" s="9"/>
     </row>
-    <row r="344" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="12">
         <v>1634</v>
       </c>
@@ -19293,7 +19454,7 @@
       </c>
       <c r="L344" s="9"/>
     </row>
-    <row r="345" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="12">
         <v>1635</v>
       </c>
@@ -19327,7 +19488,7 @@
       </c>
       <c r="L345" s="9"/>
     </row>
-    <row r="346" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="12">
         <v>1636</v>
       </c>
@@ -19361,7 +19522,7 @@
       </c>
       <c r="L346" s="9"/>
     </row>
-    <row r="347" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="12">
         <v>1637</v>
       </c>
@@ -19395,7 +19556,7 @@
       </c>
       <c r="L347" s="9"/>
     </row>
-    <row r="348" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="12">
         <v>1638</v>
       </c>
@@ -19429,7 +19590,7 @@
       </c>
       <c r="L348" s="9"/>
     </row>
-    <row r="349" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="12">
         <v>1639</v>
       </c>
@@ -19463,7 +19624,7 @@
       </c>
       <c r="L349" s="9"/>
     </row>
-    <row r="350" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="12">
         <v>1640</v>
       </c>
@@ -19497,7 +19658,7 @@
       </c>
       <c r="L350" s="9"/>
     </row>
-    <row r="351" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="12">
         <v>1641</v>
       </c>
@@ -19531,7 +19692,7 @@
       </c>
       <c r="L351" s="9"/>
     </row>
-    <row r="352" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="12">
         <v>1642</v>
       </c>
@@ -19565,7 +19726,7 @@
       </c>
       <c r="L352" s="9"/>
     </row>
-    <row r="353" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="12">
         <v>1643</v>
       </c>
@@ -19599,7 +19760,7 @@
       </c>
       <c r="L353" s="9"/>
     </row>
-    <row r="354" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="12">
         <v>1644</v>
       </c>
@@ -19633,7 +19794,7 @@
       </c>
       <c r="L354" s="9"/>
     </row>
-    <row r="355" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="12">
         <v>1645</v>
       </c>
@@ -19667,7 +19828,7 @@
       </c>
       <c r="L355" s="9"/>
     </row>
-    <row r="356" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="12">
         <v>1646</v>
       </c>
@@ -19701,7 +19862,7 @@
       </c>
       <c r="L356" s="9"/>
     </row>
-    <row r="357" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="12">
         <v>1647</v>
       </c>
@@ -19735,7 +19896,7 @@
       </c>
       <c r="L357" s="9"/>
     </row>
-    <row r="358" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="12">
         <v>1648</v>
       </c>
@@ -19769,7 +19930,7 @@
       </c>
       <c r="L358" s="9"/>
     </row>
-    <row r="359" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="12">
         <v>1649</v>
       </c>
@@ -19797,7 +19958,7 @@
       <c r="K359" s="15"/>
       <c r="L359" s="9"/>
     </row>
-    <row r="360" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="12">
         <v>1650</v>
       </c>
@@ -19831,7 +19992,7 @@
       </c>
       <c r="L360" s="9"/>
     </row>
-    <row r="361" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="12">
         <v>1651</v>
       </c>
@@ -19865,7 +20026,7 @@
       </c>
       <c r="L361" s="9"/>
     </row>
-    <row r="362" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="12">
         <v>1652</v>
       </c>
@@ -19899,7 +20060,7 @@
       </c>
       <c r="L362" s="9"/>
     </row>
-    <row r="363" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="12">
         <v>1653</v>
       </c>
@@ -19933,7 +20094,7 @@
       </c>
       <c r="L363" s="9"/>
     </row>
-    <row r="364" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="12">
         <v>1654</v>
       </c>
@@ -19967,7 +20128,7 @@
       </c>
       <c r="L364" s="9"/>
     </row>
-    <row r="365" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="12">
         <v>1655</v>
       </c>
@@ -20001,7 +20162,7 @@
       </c>
       <c r="L365" s="9"/>
     </row>
-    <row r="366" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="12">
         <v>1656</v>
       </c>
@@ -20035,7 +20196,7 @@
       </c>
       <c r="L366" s="9"/>
     </row>
-    <row r="367" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="12">
         <v>1657</v>
       </c>
@@ -20069,7 +20230,7 @@
       </c>
       <c r="L367" s="9"/>
     </row>
-    <row r="368" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="12">
         <v>1658</v>
       </c>
@@ -20103,7 +20264,7 @@
       </c>
       <c r="L368" s="9"/>
     </row>
-    <row r="369" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="12">
         <v>1659</v>
       </c>
@@ -20137,7 +20298,7 @@
       </c>
       <c r="L369" s="9"/>
     </row>
-    <row r="370" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="12">
         <v>1660</v>
       </c>
@@ -20171,7 +20332,7 @@
       </c>
       <c r="L370" s="9"/>
     </row>
-    <row r="371" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="12">
         <v>1661</v>
       </c>
@@ -20205,7 +20366,7 @@
       </c>
       <c r="L371" s="9"/>
     </row>
-    <row r="372" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="12">
         <v>1662</v>
       </c>
@@ -20239,7 +20400,7 @@
       </c>
       <c r="L372" s="9"/>
     </row>
-    <row r="373" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="12">
         <v>1663</v>
       </c>
@@ -20273,7 +20434,7 @@
       </c>
       <c r="L373" s="9"/>
     </row>
-    <row r="374" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="12">
         <v>1664</v>
       </c>
@@ -20307,7 +20468,7 @@
       </c>
       <c r="L374" s="9"/>
     </row>
-    <row r="375" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="12">
         <v>1665</v>
       </c>
@@ -20341,7 +20502,7 @@
       </c>
       <c r="L375" s="9"/>
     </row>
-    <row r="376" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="12">
         <v>1666</v>
       </c>
@@ -20375,7 +20536,7 @@
       </c>
       <c r="L376" s="9"/>
     </row>
-    <row r="377" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="12">
         <v>1667</v>
       </c>
@@ -20409,7 +20570,7 @@
       </c>
       <c r="L377" s="9"/>
     </row>
-    <row r="378" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="12">
         <v>1668</v>
       </c>
@@ -20443,7 +20604,7 @@
       </c>
       <c r="L378" s="9"/>
     </row>
-    <row r="379" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="12">
         <v>1669</v>
       </c>
@@ -20477,7 +20638,7 @@
       </c>
       <c r="L379" s="9"/>
     </row>
-    <row r="380" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="12">
         <v>1670</v>
       </c>
@@ -20511,7 +20672,7 @@
       </c>
       <c r="L380" s="9"/>
     </row>
-    <row r="381" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="12">
         <v>1671</v>
       </c>
@@ -20543,7 +20704,7 @@
       <c r="K381" s="15"/>
       <c r="L381" s="9"/>
     </row>
-    <row r="382" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="12">
         <v>1672</v>
       </c>
@@ -20577,7 +20738,7 @@
       </c>
       <c r="L382" s="9"/>
     </row>
-    <row r="383" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="12">
         <v>1673</v>
       </c>
@@ -20611,7 +20772,7 @@
       </c>
       <c r="L383" s="9"/>
     </row>
-    <row r="384" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="12">
         <v>1674</v>
       </c>
@@ -20645,7 +20806,7 @@
       </c>
       <c r="L384" s="9"/>
     </row>
-    <row r="385" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="12">
         <v>1675</v>
       </c>
@@ -20679,7 +20840,7 @@
       </c>
       <c r="L385" s="9"/>
     </row>
-    <row r="386" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="12">
         <v>1676</v>
       </c>
@@ -20713,7 +20874,7 @@
       </c>
       <c r="L386" s="9"/>
     </row>
-    <row r="387" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="12">
         <v>1677</v>
       </c>
@@ -20747,7 +20908,7 @@
       </c>
       <c r="L387" s="9"/>
     </row>
-    <row r="388" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="12">
         <v>1678</v>
       </c>
@@ -20781,7 +20942,7 @@
       </c>
       <c r="L388" s="9"/>
     </row>
-    <row r="389" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="12">
         <v>1679</v>
       </c>
@@ -20815,7 +20976,7 @@
       </c>
       <c r="L389" s="9"/>
     </row>
-    <row r="390" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="12">
         <v>1680</v>
       </c>
@@ -20849,7 +21010,7 @@
       </c>
       <c r="L390" s="9"/>
     </row>
-    <row r="391" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="12">
         <v>1681</v>
       </c>
@@ -20883,7 +21044,7 @@
       </c>
       <c r="L391" s="9"/>
     </row>
-    <row r="392" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="12">
         <v>1682</v>
       </c>
@@ -20917,7 +21078,7 @@
       </c>
       <c r="L392" s="9"/>
     </row>
-    <row r="393" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="12">
         <v>1683</v>
       </c>
@@ -20951,7 +21112,7 @@
       </c>
       <c r="L393" s="9"/>
     </row>
-    <row r="394" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="12">
         <v>1684</v>
       </c>
@@ -20985,7 +21146,7 @@
       </c>
       <c r="L394" s="9"/>
     </row>
-    <row r="395" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="12">
         <v>1685</v>
       </c>
@@ -21019,7 +21180,7 @@
       </c>
       <c r="L395" s="9"/>
     </row>
-    <row r="396" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="12">
         <v>1686</v>
       </c>
@@ -21053,7 +21214,7 @@
       </c>
       <c r="L396" s="9"/>
     </row>
-    <row r="397" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="12">
         <v>1687</v>
       </c>
@@ -21087,7 +21248,7 @@
       </c>
       <c r="L397" s="9"/>
     </row>
-    <row r="398" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="12">
         <v>1688</v>
       </c>
@@ -21121,7 +21282,7 @@
       </c>
       <c r="L398" s="9"/>
     </row>
-    <row r="399" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="12">
         <v>1689</v>
       </c>
@@ -21155,7 +21316,7 @@
       </c>
       <c r="L399" s="9"/>
     </row>
-    <row r="400" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="12">
         <v>1690</v>
       </c>
@@ -21189,7 +21350,7 @@
       </c>
       <c r="L400" s="9"/>
     </row>
-    <row r="401" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="12">
         <v>1691</v>
       </c>
@@ -21223,7 +21384,7 @@
       </c>
       <c r="L401" s="9"/>
     </row>
-    <row r="402" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="12">
         <v>1692</v>
       </c>
@@ -21257,7 +21418,7 @@
       </c>
       <c r="L402" s="9"/>
     </row>
-    <row r="403" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="12">
         <v>1693</v>
       </c>
@@ -21291,7 +21452,7 @@
       </c>
       <c r="L403" s="9"/>
     </row>
-    <row r="404" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="12">
         <v>1694</v>
       </c>
@@ -21325,7 +21486,7 @@
       </c>
       <c r="L404" s="9"/>
     </row>
-    <row r="405" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="12">
         <v>1695</v>
       </c>
@@ -21359,7 +21520,7 @@
       </c>
       <c r="L405" s="9"/>
     </row>
-    <row r="406" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="12">
         <v>1696</v>
       </c>
@@ -21393,7 +21554,7 @@
       </c>
       <c r="L406" s="9"/>
     </row>
-    <row r="407" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="12">
         <v>1697</v>
       </c>
@@ -21427,7 +21588,7 @@
       </c>
       <c r="L407" s="9"/>
     </row>
-    <row r="408" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="12">
         <v>1698</v>
       </c>
@@ -21461,7 +21622,7 @@
       </c>
       <c r="L408" s="9"/>
     </row>
-    <row r="409" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="12">
         <v>1699</v>
       </c>
@@ -21495,7 +21656,7 @@
       </c>
       <c r="L409" s="9"/>
     </row>
-    <row r="410" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="12">
         <v>1700</v>
       </c>
@@ -21529,7 +21690,7 @@
       </c>
       <c r="L410" s="9"/>
     </row>
-    <row r="411" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="12">
         <v>1701</v>
       </c>
@@ -21563,7 +21724,7 @@
       </c>
       <c r="L411" s="9"/>
     </row>
-    <row r="412" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="12">
         <v>1702</v>
       </c>
@@ -21597,11 +21758,13 @@
       </c>
       <c r="L412" s="9"/>
     </row>
-    <row r="413" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="12">
         <v>1703</v>
       </c>
-      <c r="B413" s="12"/>
+      <c r="B413" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C413" s="13" t="s">
         <v>892</v>
       </c>
@@ -21631,11 +21794,13 @@
       </c>
       <c r="L413" s="9"/>
     </row>
-    <row r="414" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="12">
         <v>1704</v>
       </c>
-      <c r="B414" s="12"/>
+      <c r="B414" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C414" s="13" t="s">
         <v>894</v>
       </c>
@@ -21665,11 +21830,13 @@
       </c>
       <c r="L414" s="9"/>
     </row>
-    <row r="415" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="12">
         <v>1705</v>
       </c>
-      <c r="B415" s="12"/>
+      <c r="B415" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C415" s="13" t="s">
         <v>896</v>
       </c>
@@ -21699,11 +21866,13 @@
       </c>
       <c r="L415" s="9"/>
     </row>
-    <row r="416" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="12">
         <v>1706</v>
       </c>
-      <c r="B416" s="12"/>
+      <c r="B416" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C416" s="13" t="s">
         <v>898</v>
       </c>
@@ -21733,11 +21902,13 @@
       </c>
       <c r="L416" s="9"/>
     </row>
-    <row r="417" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="12">
         <v>1707</v>
       </c>
-      <c r="B417" s="12"/>
+      <c r="B417" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C417" s="13" t="s">
         <v>900</v>
       </c>
@@ -21767,11 +21938,13 @@
       </c>
       <c r="L417" s="9"/>
     </row>
-    <row r="418" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="12">
         <v>1708</v>
       </c>
-      <c r="B418" s="12"/>
+      <c r="B418" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C418" s="13" t="s">
         <v>902</v>
       </c>
@@ -21801,11 +21974,13 @@
       </c>
       <c r="L418" s="9"/>
     </row>
-    <row r="419" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="12">
         <v>1709</v>
       </c>
-      <c r="B419" s="12"/>
+      <c r="B419" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C419" s="13" t="s">
         <v>904</v>
       </c>
@@ -21835,11 +22010,13 @@
       </c>
       <c r="L419" s="9"/>
     </row>
-    <row r="420" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="12">
         <v>1710</v>
       </c>
-      <c r="B420" s="12"/>
+      <c r="B420" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C420" s="13" t="s">
         <v>906</v>
       </c>
@@ -21869,11 +22046,13 @@
       </c>
       <c r="L420" s="9"/>
     </row>
-    <row r="421" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="12">
         <v>1711</v>
       </c>
-      <c r="B421" s="12"/>
+      <c r="B421" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C421" s="13" t="s">
         <v>908</v>
       </c>
@@ -21903,11 +22082,13 @@
       </c>
       <c r="L421" s="9"/>
     </row>
-    <row r="422" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="12">
         <v>1712</v>
       </c>
-      <c r="B422" s="12"/>
+      <c r="B422" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C422" s="13" t="s">
         <v>910</v>
       </c>
@@ -21937,11 +22118,13 @@
       </c>
       <c r="L422" s="9"/>
     </row>
-    <row r="423" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="12">
         <v>1713</v>
       </c>
-      <c r="B423" s="12"/>
+      <c r="B423" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C423" s="13" t="s">
         <v>912</v>
       </c>
@@ -21971,11 +22154,13 @@
       </c>
       <c r="L423" s="9"/>
     </row>
-    <row r="424" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="12">
         <v>1714</v>
       </c>
-      <c r="B424" s="12"/>
+      <c r="B424" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C424" s="13" t="s">
         <v>914</v>
       </c>
@@ -22005,11 +22190,13 @@
       </c>
       <c r="L424" s="9"/>
     </row>
-    <row r="425" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="12">
         <v>1715</v>
       </c>
-      <c r="B425" s="12"/>
+      <c r="B425" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C425" s="13" t="s">
         <v>916</v>
       </c>
@@ -22039,11 +22226,13 @@
       </c>
       <c r="L425" s="9"/>
     </row>
-    <row r="426" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="12">
         <v>1716</v>
       </c>
-      <c r="B426" s="12"/>
+      <c r="B426" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C426" s="13" t="s">
         <v>918</v>
       </c>
@@ -22073,7 +22262,7 @@
       </c>
       <c r="L426" s="9"/>
     </row>
-    <row r="427" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="12">
         <v>1717</v>
       </c>
@@ -22107,11 +22296,13 @@
       </c>
       <c r="L427" s="9"/>
     </row>
-    <row r="428" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="12">
         <v>1718</v>
       </c>
-      <c r="B428" s="12"/>
+      <c r="B428" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C428" s="13" t="s">
         <v>922</v>
       </c>
@@ -22141,11 +22332,13 @@
       </c>
       <c r="L428" s="9"/>
     </row>
-    <row r="429" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="12">
         <v>1719</v>
       </c>
-      <c r="B429" s="12"/>
+      <c r="B429" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C429" s="13" t="s">
         <v>924</v>
       </c>
@@ -22175,7 +22368,7 @@
       </c>
       <c r="L429" s="9"/>
     </row>
-    <row r="430" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="12">
         <v>1720</v>
       </c>
@@ -22209,11 +22402,13 @@
       </c>
       <c r="L430" s="9"/>
     </row>
-    <row r="431" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="12">
         <v>1721</v>
       </c>
-      <c r="B431" s="12"/>
+      <c r="B431" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C431" s="13" t="s">
         <v>927</v>
       </c>
@@ -22243,11 +22438,13 @@
       </c>
       <c r="L431" s="9"/>
     </row>
-    <row r="432" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="12">
         <v>1722</v>
       </c>
-      <c r="B432" s="12"/>
+      <c r="B432" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C432" s="13" t="s">
         <v>929</v>
       </c>
@@ -22277,11 +22474,13 @@
       </c>
       <c r="L432" s="9"/>
     </row>
-    <row r="433" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="12">
         <v>1723</v>
       </c>
-      <c r="B433" s="12"/>
+      <c r="B433" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C433" s="13" t="s">
         <v>931</v>
       </c>
@@ -22311,11 +22510,13 @@
       </c>
       <c r="L433" s="9"/>
     </row>
-    <row r="434" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="12">
         <v>1724</v>
       </c>
-      <c r="B434" s="12"/>
+      <c r="B434" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C434" s="13" t="s">
         <v>932</v>
       </c>
@@ -22345,7 +22546,7 @@
       </c>
       <c r="L434" s="9"/>
     </row>
-    <row r="435" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="12">
         <v>1725</v>
       </c>
@@ -22379,7 +22580,7 @@
       </c>
       <c r="L435" s="9"/>
     </row>
-    <row r="436" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="12">
         <v>1726</v>
       </c>
@@ -22413,7 +22614,7 @@
       </c>
       <c r="L436" s="9"/>
     </row>
-    <row r="437" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="12">
         <v>1727</v>
       </c>
@@ -22447,7 +22648,7 @@
       </c>
       <c r="L437" s="9"/>
     </row>
-    <row r="438" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="12">
         <v>1728</v>
       </c>
@@ -22481,7 +22682,7 @@
       </c>
       <c r="L438" s="9"/>
     </row>
-    <row r="439" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="12">
         <v>1729</v>
       </c>
@@ -22515,7 +22716,7 @@
       </c>
       <c r="L439" s="9"/>
     </row>
-    <row r="440" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="12">
         <v>1730</v>
       </c>
@@ -22549,7 +22750,7 @@
       </c>
       <c r="L440" s="9"/>
     </row>
-    <row r="441" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="12">
         <v>1731</v>
       </c>
@@ -22583,7 +22784,7 @@
       </c>
       <c r="L441" s="9"/>
     </row>
-    <row r="442" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="12">
         <v>1732</v>
       </c>
@@ -22617,7 +22818,7 @@
       </c>
       <c r="L442" s="9"/>
     </row>
-    <row r="443" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="12">
         <v>1733</v>
       </c>
@@ -22651,7 +22852,7 @@
       </c>
       <c r="L443" s="9"/>
     </row>
-    <row r="444" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="12">
         <v>1734</v>
       </c>
@@ -22685,7 +22886,7 @@
       </c>
       <c r="L444" s="9"/>
     </row>
-    <row r="445" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="12">
         <v>1735</v>
       </c>
@@ -22719,7 +22920,7 @@
       </c>
       <c r="L445" s="9"/>
     </row>
-    <row r="446" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="12">
         <v>1736</v>
       </c>
@@ -22753,7 +22954,7 @@
       </c>
       <c r="L446" s="9"/>
     </row>
-    <row r="447" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="12">
         <v>1737</v>
       </c>
@@ -22787,7 +22988,7 @@
       </c>
       <c r="L447" s="9"/>
     </row>
-    <row r="448" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="12">
         <v>1738</v>
       </c>
@@ -22821,7 +23022,7 @@
       </c>
       <c r="L448" s="9"/>
     </row>
-    <row r="449" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="12">
         <v>1739</v>
       </c>
@@ -22855,7 +23056,7 @@
       </c>
       <c r="L449" s="9"/>
     </row>
-    <row r="450" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="12">
         <v>1740</v>
       </c>
@@ -22889,7 +23090,7 @@
       </c>
       <c r="L450" s="9"/>
     </row>
-    <row r="451" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="12">
         <v>1741</v>
       </c>
@@ -22923,7 +23124,7 @@
       </c>
       <c r="L451" s="9"/>
     </row>
-    <row r="452" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="12">
         <v>1742</v>
       </c>
@@ -22957,7 +23158,7 @@
       </c>
       <c r="L452" s="9"/>
     </row>
-    <row r="453" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="12">
         <v>1743</v>
       </c>
@@ -22991,7 +23192,7 @@
       </c>
       <c r="L453" s="9"/>
     </row>
-    <row r="454" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="12">
         <v>1744</v>
       </c>
@@ -23025,7 +23226,7 @@
       </c>
       <c r="L454" s="9"/>
     </row>
-    <row r="455" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="12">
         <v>1745</v>
       </c>
@@ -23059,7 +23260,7 @@
       </c>
       <c r="L455" s="9"/>
     </row>
-    <row r="456" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="12">
         <v>1746</v>
       </c>
@@ -23093,7 +23294,7 @@
       </c>
       <c r="L456" s="9"/>
     </row>
-    <row r="457" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="12">
         <v>1747</v>
       </c>
@@ -23127,7 +23328,7 @@
       </c>
       <c r="L457" s="9"/>
     </row>
-    <row r="458" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="12">
         <v>1748</v>
       </c>
@@ -23161,7 +23362,7 @@
       </c>
       <c r="L458" s="9"/>
     </row>
-    <row r="459" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="12">
         <v>1749</v>
       </c>
@@ -23195,7 +23396,7 @@
       </c>
       <c r="L459" s="9"/>
     </row>
-    <row r="460" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="12">
         <v>1750</v>
       </c>
@@ -23229,7 +23430,7 @@
       </c>
       <c r="L460" s="9"/>
     </row>
-    <row r="461" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="12">
         <v>1751</v>
       </c>
@@ -23263,7 +23464,7 @@
       </c>
       <c r="L461" s="9"/>
     </row>
-    <row r="462" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="12">
         <v>1752</v>
       </c>
@@ -23297,7 +23498,7 @@
       </c>
       <c r="L462" s="9"/>
     </row>
-    <row r="463" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="12">
         <v>1753</v>
       </c>
@@ -23331,7 +23532,7 @@
       </c>
       <c r="L463" s="9"/>
     </row>
-    <row r="464" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="12">
         <v>1754</v>
       </c>
@@ -23365,7 +23566,7 @@
       </c>
       <c r="L464" s="9"/>
     </row>
-    <row r="465" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="12">
         <v>1755</v>
       </c>
@@ -23399,7 +23600,7 @@
       </c>
       <c r="L465" s="9"/>
     </row>
-    <row r="466" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="12">
         <v>1756</v>
       </c>
@@ -23433,7 +23634,7 @@
       </c>
       <c r="L466" s="9"/>
     </row>
-    <row r="467" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="12">
         <v>1757</v>
       </c>
@@ -23467,7 +23668,7 @@
       </c>
       <c r="L467" s="9"/>
     </row>
-    <row r="468" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="12">
         <v>1758</v>
       </c>
@@ -23501,7 +23702,7 @@
       </c>
       <c r="L468" s="9"/>
     </row>
-    <row r="469" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="12">
         <v>1759</v>
       </c>
@@ -23535,7 +23736,7 @@
       </c>
       <c r="L469" s="9"/>
     </row>
-    <row r="470" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="12">
         <v>1760</v>
       </c>
@@ -23569,7 +23770,7 @@
       </c>
       <c r="L470" s="9"/>
     </row>
-    <row r="471" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="12">
         <v>1761</v>
       </c>
@@ -23603,7 +23804,7 @@
       </c>
       <c r="L471" s="9"/>
     </row>
-    <row r="472" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="12">
         <v>1762</v>
       </c>
@@ -23637,7 +23838,7 @@
       </c>
       <c r="L472" s="9"/>
     </row>
-    <row r="473" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="12">
         <v>1763</v>
       </c>
@@ -23671,7 +23872,7 @@
       </c>
       <c r="L473" s="9"/>
     </row>
-    <row r="474" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="12">
         <v>1764</v>
       </c>
@@ -23705,7 +23906,7 @@
       </c>
       <c r="L474" s="9"/>
     </row>
-    <row r="475" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="12">
         <v>1765</v>
       </c>
@@ -23739,7 +23940,7 @@
       </c>
       <c r="L475" s="9"/>
     </row>
-    <row r="476" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="12">
         <v>1766</v>
       </c>
@@ -23773,7 +23974,7 @@
       </c>
       <c r="L476" s="9"/>
     </row>
-    <row r="477" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="12">
         <v>1767</v>
       </c>
@@ -23807,7 +24008,7 @@
       </c>
       <c r="L477" s="9"/>
     </row>
-    <row r="478" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="12">
         <v>1768</v>
       </c>
@@ -23841,7 +24042,7 @@
       </c>
       <c r="L478" s="9"/>
     </row>
-    <row r="479" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="12">
         <v>1769</v>
       </c>
@@ -23875,7 +24076,7 @@
       </c>
       <c r="L479" s="9"/>
     </row>
-    <row r="480" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="12">
         <v>1770</v>
       </c>
@@ -23909,7 +24110,7 @@
       </c>
       <c r="L480" s="9"/>
     </row>
-    <row r="481" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="12">
         <v>1771</v>
       </c>
@@ -23943,7 +24144,7 @@
       </c>
       <c r="L481" s="9"/>
     </row>
-    <row r="482" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="12">
         <v>1772</v>
       </c>
@@ -23977,7 +24178,7 @@
       </c>
       <c r="L482" s="9"/>
     </row>
-    <row r="483" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="12">
         <v>1773</v>
       </c>
@@ -24011,7 +24212,7 @@
       </c>
       <c r="L483" s="9"/>
     </row>
-    <row r="484" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="12">
         <v>1774</v>
       </c>
@@ -24045,7 +24246,7 @@
       </c>
       <c r="L484" s="9"/>
     </row>
-    <row r="485" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="12">
         <v>1775</v>
       </c>
@@ -24079,7 +24280,7 @@
       </c>
       <c r="L485" s="9"/>
     </row>
-    <row r="486" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="12">
         <v>1776</v>
       </c>
@@ -24113,7 +24314,7 @@
       </c>
       <c r="L486" s="9"/>
     </row>
-    <row r="487" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="12">
         <v>1777</v>
       </c>
@@ -24147,7 +24348,7 @@
       </c>
       <c r="L487" s="9"/>
     </row>
-    <row r="488" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="12">
         <v>1778</v>
       </c>
@@ -24181,7 +24382,7 @@
       </c>
       <c r="L488" s="9"/>
     </row>
-    <row r="489" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="12">
         <v>1779</v>
       </c>
@@ -24215,7 +24416,7 @@
       </c>
       <c r="L489" s="9"/>
     </row>
-    <row r="490" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="12">
         <v>1780</v>
       </c>
@@ -24249,7 +24450,7 @@
       </c>
       <c r="L490" s="9"/>
     </row>
-    <row r="491" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="12">
         <v>1781</v>
       </c>
@@ -24283,7 +24484,7 @@
       </c>
       <c r="L491" s="9"/>
     </row>
-    <row r="492" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="12">
         <v>1782</v>
       </c>
@@ -24317,7 +24518,7 @@
       </c>
       <c r="L492" s="9"/>
     </row>
-    <row r="493" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="12">
         <v>1783</v>
       </c>
@@ -24351,7 +24552,7 @@
       </c>
       <c r="L493" s="9"/>
     </row>
-    <row r="494" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="12">
         <v>1784</v>
       </c>
@@ -24385,7 +24586,7 @@
       </c>
       <c r="L494" s="9"/>
     </row>
-    <row r="495" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="12">
         <v>1785</v>
       </c>
@@ -24419,7 +24620,7 @@
       </c>
       <c r="L495" s="9"/>
     </row>
-    <row r="496" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="12">
         <v>1786</v>
       </c>
@@ -24453,7 +24654,7 @@
       </c>
       <c r="L496" s="9"/>
     </row>
-    <row r="497" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="12">
         <v>1787</v>
       </c>
@@ -24487,7 +24688,7 @@
       </c>
       <c r="L497" s="9"/>
     </row>
-    <row r="498" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="12">
         <v>1788</v>
       </c>
@@ -24521,7 +24722,7 @@
       </c>
       <c r="L498" s="9"/>
     </row>
-    <row r="499" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="12">
         <v>1789</v>
       </c>
@@ -24555,7 +24756,7 @@
       </c>
       <c r="L499" s="9"/>
     </row>
-    <row r="500" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="12">
         <v>1790</v>
       </c>
@@ -24589,7 +24790,7 @@
       </c>
       <c r="L500" s="9"/>
     </row>
-    <row r="501" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="12">
         <v>1791</v>
       </c>
@@ -24617,7 +24818,7 @@
       <c r="K501" s="15"/>
       <c r="L501" s="9"/>
     </row>
-    <row r="502" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="12">
         <v>1792</v>
       </c>
@@ -24645,7 +24846,7 @@
       <c r="K502" s="15"/>
       <c r="L502" s="9"/>
     </row>
-    <row r="503" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="12">
         <v>1793</v>
       </c>
@@ -24673,7 +24874,7 @@
       <c r="K503" s="15"/>
       <c r="L503" s="9"/>
     </row>
-    <row r="504" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="12">
         <v>1794</v>
       </c>
@@ -24701,7 +24902,7 @@
       <c r="K504" s="15"/>
       <c r="L504" s="9"/>
     </row>
-    <row r="505" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="12">
         <v>1795</v>
       </c>
@@ -24729,7 +24930,7 @@
       <c r="K505" s="15"/>
       <c r="L505" s="9"/>
     </row>
-    <row r="506" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="12">
         <v>1796</v>
       </c>
@@ -24757,7 +24958,7 @@
       <c r="K506" s="15"/>
       <c r="L506" s="9"/>
     </row>
-    <row r="507" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="12">
         <v>1797</v>
       </c>
@@ -24785,7 +24986,7 @@
       <c r="K507" s="15"/>
       <c r="L507" s="9"/>
     </row>
-    <row r="508" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="12">
         <v>1798</v>
       </c>
@@ -24813,7 +25014,7 @@
       <c r="K508" s="15"/>
       <c r="L508" s="9"/>
     </row>
-    <row r="509" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="12">
         <v>1799</v>
       </c>
@@ -24841,7 +25042,7 @@
       <c r="K509" s="15"/>
       <c r="L509" s="9"/>
     </row>
-    <row r="510" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="12">
         <v>1800</v>
       </c>
@@ -24873,11 +25074,13 @@
       <c r="K510" s="15"/>
       <c r="L510" s="9"/>
     </row>
-    <row r="511" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="12">
         <v>1801</v>
       </c>
-      <c r="B511" s="12"/>
+      <c r="B511" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C511" s="13" t="s">
         <v>1058</v>
       </c>
@@ -24907,11 +25110,13 @@
       </c>
       <c r="L511" s="9"/>
     </row>
-    <row r="512" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="12">
         <v>1802</v>
       </c>
-      <c r="B512" s="12"/>
+      <c r="B512" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C512" s="13" t="s">
         <v>1061</v>
       </c>
@@ -24941,11 +25146,13 @@
       </c>
       <c r="L512" s="9"/>
     </row>
-    <row r="513" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="12">
         <v>1803</v>
       </c>
-      <c r="B513" s="12"/>
+      <c r="B513" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C513" s="13" t="s">
         <v>1063</v>
       </c>
@@ -24975,11 +25182,13 @@
       </c>
       <c r="L513" s="9"/>
     </row>
-    <row r="514" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="12">
         <v>1804</v>
       </c>
-      <c r="B514" s="12"/>
+      <c r="B514" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C514" s="13" t="s">
         <v>1064</v>
       </c>
@@ -25009,7 +25218,7 @@
       </c>
       <c r="L514" s="9"/>
     </row>
-    <row r="515" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="12">
         <v>1805</v>
       </c>
@@ -25037,11 +25246,13 @@
       <c r="K515" s="15"/>
       <c r="L515" s="9"/>
     </row>
-    <row r="516" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="12">
         <v>1806</v>
       </c>
-      <c r="B516" s="12"/>
+      <c r="B516" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C516" s="13" t="s">
         <v>1068</v>
       </c>
@@ -25071,11 +25282,13 @@
       </c>
       <c r="L516" s="9"/>
     </row>
-    <row r="517" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="12">
         <v>1807</v>
       </c>
-      <c r="B517" s="12"/>
+      <c r="B517" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C517" s="13" t="s">
         <v>1070</v>
       </c>
@@ -25105,11 +25318,13 @@
       </c>
       <c r="L517" s="9"/>
     </row>
-    <row r="518" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="12">
         <v>1808</v>
       </c>
-      <c r="B518" s="12"/>
+      <c r="B518" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C518" s="13" t="s">
         <v>1072</v>
       </c>
@@ -25139,7 +25354,7 @@
       </c>
       <c r="L518" s="9"/>
     </row>
-    <row r="519" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="12">
         <v>1809</v>
       </c>
@@ -25173,11 +25388,13 @@
       </c>
       <c r="L519" s="9"/>
     </row>
-    <row r="520" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="12">
         <v>1810</v>
       </c>
-      <c r="B520" s="12"/>
+      <c r="B520" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C520" s="13" t="s">
         <v>1074</v>
       </c>
@@ -25207,11 +25424,13 @@
       </c>
       <c r="L520" s="9"/>
     </row>
-    <row r="521" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="12">
         <v>1811</v>
       </c>
-      <c r="B521" s="12"/>
+      <c r="B521" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C521" s="13" t="s">
         <v>1075</v>
       </c>
@@ -25241,11 +25460,13 @@
       </c>
       <c r="L521" s="9"/>
     </row>
-    <row r="522" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="12">
         <v>1812</v>
       </c>
-      <c r="B522" s="12"/>
+      <c r="B522" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C522" s="13" t="s">
         <v>1076</v>
       </c>
@@ -25275,11 +25496,13 @@
       </c>
       <c r="L522" s="9"/>
     </row>
-    <row r="523" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="12">
         <v>1813</v>
       </c>
-      <c r="B523" s="12"/>
+      <c r="B523" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C523" s="13" t="s">
         <v>1077</v>
       </c>
@@ -25309,7 +25532,7 @@
       </c>
       <c r="L523" s="9"/>
     </row>
-    <row r="524" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="12">
         <v>1814</v>
       </c>
@@ -25337,11 +25560,13 @@
       <c r="K524" s="15"/>
       <c r="L524" s="9"/>
     </row>
-    <row r="525" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="12">
         <v>1815</v>
       </c>
-      <c r="B525" s="12"/>
+      <c r="B525" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C525" s="13" t="s">
         <v>1093</v>
       </c>
@@ -25371,7 +25596,7 @@
       </c>
       <c r="L525" s="9"/>
     </row>
-    <row r="526" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="12">
         <v>1816</v>
       </c>
@@ -25405,7 +25630,7 @@
       </c>
       <c r="L526" s="9"/>
     </row>
-    <row r="527" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="12">
         <v>1817</v>
       </c>
@@ -25433,7 +25658,7 @@
       <c r="K527" s="15"/>
       <c r="L527" s="9"/>
     </row>
-    <row r="528" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="12">
         <v>1818</v>
       </c>
@@ -25461,7 +25686,7 @@
       <c r="K528" s="15"/>
       <c r="L528" s="9"/>
     </row>
-    <row r="529" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="12">
         <v>1819</v>
       </c>
@@ -25495,7 +25720,7 @@
       </c>
       <c r="L529" s="9"/>
     </row>
-    <row r="530" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="12">
         <v>1820</v>
       </c>
@@ -25529,7 +25754,7 @@
       </c>
       <c r="L530" s="9"/>
     </row>
-    <row r="531" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="12">
         <v>1821</v>
       </c>
@@ -25557,11 +25782,13 @@
       <c r="K531" s="15"/>
       <c r="L531" s="9"/>
     </row>
-    <row r="532" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="12">
         <v>1822</v>
       </c>
-      <c r="B532" s="12"/>
+      <c r="B532" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C532" s="13" t="s">
         <v>1079</v>
       </c>
@@ -25591,11 +25818,13 @@
       </c>
       <c r="L532" s="9"/>
     </row>
-    <row r="533" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="12">
         <v>1823</v>
       </c>
-      <c r="B533" s="12"/>
+      <c r="B533" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C533" s="13" t="s">
         <v>1080</v>
       </c>
@@ -25625,11 +25854,13 @@
       </c>
       <c r="L533" s="9"/>
     </row>
-    <row r="534" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="12">
         <v>1824</v>
       </c>
-      <c r="B534" s="12"/>
+      <c r="B534" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C534" s="13" t="s">
         <v>1082</v>
       </c>
@@ -25659,11 +25890,13 @@
       </c>
       <c r="L534" s="9"/>
     </row>
-    <row r="535" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="12">
         <v>1825</v>
       </c>
-      <c r="B535" s="12"/>
+      <c r="B535" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C535" s="13" t="s">
         <v>1084</v>
       </c>
@@ -25693,11 +25926,13 @@
       </c>
       <c r="L535" s="9"/>
     </row>
-    <row r="536" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="12">
         <v>1826</v>
       </c>
-      <c r="B536" s="12"/>
+      <c r="B536" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C536" s="13" t="s">
         <v>1086</v>
       </c>
@@ -25727,11 +25962,13 @@
       </c>
       <c r="L536" s="9"/>
     </row>
-    <row r="537" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="12">
         <v>1827</v>
       </c>
-      <c r="B537" s="12"/>
+      <c r="B537" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C537" s="13" t="s">
         <v>1088</v>
       </c>
@@ -25761,11 +25998,13 @@
       </c>
       <c r="L537" s="9"/>
     </row>
-    <row r="538" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="12">
         <v>1828</v>
       </c>
-      <c r="B538" s="12"/>
+      <c r="B538" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C538" s="13" t="s">
         <v>1090</v>
       </c>
@@ -25795,7 +26034,7 @@
       </c>
       <c r="L538" s="9"/>
     </row>
-    <row r="539" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="12">
         <v>1829</v>
       </c>
@@ -25823,7 +26062,7 @@
       <c r="K539" s="15"/>
       <c r="L539" s="9"/>
     </row>
-    <row r="540" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="12">
         <v>1830</v>
       </c>
@@ -25851,7 +26090,7 @@
       <c r="K540" s="15"/>
       <c r="L540" s="9"/>
     </row>
-    <row r="541" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="12">
         <v>1831</v>
       </c>
@@ -25885,11 +26124,13 @@
       </c>
       <c r="L541" s="9"/>
     </row>
-    <row r="542" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="12">
         <v>1832</v>
       </c>
-      <c r="B542" s="12"/>
+      <c r="B542" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C542" s="13" t="s">
         <v>1111</v>
       </c>
@@ -25919,7 +26160,7 @@
       </c>
       <c r="L542" s="9"/>
     </row>
-    <row r="543" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="12">
         <v>1833</v>
       </c>
@@ -25947,7 +26188,7 @@
       <c r="K543" s="15"/>
       <c r="L543" s="9"/>
     </row>
-    <row r="544" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="12">
         <v>1834</v>
       </c>
@@ -25975,7 +26216,7 @@
       <c r="K544" s="15"/>
       <c r="L544" s="9"/>
     </row>
-    <row r="545" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="12">
         <v>1835</v>
       </c>
@@ -26007,7 +26248,7 @@
       <c r="K545" s="15"/>
       <c r="L545" s="9"/>
     </row>
-    <row r="546" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="12">
         <v>1836</v>
       </c>
@@ -26041,7 +26282,7 @@
       </c>
       <c r="L546" s="9"/>
     </row>
-    <row r="547" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="12">
         <v>1837</v>
       </c>
@@ -26069,7 +26310,7 @@
       <c r="K547" s="15"/>
       <c r="L547" s="9"/>
     </row>
-    <row r="548" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="12">
         <v>1838</v>
       </c>
@@ -26103,7 +26344,7 @@
       </c>
       <c r="L548" s="9"/>
     </row>
-    <row r="549" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="12">
         <v>1839</v>
       </c>
@@ -26137,7 +26378,7 @@
       </c>
       <c r="L549" s="9"/>
     </row>
-    <row r="550" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="12">
         <v>1840</v>
       </c>
@@ -26165,7 +26406,7 @@
       <c r="K550" s="15"/>
       <c r="L550" s="9"/>
     </row>
-    <row r="551" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="12">
         <v>1841</v>
       </c>
@@ -26193,7 +26434,7 @@
       <c r="K551" s="15"/>
       <c r="L551" s="9"/>
     </row>
-    <row r="552" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="12">
         <v>1842</v>
       </c>
@@ -26221,7 +26462,7 @@
       <c r="K552" s="15"/>
       <c r="L552" s="9"/>
     </row>
-    <row r="553" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="12">
         <v>1843</v>
       </c>
@@ -26249,7 +26490,7 @@
       <c r="K553" s="15"/>
       <c r="L553" s="9"/>
     </row>
-    <row r="554" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="12">
         <v>1844</v>
       </c>
@@ -26277,7 +26518,7 @@
       <c r="K554" s="15"/>
       <c r="L554" s="9"/>
     </row>
-    <row r="555" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="12">
         <v>1845</v>
       </c>
@@ -26305,7 +26546,7 @@
       <c r="K555" s="15"/>
       <c r="L555" s="9"/>
     </row>
-    <row r="556" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="12">
         <v>1846</v>
       </c>
@@ -26333,7 +26574,7 @@
       <c r="K556" s="15"/>
       <c r="L556" s="9"/>
     </row>
-    <row r="557" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="12">
         <v>1847</v>
       </c>
@@ -26361,7 +26602,7 @@
       <c r="K557" s="15"/>
       <c r="L557" s="9"/>
     </row>
-    <row r="558" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="12">
         <v>1848</v>
       </c>
@@ -26395,7 +26636,7 @@
       </c>
       <c r="L558" s="9"/>
     </row>
-    <row r="559" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="12">
         <v>1849</v>
       </c>
@@ -26423,11 +26664,13 @@
       <c r="K559" s="15"/>
       <c r="L559" s="9"/>
     </row>
-    <row r="560" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="12">
         <v>1850</v>
       </c>
-      <c r="B560" s="12"/>
+      <c r="B560" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C560" s="13" t="s">
         <v>1130</v>
       </c>
@@ -26446,12 +26689,18 @@
       <c r="H560" s="14" t="s">
         <v>2330</v>
       </c>
-      <c r="I560" s="14"/>
-      <c r="J560" s="14"/>
-      <c r="K560" s="15"/>
+      <c r="I560" s="16" t="s">
+        <v>2353</v>
+      </c>
+      <c r="J560" s="16" t="s">
+        <v>2354</v>
+      </c>
+      <c r="K560" s="15" t="s">
+        <v>2313</v>
+      </c>
       <c r="L560" s="9"/>
     </row>
-    <row r="561" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="12">
         <v>1851</v>
       </c>
@@ -26485,7 +26734,7 @@
       </c>
       <c r="L561" s="9"/>
     </row>
-    <row r="562" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="12">
         <v>1852</v>
       </c>
@@ -26513,7 +26762,7 @@
       <c r="K562" s="15"/>
       <c r="L562" s="9"/>
     </row>
-    <row r="563" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="12">
         <v>1853</v>
       </c>
@@ -26547,11 +26796,13 @@
       </c>
       <c r="L563" s="9"/>
     </row>
-    <row r="564" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="12">
         <v>1854</v>
       </c>
-      <c r="B564" s="12"/>
+      <c r="B564" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C564" s="13" t="s">
         <v>1136</v>
       </c>
@@ -26570,12 +26821,18 @@
       <c r="H564" s="14" t="s">
         <v>2330</v>
       </c>
-      <c r="I564" s="14"/>
-      <c r="J564" s="14"/>
-      <c r="K564" s="15"/>
+      <c r="I564" s="16" t="s">
+        <v>2355</v>
+      </c>
+      <c r="J564" s="16" t="s">
+        <v>2356</v>
+      </c>
+      <c r="K564" s="15" t="s">
+        <v>2313</v>
+      </c>
       <c r="L564" s="9"/>
     </row>
-    <row r="565" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="12">
         <v>1855</v>
       </c>
@@ -26609,11 +26866,13 @@
       </c>
       <c r="L565" s="9"/>
     </row>
-    <row r="566" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="12">
         <v>1856</v>
       </c>
-      <c r="B566" s="12"/>
+      <c r="B566" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C566" s="13" t="s">
         <v>1150</v>
       </c>
@@ -26643,7 +26902,7 @@
       </c>
       <c r="L566" s="9"/>
     </row>
-    <row r="567" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="12">
         <v>1857</v>
       </c>
@@ -26671,11 +26930,13 @@
       <c r="K567" s="15"/>
       <c r="L567" s="9"/>
     </row>
-    <row r="568" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="12">
         <v>1858</v>
       </c>
-      <c r="B568" s="12"/>
+      <c r="B568" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C568" s="13" t="s">
         <v>1149</v>
       </c>
@@ -26705,7 +26966,7 @@
       </c>
       <c r="L568" s="9"/>
     </row>
-    <row r="569" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="12">
         <v>1859</v>
       </c>
@@ -26739,11 +27000,13 @@
       </c>
       <c r="L569" s="9"/>
     </row>
-    <row r="570" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="12">
         <v>1860</v>
       </c>
-      <c r="B570" s="12"/>
+      <c r="B570" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C570" s="13" t="s">
         <v>1165</v>
       </c>
@@ -26773,7 +27036,7 @@
       </c>
       <c r="L570" s="9"/>
     </row>
-    <row r="571" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="12">
         <v>1861</v>
       </c>
@@ -26807,7 +27070,7 @@
       </c>
       <c r="L571" s="9"/>
     </row>
-    <row r="572" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="12">
         <v>1862</v>
       </c>
@@ -26835,7 +27098,7 @@
       <c r="K572" s="15"/>
       <c r="L572" s="9"/>
     </row>
-    <row r="573" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="12">
         <v>1863</v>
       </c>
@@ -26869,7 +27132,7 @@
       </c>
       <c r="L573" s="9"/>
     </row>
-    <row r="574" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="12">
         <v>1864</v>
       </c>
@@ -26903,7 +27166,7 @@
       </c>
       <c r="L574" s="9"/>
     </row>
-    <row r="575" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="12">
         <v>1865</v>
       </c>
@@ -26937,7 +27200,7 @@
       </c>
       <c r="L575" s="9"/>
     </row>
-    <row r="576" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="12">
         <v>1866</v>
       </c>
@@ -26971,7 +27234,7 @@
       </c>
       <c r="L576" s="9"/>
     </row>
-    <row r="577" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="12">
         <v>1867</v>
       </c>
@@ -27005,7 +27268,7 @@
       </c>
       <c r="L577" s="9"/>
     </row>
-    <row r="578" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="12">
         <v>1868</v>
       </c>
@@ -27039,7 +27302,7 @@
       </c>
       <c r="L578" s="9"/>
     </row>
-    <row r="579" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="12">
         <v>1869</v>
       </c>
@@ -27073,7 +27336,7 @@
       </c>
       <c r="L579" s="9"/>
     </row>
-    <row r="580" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="12">
         <v>1870</v>
       </c>
@@ -27107,11 +27370,13 @@
       </c>
       <c r="L580" s="9"/>
     </row>
-    <row r="581" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="12">
         <v>1871</v>
       </c>
-      <c r="B581" s="12"/>
+      <c r="B581" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C581" s="13" t="s">
         <v>1244</v>
       </c>
@@ -27139,11 +27404,13 @@
       <c r="K581" s="15"/>
       <c r="L581" s="9"/>
     </row>
-    <row r="582" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="12">
         <v>1872</v>
       </c>
-      <c r="B582" s="12"/>
+      <c r="B582" s="12" t="s">
+        <v>2352</v>
+      </c>
       <c r="C582" s="13" t="s">
         <v>1242</v>
       </c>
@@ -27169,7 +27436,7 @@
       <c r="K582" s="15"/>
       <c r="L582" s="9"/>
     </row>
-    <row r="583" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="12">
         <v>1873</v>
       </c>
@@ -27197,7 +27464,7 @@
       <c r="K583" s="15"/>
       <c r="L583" s="9"/>
     </row>
-    <row r="584" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="12">
         <v>1874</v>
       </c>
@@ -27225,7 +27492,7 @@
       <c r="K584" s="15"/>
       <c r="L584" s="9"/>
     </row>
-    <row r="585" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="12">
         <v>1875</v>
       </c>
@@ -27253,7 +27520,7 @@
       <c r="K585" s="15"/>
       <c r="L585" s="9"/>
     </row>
-    <row r="586" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="12">
         <v>1876</v>
       </c>
@@ -27281,7 +27548,7 @@
       <c r="K586" s="15"/>
       <c r="L586" s="9"/>
     </row>
-    <row r="587" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="12">
         <v>1877</v>
       </c>
@@ -27309,7 +27576,7 @@
       <c r="K587" s="15"/>
       <c r="L587" s="9"/>
     </row>
-    <row r="588" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="12">
         <v>1878</v>
       </c>
@@ -27343,7 +27610,7 @@
       </c>
       <c r="L588" s="9"/>
     </row>
-    <row r="589" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="12">
         <v>1879</v>
       </c>
@@ -27377,7 +27644,7 @@
       </c>
       <c r="L589" s="9"/>
     </row>
-    <row r="590" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="12">
         <v>1880</v>
       </c>
@@ -27405,7 +27672,7 @@
       <c r="K590" s="15"/>
       <c r="L590" s="9"/>
     </row>
-    <row r="591" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="12">
         <v>1881</v>
       </c>
@@ -27433,7 +27700,7 @@
       <c r="K591" s="15"/>
       <c r="L591" s="9"/>
     </row>
-    <row r="592" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="12">
         <v>1882</v>
       </c>
@@ -27461,7 +27728,7 @@
       <c r="K592" s="15"/>
       <c r="L592" s="9"/>
     </row>
-    <row r="593" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="12">
         <v>1883</v>
       </c>
@@ -27495,7 +27762,7 @@
       </c>
       <c r="L593" s="9"/>
     </row>
-    <row r="594" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="12">
         <v>1884</v>
       </c>
@@ -27523,7 +27790,7 @@
       <c r="K594" s="15"/>
       <c r="L594" s="9"/>
     </row>
-    <row r="595" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="12">
         <v>1885</v>
       </c>
@@ -27557,7 +27824,7 @@
       </c>
       <c r="L595" s="9"/>
     </row>
-    <row r="596" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="12">
         <v>1886</v>
       </c>
@@ -27591,7 +27858,7 @@
       </c>
       <c r="L596" s="9"/>
     </row>
-    <row r="597" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="12">
         <v>1887</v>
       </c>
@@ -27625,7 +27892,7 @@
       </c>
       <c r="L597" s="9"/>
     </row>
-    <row r="598" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="12">
         <v>1888</v>
       </c>
@@ -27659,7 +27926,7 @@
       </c>
       <c r="L598" s="9"/>
     </row>
-    <row r="599" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="12">
         <v>1889</v>
       </c>
@@ -27693,7 +27960,7 @@
       </c>
       <c r="L599" s="9"/>
     </row>
-    <row r="600" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="12">
         <v>1890</v>
       </c>
@@ -27727,7 +27994,7 @@
       </c>
       <c r="L600" s="9"/>
     </row>
-    <row r="601" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="12">
         <v>1891</v>
       </c>
@@ -27755,7 +28022,7 @@
       <c r="K601" s="15"/>
       <c r="L601" s="9"/>
     </row>
-    <row r="602" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="12">
         <v>1892</v>
       </c>
@@ -27783,7 +28050,7 @@
       <c r="K602" s="15"/>
       <c r="L602" s="9"/>
     </row>
-    <row r="603" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="12">
         <v>1893</v>
       </c>
@@ -27811,7 +28078,7 @@
       <c r="K603" s="15"/>
       <c r="L603" s="9"/>
     </row>
-    <row r="604" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="12">
         <v>1894</v>
       </c>
@@ -27845,7 +28112,7 @@
       </c>
       <c r="L604" s="9"/>
     </row>
-    <row r="605" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="12">
         <v>1895</v>
       </c>
@@ -27879,7 +28146,7 @@
       </c>
       <c r="L605" s="9"/>
     </row>
-    <row r="606" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="12">
         <v>1896</v>
       </c>
@@ -27913,7 +28180,7 @@
       </c>
       <c r="L606" s="9"/>
     </row>
-    <row r="607" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="12">
         <v>1897</v>
       </c>
@@ -27947,7 +28214,7 @@
       </c>
       <c r="L607" s="9"/>
     </row>
-    <row r="608" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="12">
         <v>1898</v>
       </c>
@@ -27981,7 +28248,7 @@
       </c>
       <c r="L608" s="9"/>
     </row>
-    <row r="609" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="12">
         <v>1899</v>
       </c>
@@ -28015,7 +28282,7 @@
       </c>
       <c r="L609" s="9"/>
     </row>
-    <row r="610" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="12">
         <v>1900</v>
       </c>
@@ -28049,7 +28316,7 @@
       </c>
       <c r="L610" s="9"/>
     </row>
-    <row r="611" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="12">
         <v>1901</v>
       </c>
@@ -28077,7 +28344,7 @@
       <c r="K611" s="15"/>
       <c r="L611" s="9"/>
     </row>
-    <row r="612" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="12">
         <v>1902</v>
       </c>
@@ -28105,7 +28372,7 @@
       <c r="K612" s="15"/>
       <c r="L612" s="9"/>
     </row>
-    <row r="613" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="12">
         <v>1903</v>
       </c>
@@ -28137,7 +28404,7 @@
       <c r="K613" s="15"/>
       <c r="L613" s="9"/>
     </row>
-    <row r="614" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="12">
         <v>1904</v>
       </c>
@@ -28169,7 +28436,7 @@
       <c r="K614" s="15"/>
       <c r="L614" s="9"/>
     </row>
-    <row r="615" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="12">
         <v>1905</v>
       </c>
@@ -28197,7 +28464,7 @@
       <c r="K615" s="15"/>
       <c r="L615" s="9"/>
     </row>
-    <row r="616" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="12">
         <v>1906</v>
       </c>
@@ -28225,7 +28492,7 @@
       <c r="K616" s="15"/>
       <c r="L616" s="9"/>
     </row>
-    <row r="617" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="12">
         <v>1907</v>
       </c>
@@ -28253,7 +28520,7 @@
       <c r="K617" s="15"/>
       <c r="L617" s="9"/>
     </row>
-    <row r="618" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="12">
         <v>1908</v>
       </c>
@@ -28282,7 +28549,7 @@
       <c r="L618" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K618">
+  <sortState ref="A2:K618">
     <sortCondition ref="A2:A618"/>
   </sortState>
   <printOptions horizontalCentered="1"/>

--- a/FORWARDED FOR PRINTING PURPOSE.xlsx
+++ b/FORWARDED FOR PRINTING PURPOSE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CONVOCATION OVERALL DATA\7TH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\bashir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98F6B11-E942-4C06-BB78-8CA80DBE2F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4062CF-7CE1-4F50-8C1B-296D1EEB83F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5754EDB6-AC50-44B2-8BB6-BD21556617BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5754EDB6-AC50-44B2-8BB6-BD21556617BD}"/>
   </bookViews>
   <sheets>
     <sheet name="7TH" sheetId="2" r:id="rId1"/>
@@ -7545,26 +7545,27 @@
   <dimension ref="A1:O618"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -7600,7 +7601,7 @@
       </c>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1292</v>
       </c>
@@ -7645,7 +7646,7 @@
         <v>318500</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1293</v>
       </c>
@@ -7686,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1294</v>
       </c>
@@ -7729,7 +7730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>1295</v>
       </c>
@@ -7774,7 +7775,7 @@
         <v>354250</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>1296</v>
       </c>
@@ -7817,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1297</v>
       </c>
@@ -7862,7 +7863,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>1298</v>
       </c>
@@ -7907,7 +7908,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>1299</v>
       </c>
@@ -7952,7 +7953,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>1300</v>
       </c>
@@ -7993,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>1301</v>
       </c>
@@ -8034,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>1302</v>
       </c>
@@ -8073,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>1303</v>
       </c>
@@ -8107,7 +8108,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>1304</v>
       </c>
@@ -8141,7 +8142,7 @@
       </c>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>1305</v>
       </c>
@@ -8175,7 +8176,7 @@
       </c>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>1306</v>
       </c>
@@ -8211,7 +8212,7 @@
       </c>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>1307</v>
       </c>
@@ -8245,7 +8246,7 @@
       </c>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>1308</v>
       </c>
@@ -8279,7 +8280,7 @@
       </c>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>1309</v>
       </c>
@@ -8313,7 +8314,7 @@
       </c>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>1310</v>
       </c>
@@ -8347,7 +8348,7 @@
       </c>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>1311</v>
       </c>
@@ -8381,7 +8382,7 @@
       </c>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>1312</v>
       </c>
@@ -8415,7 +8416,7 @@
       </c>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>1313</v>
       </c>
@@ -8449,7 +8450,7 @@
       </c>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>1314</v>
       </c>
@@ -8483,7 +8484,7 @@
       </c>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>1315</v>
       </c>
@@ -8517,7 +8518,7 @@
       </c>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>1316</v>
       </c>
@@ -8551,7 +8552,7 @@
       </c>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>1317</v>
       </c>
@@ -8585,7 +8586,7 @@
       </c>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>1318</v>
       </c>
@@ -8619,7 +8620,7 @@
       </c>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>1319</v>
       </c>
@@ -8653,7 +8654,7 @@
       </c>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>1320</v>
       </c>
@@ -8687,7 +8688,7 @@
       </c>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>1321</v>
       </c>
@@ -8721,7 +8722,7 @@
       </c>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>1322</v>
       </c>
@@ -8755,7 +8756,7 @@
       </c>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>1323</v>
       </c>
@@ -8789,7 +8790,7 @@
       </c>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>1324</v>
       </c>
@@ -8823,7 +8824,7 @@
       </c>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>1325</v>
       </c>
@@ -8857,7 +8858,7 @@
       </c>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>1326</v>
       </c>
@@ -8891,7 +8892,7 @@
       </c>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>1327</v>
       </c>
@@ -8925,7 +8926,7 @@
       </c>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>1328</v>
       </c>
@@ -8959,7 +8960,7 @@
       </c>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>1329</v>
       </c>
@@ -8993,7 +8994,7 @@
       </c>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>1330</v>
       </c>
@@ -9027,7 +9028,7 @@
       </c>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>1331</v>
       </c>
@@ -9061,7 +9062,7 @@
       </c>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>1332</v>
       </c>
@@ -9095,7 +9096,7 @@
       </c>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>1333</v>
       </c>
@@ -9129,7 +9130,7 @@
       </c>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>1334</v>
       </c>
@@ -9163,7 +9164,7 @@
       </c>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>1335</v>
       </c>
@@ -9197,7 +9198,7 @@
       </c>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>1336</v>
       </c>
@@ -9231,7 +9232,7 @@
       </c>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>1337</v>
       </c>
@@ -9265,7 +9266,7 @@
       </c>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>1338</v>
       </c>
@@ -9299,7 +9300,7 @@
       </c>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>1339</v>
       </c>
@@ -9333,7 +9334,7 @@
       </c>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>1340</v>
       </c>
@@ -9367,7 +9368,7 @@
       </c>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>1341</v>
       </c>
@@ -9401,7 +9402,7 @@
       </c>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>1342</v>
       </c>
@@ -9435,7 +9436,7 @@
       </c>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>1343</v>
       </c>
@@ -9469,7 +9470,7 @@
       </c>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>1344</v>
       </c>
@@ -9503,7 +9504,7 @@
       </c>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>1345</v>
       </c>
@@ -9537,7 +9538,7 @@
       </c>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>1346</v>
       </c>
@@ -9571,7 +9572,7 @@
       </c>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>1347</v>
       </c>
@@ -9605,7 +9606,7 @@
       </c>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>1348</v>
       </c>
@@ -9639,7 +9640,7 @@
       </c>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>1349</v>
       </c>
@@ -9673,7 +9674,7 @@
       </c>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>1350</v>
       </c>
@@ -9707,7 +9708,7 @@
       </c>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>1351</v>
       </c>
@@ -9739,7 +9740,7 @@
       <c r="K61" s="15"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>1352</v>
       </c>
@@ -9773,7 +9774,7 @@
       </c>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>1353</v>
       </c>
@@ -9807,7 +9808,7 @@
       </c>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>1354</v>
       </c>
@@ -9841,7 +9842,7 @@
       </c>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <v>1355</v>
       </c>
@@ -9875,7 +9876,7 @@
       </c>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <v>1356</v>
       </c>
@@ -9909,7 +9910,7 @@
       </c>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <v>1357</v>
       </c>
@@ -9943,7 +9944,7 @@
       </c>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>1358</v>
       </c>
@@ -9977,7 +9978,7 @@
       </c>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <v>1359</v>
       </c>
@@ -10011,7 +10012,7 @@
       </c>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <v>1360</v>
       </c>
@@ -10045,7 +10046,7 @@
       </c>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
         <v>1361</v>
       </c>
@@ -10079,7 +10080,7 @@
       </c>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
         <v>1362</v>
       </c>
@@ -10113,7 +10114,7 @@
       </c>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <v>1363</v>
       </c>
@@ -10147,7 +10148,7 @@
       </c>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>1364</v>
       </c>
@@ -10181,7 +10182,7 @@
       </c>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
         <v>1365</v>
       </c>
@@ -10215,7 +10216,7 @@
       </c>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12">
         <v>1366</v>
       </c>
@@ -10249,7 +10250,7 @@
       </c>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12">
         <v>1367</v>
       </c>
@@ -10283,7 +10284,7 @@
       </c>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
         <v>1368</v>
       </c>
@@ -10317,7 +10318,7 @@
       </c>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
         <v>1369</v>
       </c>
@@ -10351,7 +10352,7 @@
       </c>
       <c r="L79" s="9"/>
     </row>
-    <row r="80" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
         <v>1370</v>
       </c>
@@ -10385,7 +10386,7 @@
       </c>
       <c r="L80" s="9"/>
     </row>
-    <row r="81" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
         <v>1371</v>
       </c>
@@ -10419,7 +10420,7 @@
       </c>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
         <v>1372</v>
       </c>
@@ -10453,7 +10454,7 @@
       </c>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
         <v>1373</v>
       </c>
@@ -10487,7 +10488,7 @@
       </c>
       <c r="L83" s="9"/>
     </row>
-    <row r="84" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
         <v>1374</v>
       </c>
@@ -10521,7 +10522,7 @@
       </c>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
         <v>1375</v>
       </c>
@@ -10555,7 +10556,7 @@
       </c>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
         <v>1376</v>
       </c>
@@ -10589,7 +10590,7 @@
       </c>
       <c r="L86" s="9"/>
     </row>
-    <row r="87" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
         <v>1377</v>
       </c>
@@ -10623,7 +10624,7 @@
       </c>
       <c r="L87" s="9"/>
     </row>
-    <row r="88" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <v>1378</v>
       </c>
@@ -10657,7 +10658,7 @@
       </c>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>1379</v>
       </c>
@@ -10691,7 +10692,7 @@
       </c>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="12">
         <v>1380</v>
       </c>
@@ -10725,7 +10726,7 @@
       </c>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
         <v>1381</v>
       </c>
@@ -10759,7 +10760,7 @@
       </c>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>1382</v>
       </c>
@@ -10793,7 +10794,7 @@
       </c>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <v>1383</v>
       </c>
@@ -10827,7 +10828,7 @@
       </c>
       <c r="L93" s="9"/>
     </row>
-    <row r="94" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>1384</v>
       </c>
@@ -10861,7 +10862,7 @@
       </c>
       <c r="L94" s="9"/>
     </row>
-    <row r="95" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>1385</v>
       </c>
@@ -10895,7 +10896,7 @@
       </c>
       <c r="L95" s="9"/>
     </row>
-    <row r="96" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <v>1386</v>
       </c>
@@ -10929,7 +10930,7 @@
       </c>
       <c r="L96" s="9"/>
     </row>
-    <row r="97" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
         <v>1387</v>
       </c>
@@ -10961,7 +10962,7 @@
       <c r="K97" s="15"/>
       <c r="L97" s="9"/>
     </row>
-    <row r="98" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
         <v>1388</v>
       </c>
@@ -10995,7 +10996,7 @@
       </c>
       <c r="L98" s="9"/>
     </row>
-    <row r="99" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
         <v>1389</v>
       </c>
@@ -11029,7 +11030,7 @@
       </c>
       <c r="L99" s="9"/>
     </row>
-    <row r="100" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <v>1390</v>
       </c>
@@ -11063,7 +11064,7 @@
       </c>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <v>1391</v>
       </c>
@@ -11097,7 +11098,7 @@
       </c>
       <c r="L101" s="9"/>
     </row>
-    <row r="102" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <v>1392</v>
       </c>
@@ -11131,7 +11132,7 @@
       </c>
       <c r="L102" s="9"/>
     </row>
-    <row r="103" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
         <v>1393</v>
       </c>
@@ -11165,7 +11166,7 @@
       </c>
       <c r="L103" s="9"/>
     </row>
-    <row r="104" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <v>1394</v>
       </c>
@@ -11199,7 +11200,7 @@
       </c>
       <c r="L104" s="9"/>
     </row>
-    <row r="105" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
         <v>1395</v>
       </c>
@@ -11233,7 +11234,7 @@
       </c>
       <c r="L105" s="9"/>
     </row>
-    <row r="106" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12">
         <v>1396</v>
       </c>
@@ -11267,7 +11268,7 @@
       </c>
       <c r="L106" s="9"/>
     </row>
-    <row r="107" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
         <v>1397</v>
       </c>
@@ -11301,7 +11302,7 @@
       </c>
       <c r="L107" s="9"/>
     </row>
-    <row r="108" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
         <v>1398</v>
       </c>
@@ -11329,7 +11330,7 @@
       <c r="K108" s="15"/>
       <c r="L108" s="9"/>
     </row>
-    <row r="109" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
         <v>1399</v>
       </c>
@@ -11363,7 +11364,7 @@
       </c>
       <c r="L109" s="9"/>
     </row>
-    <row r="110" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
         <v>1400</v>
       </c>
@@ -11397,7 +11398,7 @@
       </c>
       <c r="L110" s="9"/>
     </row>
-    <row r="111" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
         <v>1401</v>
       </c>
@@ -11431,7 +11432,7 @@
       </c>
       <c r="L111" s="9"/>
     </row>
-    <row r="112" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
         <v>1402</v>
       </c>
@@ -11465,7 +11466,7 @@
       </c>
       <c r="L112" s="9"/>
     </row>
-    <row r="113" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <v>1403</v>
       </c>
@@ -11499,7 +11500,7 @@
       </c>
       <c r="L113" s="9"/>
     </row>
-    <row r="114" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
         <v>1404</v>
       </c>
@@ -11533,7 +11534,7 @@
       </c>
       <c r="L114" s="9"/>
     </row>
-    <row r="115" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
         <v>1405</v>
       </c>
@@ -11567,7 +11568,7 @@
       </c>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <v>1406</v>
       </c>
@@ -11601,7 +11602,7 @@
       </c>
       <c r="L116" s="9"/>
     </row>
-    <row r="117" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
         <v>1407</v>
       </c>
@@ -11635,7 +11636,7 @@
       </c>
       <c r="L117" s="9"/>
     </row>
-    <row r="118" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <v>1408</v>
       </c>
@@ -11669,7 +11670,7 @@
       </c>
       <c r="L118" s="9"/>
     </row>
-    <row r="119" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
         <v>1409</v>
       </c>
@@ -11703,7 +11704,7 @@
       </c>
       <c r="L119" s="9"/>
     </row>
-    <row r="120" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
         <v>1410</v>
       </c>
@@ -11737,7 +11738,7 @@
       </c>
       <c r="L120" s="9"/>
     </row>
-    <row r="121" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="12">
         <v>1411</v>
       </c>
@@ -11771,7 +11772,7 @@
       </c>
       <c r="L121" s="9"/>
     </row>
-    <row r="122" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
         <v>1412</v>
       </c>
@@ -11805,7 +11806,7 @@
       </c>
       <c r="L122" s="9"/>
     </row>
-    <row r="123" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>1413</v>
       </c>
@@ -11839,7 +11840,7 @@
       </c>
       <c r="L123" s="9"/>
     </row>
-    <row r="124" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <v>1414</v>
       </c>
@@ -11873,7 +11874,7 @@
       </c>
       <c r="L124" s="9"/>
     </row>
-    <row r="125" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <v>1415</v>
       </c>
@@ -11907,7 +11908,7 @@
       </c>
       <c r="L125" s="9"/>
     </row>
-    <row r="126" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
         <v>1416</v>
       </c>
@@ -11941,7 +11942,7 @@
       </c>
       <c r="L126" s="9"/>
     </row>
-    <row r="127" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
         <v>1417</v>
       </c>
@@ -11975,7 +11976,7 @@
       </c>
       <c r="L127" s="9"/>
     </row>
-    <row r="128" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
         <v>1418</v>
       </c>
@@ -12009,7 +12010,7 @@
       </c>
       <c r="L128" s="9"/>
     </row>
-    <row r="129" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <v>1419</v>
       </c>
@@ -12043,7 +12044,7 @@
       </c>
       <c r="L129" s="9"/>
     </row>
-    <row r="130" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
         <v>1420</v>
       </c>
@@ -12077,7 +12078,7 @@
       </c>
       <c r="L130" s="9"/>
     </row>
-    <row r="131" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
         <v>1421</v>
       </c>
@@ -12111,7 +12112,7 @@
       </c>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="12">
         <v>1422</v>
       </c>
@@ -12145,7 +12146,7 @@
       </c>
       <c r="L132" s="9"/>
     </row>
-    <row r="133" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="12">
         <v>1423</v>
       </c>
@@ -12179,7 +12180,7 @@
       </c>
       <c r="L133" s="9"/>
     </row>
-    <row r="134" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12">
         <v>1424</v>
       </c>
@@ -12213,7 +12214,7 @@
       </c>
       <c r="L134" s="9"/>
     </row>
-    <row r="135" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12">
         <v>1425</v>
       </c>
@@ -12241,7 +12242,7 @@
       <c r="K135" s="15"/>
       <c r="L135" s="9"/>
     </row>
-    <row r="136" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="12">
         <v>1426</v>
       </c>
@@ -12275,7 +12276,7 @@
       </c>
       <c r="L136" s="9"/>
     </row>
-    <row r="137" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="12">
         <v>1427</v>
       </c>
@@ -12309,7 +12310,7 @@
       </c>
       <c r="L137" s="9"/>
     </row>
-    <row r="138" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="12">
         <v>1428</v>
       </c>
@@ -12343,7 +12344,7 @@
       </c>
       <c r="L138" s="9"/>
     </row>
-    <row r="139" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="12">
         <v>1429</v>
       </c>
@@ -12377,7 +12378,7 @@
       </c>
       <c r="L139" s="9"/>
     </row>
-    <row r="140" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="12">
         <v>1430</v>
       </c>
@@ -12411,7 +12412,7 @@
       </c>
       <c r="L140" s="9"/>
     </row>
-    <row r="141" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12">
         <v>1431</v>
       </c>
@@ -12445,7 +12446,7 @@
       </c>
       <c r="L141" s="9"/>
     </row>
-    <row r="142" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
         <v>1432</v>
       </c>
@@ -12479,7 +12480,7 @@
       </c>
       <c r="L142" s="9"/>
     </row>
-    <row r="143" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="12">
         <v>1433</v>
       </c>
@@ -12513,7 +12514,7 @@
       </c>
       <c r="L143" s="9"/>
     </row>
-    <row r="144" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="12">
         <v>1434</v>
       </c>
@@ -12547,7 +12548,7 @@
       </c>
       <c r="L144" s="9"/>
     </row>
-    <row r="145" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
         <v>1435</v>
       </c>
@@ -12581,7 +12582,7 @@
       </c>
       <c r="L145" s="9"/>
     </row>
-    <row r="146" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
         <v>1436</v>
       </c>
@@ -12615,7 +12616,7 @@
       </c>
       <c r="L146" s="9"/>
     </row>
-    <row r="147" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <v>1437</v>
       </c>
@@ -12649,7 +12650,7 @@
       </c>
       <c r="L147" s="9"/>
     </row>
-    <row r="148" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="12">
         <v>1438</v>
       </c>
@@ -12681,7 +12682,7 @@
       <c r="K148" s="15"/>
       <c r="L148" s="9"/>
     </row>
-    <row r="149" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="12">
         <v>1439</v>
       </c>
@@ -12715,7 +12716,7 @@
       </c>
       <c r="L149" s="9"/>
     </row>
-    <row r="150" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="12">
         <v>1440</v>
       </c>
@@ -12749,7 +12750,7 @@
       </c>
       <c r="L150" s="9"/>
     </row>
-    <row r="151" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12">
         <v>1441</v>
       </c>
@@ -12781,7 +12782,7 @@
       <c r="K151" s="15"/>
       <c r="L151" s="9"/>
     </row>
-    <row r="152" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="12">
         <v>1442</v>
       </c>
@@ -12815,7 +12816,7 @@
       </c>
       <c r="L152" s="9"/>
     </row>
-    <row r="153" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="12">
         <v>1443</v>
       </c>
@@ -12849,7 +12850,7 @@
       </c>
       <c r="L153" s="9"/>
     </row>
-    <row r="154" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="12">
         <v>1444</v>
       </c>
@@ -12883,7 +12884,7 @@
       </c>
       <c r="L154" s="9"/>
     </row>
-    <row r="155" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="12">
         <v>1445</v>
       </c>
@@ -12917,7 +12918,7 @@
       </c>
       <c r="L155" s="9"/>
     </row>
-    <row r="156" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="12">
         <v>1446</v>
       </c>
@@ -12951,7 +12952,7 @@
       </c>
       <c r="L156" s="9"/>
     </row>
-    <row r="157" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="12">
         <v>1447</v>
       </c>
@@ -12985,7 +12986,7 @@
       </c>
       <c r="L157" s="9"/>
     </row>
-    <row r="158" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="12">
         <v>1448</v>
       </c>
@@ -13019,7 +13020,7 @@
       </c>
       <c r="L158" s="9"/>
     </row>
-    <row r="159" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="12">
         <v>1449</v>
       </c>
@@ -13053,7 +13054,7 @@
       </c>
       <c r="L159" s="9"/>
     </row>
-    <row r="160" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="12">
         <v>1450</v>
       </c>
@@ -13087,7 +13088,7 @@
       </c>
       <c r="L160" s="9"/>
     </row>
-    <row r="161" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="12">
         <v>1451</v>
       </c>
@@ -13121,7 +13122,7 @@
       </c>
       <c r="L161" s="9"/>
     </row>
-    <row r="162" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="12">
         <v>1452</v>
       </c>
@@ -13155,7 +13156,7 @@
       </c>
       <c r="L162" s="9"/>
     </row>
-    <row r="163" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="12">
         <v>1453</v>
       </c>
@@ -13191,7 +13192,7 @@
       </c>
       <c r="L163" s="9"/>
     </row>
-    <row r="164" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="12">
         <v>1454</v>
       </c>
@@ -13227,7 +13228,7 @@
       </c>
       <c r="L164" s="9"/>
     </row>
-    <row r="165" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="12">
         <v>1455</v>
       </c>
@@ -13263,7 +13264,7 @@
       </c>
       <c r="L165" s="9"/>
     </row>
-    <row r="166" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="12">
         <v>1456</v>
       </c>
@@ -13299,7 +13300,7 @@
       </c>
       <c r="L166" s="9"/>
     </row>
-    <row r="167" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="12">
         <v>1457</v>
       </c>
@@ -13335,7 +13336,7 @@
       </c>
       <c r="L167" s="9"/>
     </row>
-    <row r="168" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="12">
         <v>1458</v>
       </c>
@@ -13371,7 +13372,7 @@
       </c>
       <c r="L168" s="9"/>
     </row>
-    <row r="169" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="12">
         <v>1459</v>
       </c>
@@ -13407,7 +13408,7 @@
       </c>
       <c r="L169" s="9"/>
     </row>
-    <row r="170" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="12">
         <v>1460</v>
       </c>
@@ -13443,7 +13444,7 @@
       </c>
       <c r="L170" s="9"/>
     </row>
-    <row r="171" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="12">
         <v>1461</v>
       </c>
@@ -13479,7 +13480,7 @@
       </c>
       <c r="L171" s="9"/>
     </row>
-    <row r="172" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="12">
         <v>1462</v>
       </c>
@@ -13515,7 +13516,7 @@
       </c>
       <c r="L172" s="9"/>
     </row>
-    <row r="173" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="12">
         <v>1463</v>
       </c>
@@ -13551,7 +13552,7 @@
       </c>
       <c r="L173" s="9"/>
     </row>
-    <row r="174" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="12">
         <v>1464</v>
       </c>
@@ -13587,7 +13588,7 @@
       </c>
       <c r="L174" s="9"/>
     </row>
-    <row r="175" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="12">
         <v>1465</v>
       </c>
@@ -13623,7 +13624,7 @@
       </c>
       <c r="L175" s="9"/>
     </row>
-    <row r="176" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="12">
         <v>1466</v>
       </c>
@@ -13659,7 +13660,7 @@
       </c>
       <c r="L176" s="9"/>
     </row>
-    <row r="177" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="12">
         <v>1467</v>
       </c>
@@ -13695,7 +13696,7 @@
       </c>
       <c r="L177" s="9"/>
     </row>
-    <row r="178" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="12">
         <v>1468</v>
       </c>
@@ -13731,7 +13732,7 @@
       </c>
       <c r="L178" s="9"/>
     </row>
-    <row r="179" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="12">
         <v>1469</v>
       </c>
@@ -13767,7 +13768,7 @@
       </c>
       <c r="L179" s="9"/>
     </row>
-    <row r="180" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="12">
         <v>1470</v>
       </c>
@@ -13803,7 +13804,7 @@
       </c>
       <c r="L180" s="9"/>
     </row>
-    <row r="181" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="12">
         <v>1471</v>
       </c>
@@ -13839,7 +13840,7 @@
       </c>
       <c r="L181" s="9"/>
     </row>
-    <row r="182" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="12">
         <v>1472</v>
       </c>
@@ -13875,7 +13876,7 @@
       </c>
       <c r="L182" s="9"/>
     </row>
-    <row r="183" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="12">
         <v>1473</v>
       </c>
@@ -13911,7 +13912,7 @@
       </c>
       <c r="L183" s="9"/>
     </row>
-    <row r="184" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="12">
         <v>1474</v>
       </c>
@@ -13947,7 +13948,7 @@
       </c>
       <c r="L184" s="9"/>
     </row>
-    <row r="185" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="12">
         <v>1475</v>
       </c>
@@ -13983,7 +13984,7 @@
       </c>
       <c r="L185" s="9"/>
     </row>
-    <row r="186" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="12">
         <v>1476</v>
       </c>
@@ -14011,7 +14012,7 @@
       <c r="K186" s="15"/>
       <c r="L186" s="9"/>
     </row>
-    <row r="187" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="12">
         <v>1477</v>
       </c>
@@ -14047,7 +14048,7 @@
       </c>
       <c r="L187" s="9"/>
     </row>
-    <row r="188" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="12">
         <v>1478</v>
       </c>
@@ -14081,7 +14082,7 @@
       </c>
       <c r="L188" s="9"/>
     </row>
-    <row r="189" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="12">
         <v>1479</v>
       </c>
@@ -14115,7 +14116,7 @@
       </c>
       <c r="L189" s="9"/>
     </row>
-    <row r="190" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="12">
         <v>1480</v>
       </c>
@@ -14149,7 +14150,7 @@
       </c>
       <c r="L190" s="9"/>
     </row>
-    <row r="191" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="12">
         <v>1481</v>
       </c>
@@ -14183,7 +14184,7 @@
       </c>
       <c r="L191" s="9"/>
     </row>
-    <row r="192" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="12">
         <v>1482</v>
       </c>
@@ -14217,7 +14218,7 @@
       </c>
       <c r="L192" s="9"/>
     </row>
-    <row r="193" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="12">
         <v>1483</v>
       </c>
@@ -14251,7 +14252,7 @@
       </c>
       <c r="L193" s="9"/>
     </row>
-    <row r="194" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="12">
         <v>1484</v>
       </c>
@@ -14285,7 +14286,7 @@
       </c>
       <c r="L194" s="9"/>
     </row>
-    <row r="195" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="12">
         <v>1485</v>
       </c>
@@ -14319,7 +14320,7 @@
       </c>
       <c r="L195" s="9"/>
     </row>
-    <row r="196" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="12">
         <v>1486</v>
       </c>
@@ -14353,7 +14354,7 @@
       </c>
       <c r="L196" s="9"/>
     </row>
-    <row r="197" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="12">
         <v>1487</v>
       </c>
@@ -14387,7 +14388,7 @@
       </c>
       <c r="L197" s="9"/>
     </row>
-    <row r="198" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="12">
         <v>1488</v>
       </c>
@@ -14417,7 +14418,7 @@
       <c r="K198" s="15"/>
       <c r="L198" s="9"/>
     </row>
-    <row r="199" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="12">
         <v>1489</v>
       </c>
@@ -14451,7 +14452,7 @@
       </c>
       <c r="L199" s="9"/>
     </row>
-    <row r="200" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="12">
         <v>1490</v>
       </c>
@@ -14487,7 +14488,7 @@
       </c>
       <c r="L200" s="9"/>
     </row>
-    <row r="201" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="12">
         <v>1491</v>
       </c>
@@ -14521,7 +14522,7 @@
       </c>
       <c r="L201" s="9"/>
     </row>
-    <row r="202" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="12">
         <v>1492</v>
       </c>
@@ -14557,7 +14558,7 @@
       </c>
       <c r="L202" s="9"/>
     </row>
-    <row r="203" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="12">
         <v>1493</v>
       </c>
@@ -14591,7 +14592,7 @@
       <c r="K203" s="15"/>
       <c r="L203" s="9"/>
     </row>
-    <row r="204" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="12">
         <v>1494</v>
       </c>
@@ -14627,7 +14628,7 @@
       </c>
       <c r="L204" s="9"/>
     </row>
-    <row r="205" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="12">
         <v>1495</v>
       </c>
@@ -14663,7 +14664,7 @@
       </c>
       <c r="L205" s="9"/>
     </row>
-    <row r="206" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="12">
         <v>1496</v>
       </c>
@@ -14699,7 +14700,7 @@
       </c>
       <c r="L206" s="9"/>
     </row>
-    <row r="207" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="12">
         <v>1497</v>
       </c>
@@ -14735,7 +14736,7 @@
       </c>
       <c r="L207" s="9"/>
     </row>
-    <row r="208" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="12">
         <v>1498</v>
       </c>
@@ -14769,7 +14770,7 @@
       </c>
       <c r="L208" s="9"/>
     </row>
-    <row r="209" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="12">
         <v>1499</v>
       </c>
@@ -14805,7 +14806,7 @@
       </c>
       <c r="L209" s="9"/>
     </row>
-    <row r="210" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="12">
         <v>1500</v>
       </c>
@@ -14841,7 +14842,7 @@
       </c>
       <c r="L210" s="9"/>
     </row>
-    <row r="211" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="12">
         <v>1501</v>
       </c>
@@ -14877,7 +14878,7 @@
       </c>
       <c r="L211" s="9"/>
     </row>
-    <row r="212" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="12">
         <v>1502</v>
       </c>
@@ -14913,7 +14914,7 @@
       </c>
       <c r="L212" s="9"/>
     </row>
-    <row r="213" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="12">
         <v>1503</v>
       </c>
@@ -14949,7 +14950,7 @@
       </c>
       <c r="L213" s="9"/>
     </row>
-    <row r="214" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="12">
         <v>1504</v>
       </c>
@@ -14985,7 +14986,7 @@
       </c>
       <c r="L214" s="9"/>
     </row>
-    <row r="215" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="12">
         <v>1505</v>
       </c>
@@ -15021,7 +15022,7 @@
       </c>
       <c r="L215" s="9"/>
     </row>
-    <row r="216" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="12">
         <v>1506</v>
       </c>
@@ -15055,7 +15056,7 @@
       </c>
       <c r="L216" s="9"/>
     </row>
-    <row r="217" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="12">
         <v>1507</v>
       </c>
@@ -15091,7 +15092,7 @@
       </c>
       <c r="L217" s="9"/>
     </row>
-    <row r="218" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="12">
         <v>1508</v>
       </c>
@@ -15121,7 +15122,7 @@
       <c r="K218" s="15"/>
       <c r="L218" s="9"/>
     </row>
-    <row r="219" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="12">
         <v>1509</v>
       </c>
@@ -15155,7 +15156,7 @@
       </c>
       <c r="L219" s="9"/>
     </row>
-    <row r="220" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="12">
         <v>1510</v>
       </c>
@@ -15191,7 +15192,7 @@
       </c>
       <c r="L220" s="9"/>
     </row>
-    <row r="221" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="12">
         <v>1511</v>
       </c>
@@ -15225,7 +15226,7 @@
       </c>
       <c r="L221" s="9"/>
     </row>
-    <row r="222" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="12">
         <v>1512</v>
       </c>
@@ -15261,7 +15262,7 @@
       </c>
       <c r="L222" s="9"/>
     </row>
-    <row r="223" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="12">
         <v>1513</v>
       </c>
@@ -15297,7 +15298,7 @@
       </c>
       <c r="L223" s="9"/>
     </row>
-    <row r="224" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="12">
         <v>1514</v>
       </c>
@@ -15333,7 +15334,7 @@
       </c>
       <c r="L224" s="9"/>
     </row>
-    <row r="225" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="12">
         <v>1515</v>
       </c>
@@ -15367,7 +15368,7 @@
       </c>
       <c r="L225" s="9"/>
     </row>
-    <row r="226" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="12">
         <v>1516</v>
       </c>
@@ -15403,7 +15404,7 @@
       </c>
       <c r="L226" s="9"/>
     </row>
-    <row r="227" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="12">
         <v>1517</v>
       </c>
@@ -15439,7 +15440,7 @@
       </c>
       <c r="L227" s="9"/>
     </row>
-    <row r="228" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="12">
         <v>1518</v>
       </c>
@@ -15475,7 +15476,7 @@
       </c>
       <c r="L228" s="9"/>
     </row>
-    <row r="229" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="12">
         <v>1519</v>
       </c>
@@ -15509,7 +15510,7 @@
       </c>
       <c r="L229" s="9"/>
     </row>
-    <row r="230" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="12">
         <v>1520</v>
       </c>
@@ -15545,7 +15546,7 @@
       </c>
       <c r="L230" s="9"/>
     </row>
-    <row r="231" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="12">
         <v>1521</v>
       </c>
@@ -15581,7 +15582,7 @@
       </c>
       <c r="L231" s="9"/>
     </row>
-    <row r="232" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="12">
         <v>1522</v>
       </c>
@@ -15617,7 +15618,7 @@
       </c>
       <c r="L232" s="9"/>
     </row>
-    <row r="233" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="12">
         <v>1523</v>
       </c>
@@ -15653,7 +15654,7 @@
       </c>
       <c r="L233" s="9"/>
     </row>
-    <row r="234" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="12">
         <v>1524</v>
       </c>
@@ -15689,7 +15690,7 @@
       </c>
       <c r="L234" s="9"/>
     </row>
-    <row r="235" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="12">
         <v>1525</v>
       </c>
@@ -15725,7 +15726,7 @@
       </c>
       <c r="L235" s="9"/>
     </row>
-    <row r="236" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="12">
         <v>1526</v>
       </c>
@@ -15759,7 +15760,7 @@
       </c>
       <c r="L236" s="9"/>
     </row>
-    <row r="237" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="12">
         <v>1527</v>
       </c>
@@ -15793,7 +15794,7 @@
       </c>
       <c r="L237" s="9"/>
     </row>
-    <row r="238" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="12">
         <v>1528</v>
       </c>
@@ -15829,7 +15830,7 @@
       </c>
       <c r="L238" s="9"/>
     </row>
-    <row r="239" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="12">
         <v>1529</v>
       </c>
@@ -15865,7 +15866,7 @@
       </c>
       <c r="L239" s="9"/>
     </row>
-    <row r="240" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="12">
         <v>1530</v>
       </c>
@@ -15901,7 +15902,7 @@
       </c>
       <c r="L240" s="9"/>
     </row>
-    <row r="241" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="12">
         <v>1531</v>
       </c>
@@ -15935,7 +15936,7 @@
       </c>
       <c r="L241" s="9"/>
     </row>
-    <row r="242" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="12">
         <v>1532</v>
       </c>
@@ -15971,7 +15972,7 @@
       </c>
       <c r="L242" s="9"/>
     </row>
-    <row r="243" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="12">
         <v>1533</v>
       </c>
@@ -16003,7 +16004,7 @@
       <c r="K243" s="15"/>
       <c r="L243" s="9"/>
     </row>
-    <row r="244" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="12">
         <v>1534</v>
       </c>
@@ -16033,7 +16034,7 @@
       <c r="K244" s="15"/>
       <c r="L244" s="9"/>
     </row>
-    <row r="245" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="12">
         <v>1535</v>
       </c>
@@ -16067,7 +16068,7 @@
       </c>
       <c r="L245" s="9"/>
     </row>
-    <row r="246" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="12">
         <v>1536</v>
       </c>
@@ -16099,7 +16100,7 @@
       <c r="K246" s="15"/>
       <c r="L246" s="9"/>
     </row>
-    <row r="247" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="12">
         <v>1537</v>
       </c>
@@ -16135,7 +16136,7 @@
       </c>
       <c r="L247" s="9"/>
     </row>
-    <row r="248" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="12">
         <v>1538</v>
       </c>
@@ -16171,7 +16172,7 @@
       </c>
       <c r="L248" s="9"/>
     </row>
-    <row r="249" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="12">
         <v>1539</v>
       </c>
@@ -16205,7 +16206,7 @@
       <c r="K249" s="15"/>
       <c r="L249" s="9"/>
     </row>
-    <row r="250" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="12">
         <v>1540</v>
       </c>
@@ -16241,7 +16242,7 @@
       </c>
       <c r="L250" s="9"/>
     </row>
-    <row r="251" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="12">
         <v>1541</v>
       </c>
@@ -16277,7 +16278,7 @@
       </c>
       <c r="L251" s="9"/>
     </row>
-    <row r="252" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="12">
         <v>1542</v>
       </c>
@@ -16313,7 +16314,7 @@
       </c>
       <c r="L252" s="9"/>
     </row>
-    <row r="253" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="12">
         <v>1543</v>
       </c>
@@ -16349,7 +16350,7 @@
       </c>
       <c r="L253" s="9"/>
     </row>
-    <row r="254" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="12">
         <v>1544</v>
       </c>
@@ -16385,7 +16386,7 @@
       </c>
       <c r="L254" s="9"/>
     </row>
-    <row r="255" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="12">
         <v>1545</v>
       </c>
@@ -16419,7 +16420,7 @@
       </c>
       <c r="L255" s="9"/>
     </row>
-    <row r="256" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="12">
         <v>1546</v>
       </c>
@@ -16455,7 +16456,7 @@
       </c>
       <c r="L256" s="9"/>
     </row>
-    <row r="257" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="12">
         <v>1547</v>
       </c>
@@ -16491,7 +16492,7 @@
       </c>
       <c r="L257" s="9"/>
     </row>
-    <row r="258" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="12">
         <v>1548</v>
       </c>
@@ -16527,7 +16528,7 @@
       </c>
       <c r="L258" s="9"/>
     </row>
-    <row r="259" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="12">
         <v>1549</v>
       </c>
@@ -16563,7 +16564,7 @@
       </c>
       <c r="L259" s="9"/>
     </row>
-    <row r="260" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="12">
         <v>1550</v>
       </c>
@@ -16599,7 +16600,7 @@
       </c>
       <c r="L260" s="9"/>
     </row>
-    <row r="261" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="12">
         <v>1551</v>
       </c>
@@ -16635,7 +16636,7 @@
       </c>
       <c r="L261" s="9"/>
     </row>
-    <row r="262" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="12">
         <v>1552</v>
       </c>
@@ -16671,7 +16672,7 @@
       </c>
       <c r="L262" s="9"/>
     </row>
-    <row r="263" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="12">
         <v>1553</v>
       </c>
@@ -16707,7 +16708,7 @@
       </c>
       <c r="L263" s="9"/>
     </row>
-    <row r="264" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="12">
         <v>1554</v>
       </c>
@@ -16743,7 +16744,7 @@
       </c>
       <c r="L264" s="9"/>
     </row>
-    <row r="265" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="12">
         <v>1555</v>
       </c>
@@ -16779,7 +16780,7 @@
       </c>
       <c r="L265" s="9"/>
     </row>
-    <row r="266" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="12">
         <v>1556</v>
       </c>
@@ -16815,7 +16816,7 @@
       </c>
       <c r="L266" s="9"/>
     </row>
-    <row r="267" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="12">
         <v>1557</v>
       </c>
@@ -16851,7 +16852,7 @@
       </c>
       <c r="L267" s="9"/>
     </row>
-    <row r="268" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="12">
         <v>1558</v>
       </c>
@@ -16887,7 +16888,7 @@
       </c>
       <c r="L268" s="9"/>
     </row>
-    <row r="269" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="12">
         <v>1559</v>
       </c>
@@ -16921,7 +16922,7 @@
       </c>
       <c r="L269" s="9"/>
     </row>
-    <row r="270" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="12">
         <v>1560</v>
       </c>
@@ -16957,7 +16958,7 @@
       </c>
       <c r="L270" s="9"/>
     </row>
-    <row r="271" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="12">
         <v>1561</v>
       </c>
@@ -16991,7 +16992,7 @@
       </c>
       <c r="L271" s="9"/>
     </row>
-    <row r="272" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="12">
         <v>1562</v>
       </c>
@@ -17019,7 +17020,7 @@
       <c r="K272" s="15"/>
       <c r="L272" s="9"/>
     </row>
-    <row r="273" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="12">
         <v>1563</v>
       </c>
@@ -17055,7 +17056,7 @@
       </c>
       <c r="L273" s="9"/>
     </row>
-    <row r="274" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="12">
         <v>1564</v>
       </c>
@@ -17089,7 +17090,7 @@
       </c>
       <c r="L274" s="9"/>
     </row>
-    <row r="275" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="12">
         <v>1565</v>
       </c>
@@ -17125,7 +17126,7 @@
       </c>
       <c r="L275" s="9"/>
     </row>
-    <row r="276" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="12">
         <v>1566</v>
       </c>
@@ -17161,7 +17162,7 @@
       </c>
       <c r="L276" s="9"/>
     </row>
-    <row r="277" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="12">
         <v>1567</v>
       </c>
@@ -17197,7 +17198,7 @@
       </c>
       <c r="L277" s="9"/>
     </row>
-    <row r="278" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="12">
         <v>1568</v>
       </c>
@@ -17233,7 +17234,7 @@
       </c>
       <c r="L278" s="9"/>
     </row>
-    <row r="279" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="12">
         <v>1569</v>
       </c>
@@ -17267,7 +17268,7 @@
       </c>
       <c r="L279" s="9"/>
     </row>
-    <row r="280" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="12">
         <v>1570</v>
       </c>
@@ -17303,7 +17304,7 @@
       </c>
       <c r="L280" s="9"/>
     </row>
-    <row r="281" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="12">
         <v>1571</v>
       </c>
@@ -17339,7 +17340,7 @@
       </c>
       <c r="L281" s="9"/>
     </row>
-    <row r="282" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="12">
         <v>1572</v>
       </c>
@@ -17375,7 +17376,7 @@
       </c>
       <c r="L282" s="9"/>
     </row>
-    <row r="283" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="12">
         <v>1573</v>
       </c>
@@ -17411,7 +17412,7 @@
       </c>
       <c r="L283" s="9"/>
     </row>
-    <row r="284" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="12">
         <v>1574</v>
       </c>
@@ -17447,7 +17448,7 @@
       </c>
       <c r="L284" s="9"/>
     </row>
-    <row r="285" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="12">
         <v>1575</v>
       </c>
@@ -17483,7 +17484,7 @@
       </c>
       <c r="L285" s="9"/>
     </row>
-    <row r="286" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="12">
         <v>1576</v>
       </c>
@@ -17519,7 +17520,7 @@
       </c>
       <c r="L286" s="9"/>
     </row>
-    <row r="287" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="12">
         <v>1577</v>
       </c>
@@ -17555,7 +17556,7 @@
       </c>
       <c r="L287" s="9"/>
     </row>
-    <row r="288" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="12">
         <v>1578</v>
       </c>
@@ -17591,7 +17592,7 @@
       </c>
       <c r="L288" s="9"/>
     </row>
-    <row r="289" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="12">
         <v>1579</v>
       </c>
@@ -17627,7 +17628,7 @@
       </c>
       <c r="L289" s="9"/>
     </row>
-    <row r="290" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="12">
         <v>1580</v>
       </c>
@@ -17663,7 +17664,7 @@
       </c>
       <c r="L290" s="9"/>
     </row>
-    <row r="291" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="12">
         <v>1581</v>
       </c>
@@ -17699,7 +17700,7 @@
       </c>
       <c r="L291" s="9"/>
     </row>
-    <row r="292" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="12">
         <v>1582</v>
       </c>
@@ -17735,7 +17736,7 @@
       </c>
       <c r="L292" s="9"/>
     </row>
-    <row r="293" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="12">
         <v>1583</v>
       </c>
@@ -17771,7 +17772,7 @@
       </c>
       <c r="L293" s="9"/>
     </row>
-    <row r="294" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="12">
         <v>1584</v>
       </c>
@@ -17807,7 +17808,7 @@
       </c>
       <c r="L294" s="9"/>
     </row>
-    <row r="295" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="12">
         <v>1585</v>
       </c>
@@ -17841,7 +17842,7 @@
       </c>
       <c r="L295" s="9"/>
     </row>
-    <row r="296" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="12">
         <v>1586</v>
       </c>
@@ -17877,7 +17878,7 @@
       </c>
       <c r="L296" s="9"/>
     </row>
-    <row r="297" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="12">
         <v>1587</v>
       </c>
@@ -17913,7 +17914,7 @@
       </c>
       <c r="L297" s="9"/>
     </row>
-    <row r="298" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="12">
         <v>1588</v>
       </c>
@@ -17947,7 +17948,7 @@
       </c>
       <c r="L298" s="9"/>
     </row>
-    <row r="299" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="12">
         <v>1589</v>
       </c>
@@ -17983,7 +17984,7 @@
       </c>
       <c r="L299" s="9"/>
     </row>
-    <row r="300" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="12">
         <v>1590</v>
       </c>
@@ -18017,7 +18018,7 @@
       </c>
       <c r="L300" s="9"/>
     </row>
-    <row r="301" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="12">
         <v>1591</v>
       </c>
@@ -18053,7 +18054,7 @@
       </c>
       <c r="L301" s="9"/>
     </row>
-    <row r="302" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="12">
         <v>1592</v>
       </c>
@@ -18089,7 +18090,7 @@
       </c>
       <c r="L302" s="9"/>
     </row>
-    <row r="303" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="12">
         <v>1593</v>
       </c>
@@ -18125,7 +18126,7 @@
       </c>
       <c r="L303" s="9"/>
     </row>
-    <row r="304" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="12">
         <v>1594</v>
       </c>
@@ -18161,7 +18162,7 @@
       </c>
       <c r="L304" s="9"/>
     </row>
-    <row r="305" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="12">
         <v>1595</v>
       </c>
@@ -18197,7 +18198,7 @@
       </c>
       <c r="L305" s="9"/>
     </row>
-    <row r="306" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="12">
         <v>1596</v>
       </c>
@@ -18233,7 +18234,7 @@
       </c>
       <c r="L306" s="9"/>
     </row>
-    <row r="307" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="12">
         <v>1597</v>
       </c>
@@ -18269,7 +18270,7 @@
       </c>
       <c r="L307" s="9"/>
     </row>
-    <row r="308" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="12">
         <v>1598</v>
       </c>
@@ -18303,7 +18304,7 @@
       </c>
       <c r="L308" s="9"/>
     </row>
-    <row r="309" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="12">
         <v>1599</v>
       </c>
@@ -18339,7 +18340,7 @@
       </c>
       <c r="L309" s="9"/>
     </row>
-    <row r="310" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="12">
         <v>1600</v>
       </c>
@@ -18373,7 +18374,7 @@
       </c>
       <c r="L310" s="9"/>
     </row>
-    <row r="311" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="12">
         <v>1601</v>
       </c>
@@ -18407,7 +18408,7 @@
       </c>
       <c r="L311" s="9"/>
     </row>
-    <row r="312" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="12">
         <v>1602</v>
       </c>
@@ -18441,7 +18442,7 @@
       </c>
       <c r="L312" s="9"/>
     </row>
-    <row r="313" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="12">
         <v>1603</v>
       </c>
@@ -18475,7 +18476,7 @@
       </c>
       <c r="L313" s="9"/>
     </row>
-    <row r="314" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="12">
         <v>1604</v>
       </c>
@@ -18509,7 +18510,7 @@
       </c>
       <c r="L314" s="9"/>
     </row>
-    <row r="315" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="12">
         <v>1605</v>
       </c>
@@ -18543,7 +18544,7 @@
       </c>
       <c r="L315" s="9"/>
     </row>
-    <row r="316" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="12">
         <v>1606</v>
       </c>
@@ -18577,7 +18578,7 @@
       </c>
       <c r="L316" s="9"/>
     </row>
-    <row r="317" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="12">
         <v>1607</v>
       </c>
@@ -18611,7 +18612,7 @@
       </c>
       <c r="L317" s="9"/>
     </row>
-    <row r="318" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="12">
         <v>1608</v>
       </c>
@@ -18645,7 +18646,7 @@
       </c>
       <c r="L318" s="9"/>
     </row>
-    <row r="319" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="12">
         <v>1609</v>
       </c>
@@ -18679,7 +18680,7 @@
       <c r="K319" s="15"/>
       <c r="L319" s="9"/>
     </row>
-    <row r="320" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="12">
         <v>1610</v>
       </c>
@@ -18713,7 +18714,7 @@
       </c>
       <c r="L320" s="9"/>
     </row>
-    <row r="321" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="12">
         <v>1611</v>
       </c>
@@ -18741,7 +18742,7 @@
       <c r="K321" s="15"/>
       <c r="L321" s="9"/>
     </row>
-    <row r="322" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="12">
         <v>1612</v>
       </c>
@@ -18775,7 +18776,7 @@
       </c>
       <c r="L322" s="9"/>
     </row>
-    <row r="323" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="12">
         <v>1613</v>
       </c>
@@ -18809,7 +18810,7 @@
       </c>
       <c r="L323" s="9"/>
     </row>
-    <row r="324" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="12">
         <v>1614</v>
       </c>
@@ -18845,7 +18846,7 @@
       </c>
       <c r="L324" s="9"/>
     </row>
-    <row r="325" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="12">
         <v>1615</v>
       </c>
@@ -18879,7 +18880,7 @@
       </c>
       <c r="L325" s="9"/>
     </row>
-    <row r="326" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="12">
         <v>1616</v>
       </c>
@@ -18913,7 +18914,7 @@
       </c>
       <c r="L326" s="9"/>
     </row>
-    <row r="327" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="12">
         <v>1617</v>
       </c>
@@ -18947,7 +18948,7 @@
       </c>
       <c r="L327" s="9"/>
     </row>
-    <row r="328" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="12">
         <v>1618</v>
       </c>
@@ -18981,7 +18982,7 @@
       </c>
       <c r="L328" s="9"/>
     </row>
-    <row r="329" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="12">
         <v>1619</v>
       </c>
@@ -19015,7 +19016,7 @@
       </c>
       <c r="L329" s="9"/>
     </row>
-    <row r="330" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="12">
         <v>1620</v>
       </c>
@@ -19049,7 +19050,7 @@
       </c>
       <c r="L330" s="9"/>
     </row>
-    <row r="331" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="12">
         <v>1621</v>
       </c>
@@ -19083,7 +19084,7 @@
       </c>
       <c r="L331" s="9"/>
     </row>
-    <row r="332" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="12">
         <v>1622</v>
       </c>
@@ -19117,7 +19118,7 @@
       </c>
       <c r="L332" s="9"/>
     </row>
-    <row r="333" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="12">
         <v>1623</v>
       </c>
@@ -19151,7 +19152,7 @@
       </c>
       <c r="L333" s="9"/>
     </row>
-    <row r="334" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="12">
         <v>1624</v>
       </c>
@@ -19185,7 +19186,7 @@
       </c>
       <c r="L334" s="9"/>
     </row>
-    <row r="335" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="12">
         <v>1625</v>
       </c>
@@ -19219,7 +19220,7 @@
       </c>
       <c r="L335" s="9"/>
     </row>
-    <row r="336" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="12">
         <v>1626</v>
       </c>
@@ -19253,7 +19254,7 @@
       </c>
       <c r="L336" s="9"/>
     </row>
-    <row r="337" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="12">
         <v>1627</v>
       </c>
@@ -19287,7 +19288,7 @@
       </c>
       <c r="L337" s="9"/>
     </row>
-    <row r="338" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="12">
         <v>1628</v>
       </c>
@@ -19321,7 +19322,7 @@
       </c>
       <c r="L338" s="9"/>
     </row>
-    <row r="339" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="12">
         <v>1629</v>
       </c>
@@ -19355,7 +19356,7 @@
       </c>
       <c r="L339" s="9"/>
     </row>
-    <row r="340" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="12">
         <v>1630</v>
       </c>
@@ -19389,7 +19390,7 @@
       </c>
       <c r="L340" s="9"/>
     </row>
-    <row r="341" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="12">
         <v>1631</v>
       </c>
@@ -19423,7 +19424,7 @@
       </c>
       <c r="L341" s="9"/>
     </row>
-    <row r="342" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="12">
         <v>1632</v>
       </c>
@@ -19457,7 +19458,7 @@
       </c>
       <c r="L342" s="9"/>
     </row>
-    <row r="343" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="12">
         <v>1633</v>
       </c>
@@ -19491,7 +19492,7 @@
       </c>
       <c r="L343" s="9"/>
     </row>
-    <row r="344" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="12">
         <v>1634</v>
       </c>
@@ -19525,7 +19526,7 @@
       </c>
       <c r="L344" s="9"/>
     </row>
-    <row r="345" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="12">
         <v>1635</v>
       </c>
@@ -19561,7 +19562,7 @@
       </c>
       <c r="L345" s="9"/>
     </row>
-    <row r="346" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="12">
         <v>1636</v>
       </c>
@@ -19597,7 +19598,7 @@
       </c>
       <c r="L346" s="9"/>
     </row>
-    <row r="347" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="12">
         <v>1637</v>
       </c>
@@ -19633,7 +19634,7 @@
       </c>
       <c r="L347" s="9"/>
     </row>
-    <row r="348" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="12">
         <v>1638</v>
       </c>
@@ -19669,7 +19670,7 @@
       </c>
       <c r="L348" s="9"/>
     </row>
-    <row r="349" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="12">
         <v>1639</v>
       </c>
@@ -19705,7 +19706,7 @@
       </c>
       <c r="L349" s="9"/>
     </row>
-    <row r="350" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="12">
         <v>1640</v>
       </c>
@@ -19741,7 +19742,7 @@
       </c>
       <c r="L350" s="9"/>
     </row>
-    <row r="351" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="12">
         <v>1641</v>
       </c>
@@ -19777,7 +19778,7 @@
       </c>
       <c r="L351" s="9"/>
     </row>
-    <row r="352" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="12">
         <v>1642</v>
       </c>
@@ -19813,7 +19814,7 @@
       </c>
       <c r="L352" s="9"/>
     </row>
-    <row r="353" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="12">
         <v>1643</v>
       </c>
@@ -19849,7 +19850,7 @@
       </c>
       <c r="L353" s="9"/>
     </row>
-    <row r="354" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="12">
         <v>1644</v>
       </c>
@@ -19885,7 +19886,7 @@
       </c>
       <c r="L354" s="9"/>
     </row>
-    <row r="355" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="12">
         <v>1645</v>
       </c>
@@ -19921,7 +19922,7 @@
       </c>
       <c r="L355" s="9"/>
     </row>
-    <row r="356" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="12">
         <v>1646</v>
       </c>
@@ -19957,7 +19958,7 @@
       </c>
       <c r="L356" s="9"/>
     </row>
-    <row r="357" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="12">
         <v>1647</v>
       </c>
@@ -19993,7 +19994,7 @@
       </c>
       <c r="L357" s="9"/>
     </row>
-    <row r="358" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="12">
         <v>1648</v>
       </c>
@@ -20029,7 +20030,7 @@
       </c>
       <c r="L358" s="9"/>
     </row>
-    <row r="359" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="12">
         <v>1649</v>
       </c>
@@ -20057,7 +20058,7 @@
       <c r="K359" s="15"/>
       <c r="L359" s="9"/>
     </row>
-    <row r="360" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="12">
         <v>1650</v>
       </c>
@@ -20093,7 +20094,7 @@
       </c>
       <c r="L360" s="9"/>
     </row>
-    <row r="361" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="12">
         <v>1651</v>
       </c>
@@ -20129,7 +20130,7 @@
       </c>
       <c r="L361" s="9"/>
     </row>
-    <row r="362" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="12">
         <v>1652</v>
       </c>
@@ -20165,7 +20166,7 @@
       </c>
       <c r="L362" s="9"/>
     </row>
-    <row r="363" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="12">
         <v>1653</v>
       </c>
@@ -20201,7 +20202,7 @@
       </c>
       <c r="L363" s="9"/>
     </row>
-    <row r="364" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="12">
         <v>1654</v>
       </c>
@@ -20237,7 +20238,7 @@
       </c>
       <c r="L364" s="9"/>
     </row>
-    <row r="365" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="12">
         <v>1655</v>
       </c>
@@ -20273,7 +20274,7 @@
       </c>
       <c r="L365" s="9"/>
     </row>
-    <row r="366" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="12">
         <v>1656</v>
       </c>
@@ -20309,7 +20310,7 @@
       </c>
       <c r="L366" s="9"/>
     </row>
-    <row r="367" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="12">
         <v>1657</v>
       </c>
@@ -20345,7 +20346,7 @@
       </c>
       <c r="L367" s="9"/>
     </row>
-    <row r="368" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="12">
         <v>1658</v>
       </c>
@@ -20381,7 +20382,7 @@
       </c>
       <c r="L368" s="9"/>
     </row>
-    <row r="369" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="12">
         <v>1659</v>
       </c>
@@ -20417,7 +20418,7 @@
       </c>
       <c r="L369" s="9"/>
     </row>
-    <row r="370" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="12">
         <v>1660</v>
       </c>
@@ -20453,7 +20454,7 @@
       </c>
       <c r="L370" s="9"/>
     </row>
-    <row r="371" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="12">
         <v>1661</v>
       </c>
@@ -20489,7 +20490,7 @@
       </c>
       <c r="L371" s="9"/>
     </row>
-    <row r="372" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="12">
         <v>1662</v>
       </c>
@@ -20525,7 +20526,7 @@
       </c>
       <c r="L372" s="9"/>
     </row>
-    <row r="373" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="12">
         <v>1663</v>
       </c>
@@ -20561,7 +20562,7 @@
       </c>
       <c r="L373" s="9"/>
     </row>
-    <row r="374" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="12">
         <v>1664</v>
       </c>
@@ -20597,7 +20598,7 @@
       </c>
       <c r="L374" s="9"/>
     </row>
-    <row r="375" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="12">
         <v>1665</v>
       </c>
@@ -20633,7 +20634,7 @@
       </c>
       <c r="L375" s="9"/>
     </row>
-    <row r="376" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="12">
         <v>1666</v>
       </c>
@@ -20667,7 +20668,7 @@
       </c>
       <c r="L376" s="9"/>
     </row>
-    <row r="377" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="12">
         <v>1667</v>
       </c>
@@ -20703,7 +20704,7 @@
       </c>
       <c r="L377" s="9"/>
     </row>
-    <row r="378" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="12">
         <v>1668</v>
       </c>
@@ -20739,7 +20740,7 @@
       </c>
       <c r="L378" s="9"/>
     </row>
-    <row r="379" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="12">
         <v>1669</v>
       </c>
@@ -20775,7 +20776,7 @@
       </c>
       <c r="L379" s="9"/>
     </row>
-    <row r="380" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="12">
         <v>1670</v>
       </c>
@@ -20811,7 +20812,7 @@
       </c>
       <c r="L380" s="9"/>
     </row>
-    <row r="381" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="12">
         <v>1671</v>
       </c>
@@ -20843,7 +20844,7 @@
       <c r="K381" s="15"/>
       <c r="L381" s="9"/>
     </row>
-    <row r="382" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="12">
         <v>1672</v>
       </c>
@@ -20877,7 +20878,7 @@
       </c>
       <c r="L382" s="9"/>
     </row>
-    <row r="383" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="12">
         <v>1673</v>
       </c>
@@ -20911,7 +20912,7 @@
       </c>
       <c r="L383" s="9"/>
     </row>
-    <row r="384" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="12">
         <v>1674</v>
       </c>
@@ -20945,7 +20946,7 @@
       </c>
       <c r="L384" s="9"/>
     </row>
-    <row r="385" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="12">
         <v>1675</v>
       </c>
@@ -20979,7 +20980,7 @@
       </c>
       <c r="L385" s="9"/>
     </row>
-    <row r="386" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="12">
         <v>1676</v>
       </c>
@@ -21013,7 +21014,7 @@
       </c>
       <c r="L386" s="9"/>
     </row>
-    <row r="387" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="12">
         <v>1677</v>
       </c>
@@ -21047,7 +21048,7 @@
       </c>
       <c r="L387" s="9"/>
     </row>
-    <row r="388" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="12">
         <v>1678</v>
       </c>
@@ -21081,7 +21082,7 @@
       </c>
       <c r="L388" s="9"/>
     </row>
-    <row r="389" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="12">
         <v>1679</v>
       </c>
@@ -21115,7 +21116,7 @@
       </c>
       <c r="L389" s="9"/>
     </row>
-    <row r="390" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="12">
         <v>1680</v>
       </c>
@@ -21149,7 +21150,7 @@
       </c>
       <c r="L390" s="9"/>
     </row>
-    <row r="391" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="12">
         <v>1681</v>
       </c>
@@ -21183,7 +21184,7 @@
       </c>
       <c r="L391" s="9"/>
     </row>
-    <row r="392" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="12">
         <v>1682</v>
       </c>
@@ -21217,7 +21218,7 @@
       </c>
       <c r="L392" s="9"/>
     </row>
-    <row r="393" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="12">
         <v>1683</v>
       </c>
@@ -21251,7 +21252,7 @@
       </c>
       <c r="L393" s="9"/>
     </row>
-    <row r="394" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="12">
         <v>1684</v>
       </c>
@@ -21285,7 +21286,7 @@
       </c>
       <c r="L394" s="9"/>
     </row>
-    <row r="395" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="12">
         <v>1685</v>
       </c>
@@ -21319,7 +21320,7 @@
       </c>
       <c r="L395" s="9"/>
     </row>
-    <row r="396" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="12">
         <v>1686</v>
       </c>
@@ -21353,7 +21354,7 @@
       </c>
       <c r="L396" s="9"/>
     </row>
-    <row r="397" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="12">
         <v>1687</v>
       </c>
@@ -21387,7 +21388,7 @@
       </c>
       <c r="L397" s="9"/>
     </row>
-    <row r="398" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="12">
         <v>1688</v>
       </c>
@@ -21421,7 +21422,7 @@
       </c>
       <c r="L398" s="9"/>
     </row>
-    <row r="399" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="12">
         <v>1689</v>
       </c>
@@ -21455,7 +21456,7 @@
       </c>
       <c r="L399" s="9"/>
     </row>
-    <row r="400" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="12">
         <v>1690</v>
       </c>
@@ -21489,7 +21490,7 @@
       </c>
       <c r="L400" s="9"/>
     </row>
-    <row r="401" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="12">
         <v>1691</v>
       </c>
@@ -21523,7 +21524,7 @@
       </c>
       <c r="L401" s="9"/>
     </row>
-    <row r="402" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="12">
         <v>1692</v>
       </c>
@@ -21557,7 +21558,7 @@
       </c>
       <c r="L402" s="9"/>
     </row>
-    <row r="403" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="12">
         <v>1693</v>
       </c>
@@ -21591,7 +21592,7 @@
       </c>
       <c r="L403" s="9"/>
     </row>
-    <row r="404" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="12">
         <v>1694</v>
       </c>
@@ -21625,7 +21626,7 @@
       </c>
       <c r="L404" s="9"/>
     </row>
-    <row r="405" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="12">
         <v>1695</v>
       </c>
@@ -21659,7 +21660,7 @@
       </c>
       <c r="L405" s="9"/>
     </row>
-    <row r="406" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="12">
         <v>1696</v>
       </c>
@@ -21693,7 +21694,7 @@
       </c>
       <c r="L406" s="9"/>
     </row>
-    <row r="407" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="12">
         <v>1697</v>
       </c>
@@ -21727,7 +21728,7 @@
       </c>
       <c r="L407" s="9"/>
     </row>
-    <row r="408" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="12">
         <v>1698</v>
       </c>
@@ -21761,7 +21762,7 @@
       </c>
       <c r="L408" s="9"/>
     </row>
-    <row r="409" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="12">
         <v>1699</v>
       </c>
@@ -21795,7 +21796,7 @@
       </c>
       <c r="L409" s="9"/>
     </row>
-    <row r="410" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="12">
         <v>1700</v>
       </c>
@@ -21829,7 +21830,7 @@
       </c>
       <c r="L410" s="9"/>
     </row>
-    <row r="411" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="12">
         <v>1701</v>
       </c>
@@ -21863,7 +21864,7 @@
       </c>
       <c r="L411" s="9"/>
     </row>
-    <row r="412" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="12">
         <v>1702</v>
       </c>
@@ -21897,7 +21898,7 @@
       </c>
       <c r="L412" s="9"/>
     </row>
-    <row r="413" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="12">
         <v>1703</v>
       </c>
@@ -21931,7 +21932,7 @@
       </c>
       <c r="L413" s="9"/>
     </row>
-    <row r="414" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="12">
         <v>1704</v>
       </c>
@@ -21965,7 +21966,7 @@
       </c>
       <c r="L414" s="9"/>
     </row>
-    <row r="415" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="12">
         <v>1705</v>
       </c>
@@ -21999,7 +22000,7 @@
       </c>
       <c r="L415" s="9"/>
     </row>
-    <row r="416" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="12">
         <v>1706</v>
       </c>
@@ -22033,7 +22034,7 @@
       </c>
       <c r="L416" s="9"/>
     </row>
-    <row r="417" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="12">
         <v>1707</v>
       </c>
@@ -22067,7 +22068,7 @@
       </c>
       <c r="L417" s="9"/>
     </row>
-    <row r="418" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="12">
         <v>1708</v>
       </c>
@@ -22101,7 +22102,7 @@
       </c>
       <c r="L418" s="9"/>
     </row>
-    <row r="419" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="12">
         <v>1709</v>
       </c>
@@ -22135,7 +22136,7 @@
       </c>
       <c r="L419" s="9"/>
     </row>
-    <row r="420" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="12">
         <v>1710</v>
       </c>
@@ -22169,7 +22170,7 @@
       </c>
       <c r="L420" s="9"/>
     </row>
-    <row r="421" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="12">
         <v>1711</v>
       </c>
@@ -22203,7 +22204,7 @@
       </c>
       <c r="L421" s="9"/>
     </row>
-    <row r="422" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="12">
         <v>1712</v>
       </c>
@@ -22237,7 +22238,7 @@
       </c>
       <c r="L422" s="9"/>
     </row>
-    <row r="423" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="12">
         <v>1713</v>
       </c>
@@ -22271,7 +22272,7 @@
       </c>
       <c r="L423" s="9"/>
     </row>
-    <row r="424" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="12">
         <v>1714</v>
       </c>
@@ -22305,7 +22306,7 @@
       </c>
       <c r="L424" s="9"/>
     </row>
-    <row r="425" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="12">
         <v>1715</v>
       </c>
@@ -22339,7 +22340,7 @@
       </c>
       <c r="L425" s="9"/>
     </row>
-    <row r="426" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="12">
         <v>1716</v>
       </c>
@@ -22373,7 +22374,7 @@
       </c>
       <c r="L426" s="9"/>
     </row>
-    <row r="427" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="12">
         <v>1717</v>
       </c>
@@ -22407,7 +22408,7 @@
       </c>
       <c r="L427" s="9"/>
     </row>
-    <row r="428" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="12">
         <v>1718</v>
       </c>
@@ -22441,7 +22442,7 @@
       </c>
       <c r="L428" s="9"/>
     </row>
-    <row r="429" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="12">
         <v>1719</v>
       </c>
@@ -22475,7 +22476,7 @@
       </c>
       <c r="L429" s="9"/>
     </row>
-    <row r="430" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="12">
         <v>1720</v>
       </c>
@@ -22509,7 +22510,7 @@
       </c>
       <c r="L430" s="9"/>
     </row>
-    <row r="431" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="12">
         <v>1721</v>
       </c>
@@ -22543,7 +22544,7 @@
       </c>
       <c r="L431" s="9"/>
     </row>
-    <row r="432" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="12">
         <v>1722</v>
       </c>
@@ -22577,7 +22578,7 @@
       </c>
       <c r="L432" s="9"/>
     </row>
-    <row r="433" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="12">
         <v>1723</v>
       </c>
@@ -22611,7 +22612,7 @@
       </c>
       <c r="L433" s="9"/>
     </row>
-    <row r="434" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="12">
         <v>1724</v>
       </c>
@@ -22645,7 +22646,7 @@
       </c>
       <c r="L434" s="9"/>
     </row>
-    <row r="435" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="12">
         <v>1725</v>
       </c>
@@ -22679,7 +22680,7 @@
       </c>
       <c r="L435" s="9"/>
     </row>
-    <row r="436" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="12">
         <v>1726</v>
       </c>
@@ -22713,7 +22714,7 @@
       </c>
       <c r="L436" s="9"/>
     </row>
-    <row r="437" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="12">
         <v>1727</v>
       </c>
@@ -22747,7 +22748,7 @@
       </c>
       <c r="L437" s="9"/>
     </row>
-    <row r="438" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="12">
         <v>1728</v>
       </c>
@@ -22781,7 +22782,7 @@
       </c>
       <c r="L438" s="9"/>
     </row>
-    <row r="439" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="12">
         <v>1729</v>
       </c>
@@ -22815,7 +22816,7 @@
       </c>
       <c r="L439" s="9"/>
     </row>
-    <row r="440" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="12">
         <v>1730</v>
       </c>
@@ -22849,7 +22850,7 @@
       </c>
       <c r="L440" s="9"/>
     </row>
-    <row r="441" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="12">
         <v>1731</v>
       </c>
@@ -22883,7 +22884,7 @@
       </c>
       <c r="L441" s="9"/>
     </row>
-    <row r="442" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="12">
         <v>1732</v>
       </c>
@@ -22917,7 +22918,7 @@
       </c>
       <c r="L442" s="9"/>
     </row>
-    <row r="443" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="12">
         <v>1733</v>
       </c>
@@ -22951,7 +22952,7 @@
       </c>
       <c r="L443" s="9"/>
     </row>
-    <row r="444" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="12">
         <v>1734</v>
       </c>
@@ -22985,7 +22986,7 @@
       </c>
       <c r="L444" s="9"/>
     </row>
-    <row r="445" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="12">
         <v>1735</v>
       </c>
@@ -23019,7 +23020,7 @@
       </c>
       <c r="L445" s="9"/>
     </row>
-    <row r="446" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="12">
         <v>1736</v>
       </c>
@@ -23053,7 +23054,7 @@
       </c>
       <c r="L446" s="9"/>
     </row>
-    <row r="447" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="12">
         <v>1737</v>
       </c>
@@ -23089,7 +23090,7 @@
       </c>
       <c r="L447" s="9"/>
     </row>
-    <row r="448" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="12">
         <v>1738</v>
       </c>
@@ -23125,7 +23126,7 @@
       </c>
       <c r="L448" s="9"/>
     </row>
-    <row r="449" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="12">
         <v>1739</v>
       </c>
@@ -23161,7 +23162,7 @@
       </c>
       <c r="L449" s="9"/>
     </row>
-    <row r="450" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="12">
         <v>1740</v>
       </c>
@@ -23197,7 +23198,7 @@
       </c>
       <c r="L450" s="9"/>
     </row>
-    <row r="451" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="12">
         <v>1741</v>
       </c>
@@ -23233,7 +23234,7 @@
       </c>
       <c r="L451" s="9"/>
     </row>
-    <row r="452" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="12">
         <v>1742</v>
       </c>
@@ -23269,7 +23270,7 @@
       </c>
       <c r="L452" s="9"/>
     </row>
-    <row r="453" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="12">
         <v>1743</v>
       </c>
@@ -23305,7 +23306,7 @@
       </c>
       <c r="L453" s="9"/>
     </row>
-    <row r="454" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="12">
         <v>1744</v>
       </c>
@@ -23341,7 +23342,7 @@
       </c>
       <c r="L454" s="9"/>
     </row>
-    <row r="455" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="12">
         <v>1745</v>
       </c>
@@ -23377,7 +23378,7 @@
       </c>
       <c r="L455" s="9"/>
     </row>
-    <row r="456" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="12">
         <v>1746</v>
       </c>
@@ -23413,7 +23414,7 @@
       </c>
       <c r="L456" s="9"/>
     </row>
-    <row r="457" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="12">
         <v>1747</v>
       </c>
@@ -23449,7 +23450,7 @@
       </c>
       <c r="L457" s="9"/>
     </row>
-    <row r="458" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="12">
         <v>1748</v>
       </c>
@@ -23485,7 +23486,7 @@
       </c>
       <c r="L458" s="9"/>
     </row>
-    <row r="459" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="12">
         <v>1749</v>
       </c>
@@ -23521,7 +23522,7 @@
       </c>
       <c r="L459" s="9"/>
     </row>
-    <row r="460" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="12">
         <v>1750</v>
       </c>
@@ -23557,7 +23558,7 @@
       </c>
       <c r="L460" s="9"/>
     </row>
-    <row r="461" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="12">
         <v>1751</v>
       </c>
@@ -23593,7 +23594,7 @@
       </c>
       <c r="L461" s="9"/>
     </row>
-    <row r="462" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="12">
         <v>1752</v>
       </c>
@@ -23629,7 +23630,7 @@
       </c>
       <c r="L462" s="9"/>
     </row>
-    <row r="463" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="12">
         <v>1753</v>
       </c>
@@ -23665,7 +23666,7 @@
       </c>
       <c r="L463" s="9"/>
     </row>
-    <row r="464" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="12">
         <v>1754</v>
       </c>
@@ -23701,7 +23702,7 @@
       </c>
       <c r="L464" s="9"/>
     </row>
-    <row r="465" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="12">
         <v>1755</v>
       </c>
@@ -23737,7 +23738,7 @@
       </c>
       <c r="L465" s="9"/>
     </row>
-    <row r="466" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="12">
         <v>1756</v>
       </c>
@@ -23773,7 +23774,7 @@
       </c>
       <c r="L466" s="9"/>
     </row>
-    <row r="467" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="12">
         <v>1757</v>
       </c>
@@ -23809,7 +23810,7 @@
       </c>
       <c r="L467" s="9"/>
     </row>
-    <row r="468" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="12">
         <v>1758</v>
       </c>
@@ -23845,7 +23846,7 @@
       </c>
       <c r="L468" s="9"/>
     </row>
-    <row r="469" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="12">
         <v>1759</v>
       </c>
@@ -23881,7 +23882,7 @@
       </c>
       <c r="L469" s="9"/>
     </row>
-    <row r="470" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="12">
         <v>1760</v>
       </c>
@@ -23917,7 +23918,7 @@
       </c>
       <c r="L470" s="9"/>
     </row>
-    <row r="471" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="12">
         <v>1761</v>
       </c>
@@ -23953,7 +23954,7 @@
       </c>
       <c r="L471" s="9"/>
     </row>
-    <row r="472" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="12">
         <v>1762</v>
       </c>
@@ -23989,7 +23990,7 @@
       </c>
       <c r="L472" s="9"/>
     </row>
-    <row r="473" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="12">
         <v>1763</v>
       </c>
@@ -24023,7 +24024,7 @@
       </c>
       <c r="L473" s="9"/>
     </row>
-    <row r="474" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="12">
         <v>1764</v>
       </c>
@@ -24057,7 +24058,7 @@
       </c>
       <c r="L474" s="9"/>
     </row>
-    <row r="475" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="12">
         <v>1765</v>
       </c>
@@ -24091,7 +24092,7 @@
       </c>
       <c r="L475" s="9"/>
     </row>
-    <row r="476" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="12">
         <v>1766</v>
       </c>
@@ -24125,7 +24126,7 @@
       </c>
       <c r="L476" s="9"/>
     </row>
-    <row r="477" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="12">
         <v>1767</v>
       </c>
@@ -24159,7 +24160,7 @@
       </c>
       <c r="L477" s="9"/>
     </row>
-    <row r="478" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="12">
         <v>1768</v>
       </c>
@@ -24193,7 +24194,7 @@
       </c>
       <c r="L478" s="9"/>
     </row>
-    <row r="479" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="12">
         <v>1769</v>
       </c>
@@ -24227,7 +24228,7 @@
       </c>
       <c r="L479" s="9"/>
     </row>
-    <row r="480" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="12">
         <v>1770</v>
       </c>
@@ -24261,7 +24262,7 @@
       </c>
       <c r="L480" s="9"/>
     </row>
-    <row r="481" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="12">
         <v>1771</v>
       </c>
@@ -24295,7 +24296,7 @@
       </c>
       <c r="L481" s="9"/>
     </row>
-    <row r="482" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="12">
         <v>1772</v>
       </c>
@@ -24329,7 +24330,7 @@
       </c>
       <c r="L482" s="9"/>
     </row>
-    <row r="483" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="12">
         <v>1773</v>
       </c>
@@ -24363,7 +24364,7 @@
       </c>
       <c r="L483" s="9"/>
     </row>
-    <row r="484" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="12">
         <v>1774</v>
       </c>
@@ -24397,7 +24398,7 @@
       </c>
       <c r="L484" s="9"/>
     </row>
-    <row r="485" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="12">
         <v>1775</v>
       </c>
@@ -24431,7 +24432,7 @@
       </c>
       <c r="L485" s="9"/>
     </row>
-    <row r="486" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="12">
         <v>1776</v>
       </c>
@@ -24465,7 +24466,7 @@
       </c>
       <c r="L486" s="9"/>
     </row>
-    <row r="487" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="12">
         <v>1777</v>
       </c>
@@ -24499,7 +24500,7 @@
       </c>
       <c r="L487" s="9"/>
     </row>
-    <row r="488" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="12">
         <v>1778</v>
       </c>
@@ -24533,7 +24534,7 @@
       </c>
       <c r="L488" s="9"/>
     </row>
-    <row r="489" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="12">
         <v>1779</v>
       </c>
@@ -24567,7 +24568,7 @@
       </c>
       <c r="L489" s="9"/>
     </row>
-    <row r="490" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="12">
         <v>1780</v>
       </c>
@@ -24601,7 +24602,7 @@
       </c>
       <c r="L490" s="9"/>
     </row>
-    <row r="491" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="12">
         <v>1781</v>
       </c>
@@ -24635,7 +24636,7 @@
       </c>
       <c r="L491" s="9"/>
     </row>
-    <row r="492" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="12">
         <v>1782</v>
       </c>
@@ -24669,7 +24670,7 @@
       </c>
       <c r="L492" s="9"/>
     </row>
-    <row r="493" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="12">
         <v>1783</v>
       </c>
@@ -24703,7 +24704,7 @@
       </c>
       <c r="L493" s="9"/>
     </row>
-    <row r="494" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="12">
         <v>1784</v>
       </c>
@@ -24737,7 +24738,7 @@
       </c>
       <c r="L494" s="9"/>
     </row>
-    <row r="495" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="12">
         <v>1785</v>
       </c>
@@ -24771,7 +24772,7 @@
       </c>
       <c r="L495" s="9"/>
     </row>
-    <row r="496" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="12">
         <v>1786</v>
       </c>
@@ -24805,7 +24806,7 @@
       </c>
       <c r="L496" s="9"/>
     </row>
-    <row r="497" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="12">
         <v>1787</v>
       </c>
@@ -24839,7 +24840,7 @@
       </c>
       <c r="L497" s="9"/>
     </row>
-    <row r="498" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="12">
         <v>1788</v>
       </c>
@@ -24873,7 +24874,7 @@
       </c>
       <c r="L498" s="9"/>
     </row>
-    <row r="499" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="12">
         <v>1789</v>
       </c>
@@ -24907,7 +24908,7 @@
       </c>
       <c r="L499" s="9"/>
     </row>
-    <row r="500" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="12">
         <v>1790</v>
       </c>
@@ -24941,7 +24942,7 @@
       </c>
       <c r="L500" s="9"/>
     </row>
-    <row r="501" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="12">
         <v>1791</v>
       </c>
@@ -24969,7 +24970,7 @@
       <c r="K501" s="15"/>
       <c r="L501" s="9"/>
     </row>
-    <row r="502" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="12">
         <v>1792</v>
       </c>
@@ -24997,7 +24998,7 @@
       <c r="K502" s="15"/>
       <c r="L502" s="9"/>
     </row>
-    <row r="503" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="12">
         <v>1793</v>
       </c>
@@ -25025,7 +25026,7 @@
       <c r="K503" s="15"/>
       <c r="L503" s="9"/>
     </row>
-    <row r="504" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="12">
         <v>1794</v>
       </c>
@@ -25053,7 +25054,7 @@
       <c r="K504" s="15"/>
       <c r="L504" s="9"/>
     </row>
-    <row r="505" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="12">
         <v>1795</v>
       </c>
@@ -25081,7 +25082,7 @@
       <c r="K505" s="15"/>
       <c r="L505" s="9"/>
     </row>
-    <row r="506" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="12">
         <v>1796</v>
       </c>
@@ -25109,7 +25110,7 @@
       <c r="K506" s="15"/>
       <c r="L506" s="9"/>
     </row>
-    <row r="507" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="12">
         <v>1797</v>
       </c>
@@ -25137,7 +25138,7 @@
       <c r="K507" s="15"/>
       <c r="L507" s="9"/>
     </row>
-    <row r="508" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="12">
         <v>1798</v>
       </c>
@@ -25165,7 +25166,7 @@
       <c r="K508" s="15"/>
       <c r="L508" s="9"/>
     </row>
-    <row r="509" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="12">
         <v>1799</v>
       </c>
@@ -25193,7 +25194,7 @@
       <c r="K509" s="15"/>
       <c r="L509" s="9"/>
     </row>
-    <row r="510" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="12">
         <v>1800</v>
       </c>
@@ -25225,7 +25226,7 @@
       <c r="K510" s="15"/>
       <c r="L510" s="9"/>
     </row>
-    <row r="511" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="12">
         <v>1801</v>
       </c>
@@ -25259,7 +25260,7 @@
       </c>
       <c r="L511" s="9"/>
     </row>
-    <row r="512" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="12">
         <v>1802</v>
       </c>
@@ -25293,7 +25294,7 @@
       </c>
       <c r="L512" s="9"/>
     </row>
-    <row r="513" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="12">
         <v>1803</v>
       </c>
@@ -25327,7 +25328,7 @@
       </c>
       <c r="L513" s="9"/>
     </row>
-    <row r="514" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="12">
         <v>1804</v>
       </c>
@@ -25361,7 +25362,7 @@
       </c>
       <c r="L514" s="9"/>
     </row>
-    <row r="515" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="12">
         <v>1805</v>
       </c>
@@ -25389,7 +25390,7 @@
       <c r="K515" s="15"/>
       <c r="L515" s="9"/>
     </row>
-    <row r="516" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="12">
         <v>1806</v>
       </c>
@@ -25423,7 +25424,7 @@
       </c>
       <c r="L516" s="9"/>
     </row>
-    <row r="517" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="12">
         <v>1807</v>
       </c>
@@ -25457,7 +25458,7 @@
       </c>
       <c r="L517" s="9"/>
     </row>
-    <row r="518" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="12">
         <v>1808</v>
       </c>
@@ -25491,7 +25492,7 @@
       </c>
       <c r="L518" s="9"/>
     </row>
-    <row r="519" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="12">
         <v>1809</v>
       </c>
@@ -25525,7 +25526,7 @@
       </c>
       <c r="L519" s="9"/>
     </row>
-    <row r="520" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="12">
         <v>1810</v>
       </c>
@@ -25559,7 +25560,7 @@
       </c>
       <c r="L520" s="9"/>
     </row>
-    <row r="521" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="12">
         <v>1811</v>
       </c>
@@ -25593,7 +25594,7 @@
       </c>
       <c r="L521" s="9"/>
     </row>
-    <row r="522" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="12">
         <v>1812</v>
       </c>
@@ -25627,7 +25628,7 @@
       </c>
       <c r="L522" s="9"/>
     </row>
-    <row r="523" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="12">
         <v>1813</v>
       </c>
@@ -25661,7 +25662,7 @@
       </c>
       <c r="L523" s="9"/>
     </row>
-    <row r="524" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="12">
         <v>1814</v>
       </c>
@@ -25689,7 +25690,7 @@
       <c r="K524" s="15"/>
       <c r="L524" s="9"/>
     </row>
-    <row r="525" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="12">
         <v>1815</v>
       </c>
@@ -25723,7 +25724,7 @@
       </c>
       <c r="L525" s="9"/>
     </row>
-    <row r="526" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="12">
         <v>1816</v>
       </c>
@@ -25757,7 +25758,7 @@
       </c>
       <c r="L526" s="9"/>
     </row>
-    <row r="527" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="12">
         <v>1817</v>
       </c>
@@ -25785,7 +25786,7 @@
       <c r="K527" s="15"/>
       <c r="L527" s="9"/>
     </row>
-    <row r="528" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="12">
         <v>1818</v>
       </c>
@@ -25813,7 +25814,7 @@
       <c r="K528" s="15"/>
       <c r="L528" s="9"/>
     </row>
-    <row r="529" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="12">
         <v>1819</v>
       </c>
@@ -25847,7 +25848,7 @@
       </c>
       <c r="L529" s="9"/>
     </row>
-    <row r="530" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="12">
         <v>1820</v>
       </c>
@@ -25881,7 +25882,7 @@
       </c>
       <c r="L530" s="9"/>
     </row>
-    <row r="531" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="12">
         <v>1821</v>
       </c>
@@ -25909,7 +25910,7 @@
       <c r="K531" s="15"/>
       <c r="L531" s="9"/>
     </row>
-    <row r="532" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="12">
         <v>1822</v>
       </c>
@@ -25943,7 +25944,7 @@
       </c>
       <c r="L532" s="9"/>
     </row>
-    <row r="533" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="12">
         <v>1823</v>
       </c>
@@ -25977,7 +25978,7 @@
       </c>
       <c r="L533" s="9"/>
     </row>
-    <row r="534" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="12">
         <v>1824</v>
       </c>
@@ -26011,7 +26012,7 @@
       </c>
       <c r="L534" s="9"/>
     </row>
-    <row r="535" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="12">
         <v>1825</v>
       </c>
@@ -26045,7 +26046,7 @@
       </c>
       <c r="L535" s="9"/>
     </row>
-    <row r="536" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="12">
         <v>1826</v>
       </c>
@@ -26079,7 +26080,7 @@
       </c>
       <c r="L536" s="9"/>
     </row>
-    <row r="537" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="12">
         <v>1827</v>
       </c>
@@ -26113,7 +26114,7 @@
       </c>
       <c r="L537" s="9"/>
     </row>
-    <row r="538" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="12">
         <v>1828</v>
       </c>
@@ -26147,7 +26148,7 @@
       </c>
       <c r="L538" s="9"/>
     </row>
-    <row r="539" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="12">
         <v>1829</v>
       </c>
@@ -26175,7 +26176,7 @@
       <c r="K539" s="15"/>
       <c r="L539" s="9"/>
     </row>
-    <row r="540" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="12">
         <v>1830</v>
       </c>
@@ -26203,7 +26204,7 @@
       <c r="K540" s="15"/>
       <c r="L540" s="9"/>
     </row>
-    <row r="541" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="12">
         <v>1831</v>
       </c>
@@ -26237,7 +26238,7 @@
       </c>
       <c r="L541" s="9"/>
     </row>
-    <row r="542" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="12">
         <v>1832</v>
       </c>
@@ -26271,7 +26272,7 @@
       </c>
       <c r="L542" s="9"/>
     </row>
-    <row r="543" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="12">
         <v>1833</v>
       </c>
@@ -26299,7 +26300,7 @@
       <c r="K543" s="15"/>
       <c r="L543" s="9"/>
     </row>
-    <row r="544" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="12">
         <v>1834</v>
       </c>
@@ -26327,7 +26328,7 @@
       <c r="K544" s="15"/>
       <c r="L544" s="9"/>
     </row>
-    <row r="545" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="12">
         <v>1835</v>
       </c>
@@ -26359,7 +26360,7 @@
       <c r="K545" s="15"/>
       <c r="L545" s="9"/>
     </row>
-    <row r="546" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="12">
         <v>1836</v>
       </c>
@@ -26393,7 +26394,7 @@
       </c>
       <c r="L546" s="9"/>
     </row>
-    <row r="547" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="12">
         <v>1837</v>
       </c>
@@ -26421,7 +26422,7 @@
       <c r="K547" s="15"/>
       <c r="L547" s="9"/>
     </row>
-    <row r="548" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="12">
         <v>1838</v>
       </c>
@@ -26455,7 +26456,7 @@
       </c>
       <c r="L548" s="9"/>
     </row>
-    <row r="549" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="12">
         <v>1839</v>
       </c>
@@ -26489,7 +26490,7 @@
       </c>
       <c r="L549" s="9"/>
     </row>
-    <row r="550" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="12">
         <v>1840</v>
       </c>
@@ -26517,7 +26518,7 @@
       <c r="K550" s="15"/>
       <c r="L550" s="9"/>
     </row>
-    <row r="551" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="12">
         <v>1841</v>
       </c>
@@ -26545,7 +26546,7 @@
       <c r="K551" s="15"/>
       <c r="L551" s="9"/>
     </row>
-    <row r="552" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="12">
         <v>1842</v>
       </c>
@@ -26573,7 +26574,7 @@
       <c r="K552" s="15"/>
       <c r="L552" s="9"/>
     </row>
-    <row r="553" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="12">
         <v>1843</v>
       </c>
@@ -26601,7 +26602,7 @@
       <c r="K553" s="15"/>
       <c r="L553" s="9"/>
     </row>
-    <row r="554" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="12">
         <v>1844</v>
       </c>
@@ -26629,7 +26630,7 @@
       <c r="K554" s="15"/>
       <c r="L554" s="9"/>
     </row>
-    <row r="555" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="12">
         <v>1845</v>
       </c>
@@ -26657,7 +26658,7 @@
       <c r="K555" s="15"/>
       <c r="L555" s="9"/>
     </row>
-    <row r="556" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="12">
         <v>1846</v>
       </c>
@@ -26685,7 +26686,7 @@
       <c r="K556" s="15"/>
       <c r="L556" s="9"/>
     </row>
-    <row r="557" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="12">
         <v>1847</v>
       </c>
@@ -26713,7 +26714,7 @@
       <c r="K557" s="15"/>
       <c r="L557" s="9"/>
     </row>
-    <row r="558" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="12">
         <v>1848</v>
       </c>
@@ -26747,7 +26748,7 @@
       </c>
       <c r="L558" s="9"/>
     </row>
-    <row r="559" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="12">
         <v>1849</v>
       </c>
@@ -26775,7 +26776,7 @@
       <c r="K559" s="15"/>
       <c r="L559" s="9"/>
     </row>
-    <row r="560" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="12">
         <v>1850</v>
       </c>
@@ -26803,7 +26804,7 @@
       <c r="K560" s="15"/>
       <c r="L560" s="9"/>
     </row>
-    <row r="561" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="12">
         <v>1851</v>
       </c>
@@ -26837,7 +26838,7 @@
       </c>
       <c r="L561" s="9"/>
     </row>
-    <row r="562" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="12">
         <v>1852</v>
       </c>
@@ -26865,7 +26866,7 @@
       <c r="K562" s="15"/>
       <c r="L562" s="9"/>
     </row>
-    <row r="563" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="12">
         <v>1853</v>
       </c>
@@ -26899,7 +26900,7 @@
       </c>
       <c r="L563" s="9"/>
     </row>
-    <row r="564" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="12">
         <v>1854</v>
       </c>
@@ -26927,7 +26928,7 @@
       <c r="K564" s="15"/>
       <c r="L564" s="9"/>
     </row>
-    <row r="565" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="12">
         <v>1855</v>
       </c>
@@ -26961,7 +26962,7 @@
       </c>
       <c r="L565" s="9"/>
     </row>
-    <row r="566" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="12">
         <v>1856</v>
       </c>
@@ -26995,7 +26996,7 @@
       </c>
       <c r="L566" s="9"/>
     </row>
-    <row r="567" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="12">
         <v>1857</v>
       </c>
@@ -27023,7 +27024,7 @@
       <c r="K567" s="15"/>
       <c r="L567" s="9"/>
     </row>
-    <row r="568" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="12">
         <v>1858</v>
       </c>
@@ -27057,7 +27058,7 @@
       </c>
       <c r="L568" s="9"/>
     </row>
-    <row r="569" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="12">
         <v>1859</v>
       </c>
@@ -27091,7 +27092,7 @@
       </c>
       <c r="L569" s="9"/>
     </row>
-    <row r="570" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="12">
         <v>1860</v>
       </c>
@@ -27125,7 +27126,7 @@
       </c>
       <c r="L570" s="9"/>
     </row>
-    <row r="571" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="12">
         <v>1861</v>
       </c>
@@ -27159,7 +27160,7 @@
       </c>
       <c r="L571" s="9"/>
     </row>
-    <row r="572" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="12">
         <v>1862</v>
       </c>
@@ -27187,7 +27188,7 @@
       <c r="K572" s="15"/>
       <c r="L572" s="9"/>
     </row>
-    <row r="573" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="12">
         <v>1863</v>
       </c>
@@ -27221,7 +27222,7 @@
       </c>
       <c r="L573" s="9"/>
     </row>
-    <row r="574" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="12">
         <v>1864</v>
       </c>
@@ -27255,7 +27256,7 @@
       </c>
       <c r="L574" s="9"/>
     </row>
-    <row r="575" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="12">
         <v>1865</v>
       </c>
@@ -27289,7 +27290,7 @@
       </c>
       <c r="L575" s="9"/>
     </row>
-    <row r="576" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="12">
         <v>1866</v>
       </c>
@@ -27323,7 +27324,7 @@
       </c>
       <c r="L576" s="9"/>
     </row>
-    <row r="577" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="12">
         <v>1867</v>
       </c>
@@ -27357,7 +27358,7 @@
       </c>
       <c r="L577" s="9"/>
     </row>
-    <row r="578" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="12">
         <v>1868</v>
       </c>
@@ -27391,7 +27392,7 @@
       </c>
       <c r="L578" s="9"/>
     </row>
-    <row r="579" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="12">
         <v>1869</v>
       </c>
@@ -27425,7 +27426,7 @@
       </c>
       <c r="L579" s="9"/>
     </row>
-    <row r="580" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="12">
         <v>1870</v>
       </c>
@@ -27459,7 +27460,7 @@
       </c>
       <c r="L580" s="9"/>
     </row>
-    <row r="581" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="12">
         <v>1871</v>
       </c>
@@ -27491,7 +27492,7 @@
       <c r="K581" s="15"/>
       <c r="L581" s="9"/>
     </row>
-    <row r="582" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="12">
         <v>1872</v>
       </c>
@@ -27521,7 +27522,7 @@
       <c r="K582" s="15"/>
       <c r="L582" s="9"/>
     </row>
-    <row r="583" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="12">
         <v>1873</v>
       </c>
@@ -27549,7 +27550,7 @@
       <c r="K583" s="15"/>
       <c r="L583" s="9"/>
     </row>
-    <row r="584" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="12">
         <v>1874</v>
       </c>
@@ -27577,7 +27578,7 @@
       <c r="K584" s="15"/>
       <c r="L584" s="9"/>
     </row>
-    <row r="585" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="12">
         <v>1875</v>
       </c>
@@ -27605,7 +27606,7 @@
       <c r="K585" s="15"/>
       <c r="L585" s="9"/>
     </row>
-    <row r="586" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="12">
         <v>1876</v>
       </c>
@@ -27633,7 +27634,7 @@
       <c r="K586" s="15"/>
       <c r="L586" s="9"/>
     </row>
-    <row r="587" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="12">
         <v>1877</v>
       </c>
@@ -27661,7 +27662,7 @@
       <c r="K587" s="15"/>
       <c r="L587" s="9"/>
     </row>
-    <row r="588" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="12">
         <v>1878</v>
       </c>
@@ -27695,7 +27696,7 @@
       </c>
       <c r="L588" s="9"/>
     </row>
-    <row r="589" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="12">
         <v>1879</v>
       </c>
@@ -27729,7 +27730,7 @@
       </c>
       <c r="L589" s="9"/>
     </row>
-    <row r="590" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="12">
         <v>1880</v>
       </c>
@@ -27757,7 +27758,7 @@
       <c r="K590" s="15"/>
       <c r="L590" s="9"/>
     </row>
-    <row r="591" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="12">
         <v>1881</v>
       </c>
@@ -27785,7 +27786,7 @@
       <c r="K591" s="15"/>
       <c r="L591" s="9"/>
     </row>
-    <row r="592" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="12">
         <v>1882</v>
       </c>
@@ -27813,7 +27814,7 @@
       <c r="K592" s="15"/>
       <c r="L592" s="9"/>
     </row>
-    <row r="593" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="12">
         <v>1883</v>
       </c>
@@ -27847,7 +27848,7 @@
       </c>
       <c r="L593" s="9"/>
     </row>
-    <row r="594" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="12">
         <v>1884</v>
       </c>
@@ -27875,7 +27876,7 @@
       <c r="K594" s="15"/>
       <c r="L594" s="9"/>
     </row>
-    <row r="595" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="12">
         <v>1885</v>
       </c>
@@ -27909,7 +27910,7 @@
       </c>
       <c r="L595" s="9"/>
     </row>
-    <row r="596" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="12">
         <v>1886</v>
       </c>
@@ -27943,7 +27944,7 @@
       </c>
       <c r="L596" s="9"/>
     </row>
-    <row r="597" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="12">
         <v>1887</v>
       </c>
@@ -27977,7 +27978,7 @@
       </c>
       <c r="L597" s="9"/>
     </row>
-    <row r="598" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="12">
         <v>1888</v>
       </c>
@@ -28011,7 +28012,7 @@
       </c>
       <c r="L598" s="9"/>
     </row>
-    <row r="599" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="12">
         <v>1889</v>
       </c>
@@ -28045,7 +28046,7 @@
       </c>
       <c r="L599" s="9"/>
     </row>
-    <row r="600" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="12">
         <v>1890</v>
       </c>
@@ -28079,7 +28080,7 @@
       </c>
       <c r="L600" s="9"/>
     </row>
-    <row r="601" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="12">
         <v>1891</v>
       </c>
@@ -28107,7 +28108,7 @@
       <c r="K601" s="15"/>
       <c r="L601" s="9"/>
     </row>
-    <row r="602" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="12">
         <v>1892</v>
       </c>
@@ -28135,7 +28136,7 @@
       <c r="K602" s="15"/>
       <c r="L602" s="9"/>
     </row>
-    <row r="603" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="12">
         <v>1893</v>
       </c>
@@ -28163,7 +28164,7 @@
       <c r="K603" s="15"/>
       <c r="L603" s="9"/>
     </row>
-    <row r="604" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="12">
         <v>1894</v>
       </c>
@@ -28197,7 +28198,7 @@
       </c>
       <c r="L604" s="9"/>
     </row>
-    <row r="605" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="12">
         <v>1895</v>
       </c>
@@ -28231,7 +28232,7 @@
       </c>
       <c r="L605" s="9"/>
     </row>
-    <row r="606" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="12">
         <v>1896</v>
       </c>
@@ -28265,7 +28266,7 @@
       </c>
       <c r="L606" s="9"/>
     </row>
-    <row r="607" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="12">
         <v>1897</v>
       </c>
@@ -28299,7 +28300,7 @@
       </c>
       <c r="L607" s="9"/>
     </row>
-    <row r="608" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="12">
         <v>1898</v>
       </c>
@@ -28333,7 +28334,7 @@
       </c>
       <c r="L608" s="9"/>
     </row>
-    <row r="609" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="12">
         <v>1899</v>
       </c>
@@ -28367,7 +28368,7 @@
       </c>
       <c r="L609" s="9"/>
     </row>
-    <row r="610" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="12">
         <v>1900</v>
       </c>
@@ -28401,7 +28402,7 @@
       </c>
       <c r="L610" s="9"/>
     </row>
-    <row r="611" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="12">
         <v>1901</v>
       </c>
@@ -28429,7 +28430,7 @@
       <c r="K611" s="15"/>
       <c r="L611" s="9"/>
     </row>
-    <row r="612" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="12">
         <v>1902</v>
       </c>
@@ -28457,7 +28458,7 @@
       <c r="K612" s="15"/>
       <c r="L612" s="9"/>
     </row>
-    <row r="613" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="12">
         <v>1903</v>
       </c>
@@ -28489,7 +28490,7 @@
       <c r="K613" s="15"/>
       <c r="L613" s="9"/>
     </row>
-    <row r="614" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="12">
         <v>1904</v>
       </c>
@@ -28521,7 +28522,7 @@
       <c r="K614" s="15"/>
       <c r="L614" s="9"/>
     </row>
-    <row r="615" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="12">
         <v>1905</v>
       </c>
@@ -28549,7 +28550,7 @@
       <c r="K615" s="15"/>
       <c r="L615" s="9"/>
     </row>
-    <row r="616" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="12">
         <v>1906</v>
       </c>
@@ -28577,7 +28578,7 @@
       <c r="K616" s="15"/>
       <c r="L616" s="9"/>
     </row>
-    <row r="617" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="12">
         <v>1907</v>
       </c>
@@ -28605,7 +28606,7 @@
       <c r="K617" s="15"/>
       <c r="L617" s="9"/>
     </row>
-    <row r="618" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="12">
         <v>1908</v>
       </c>
@@ -28634,6 +28635,7 @@
       <c r="L618" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O1" xr:uid="{3DDD6B5C-CAB7-4E5A-9A83-AB3221945E1E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K618">
     <sortCondition ref="A2:A618"/>
   </sortState>

--- a/FORWARDED FOR PRINTING PURPOSE.xlsx
+++ b/FORWARDED FOR PRINTING PURPOSE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\bashir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4062CF-7CE1-4F50-8C1B-296D1EEB83F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD49295-ABC6-45B6-80A6-A99771475381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5754EDB6-AC50-44B2-8BB6-BD21556617BD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5507" uniqueCount="2353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5332" uniqueCount="2352">
   <si>
     <t>SR</t>
   </si>
@@ -7083,9 +7083,6 @@
   </si>
   <si>
     <t>03339686228</t>
-  </si>
-  <si>
-    <t>VERIFIED</t>
   </si>
   <si>
     <t>IMRAN</t>
@@ -7545,8 +7542,8 @@
   <dimension ref="A1:O618"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B2:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7570,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -8180,9 +8177,7 @@
       <c r="A16" s="12">
         <v>1306</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
         <v>265</v>
       </c>
@@ -13160,9 +13155,7 @@
       <c r="A163" s="12">
         <v>1453</v>
       </c>
-      <c r="B163" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B163" s="12"/>
       <c r="C163" s="13" t="s">
         <v>663</v>
       </c>
@@ -13196,9 +13189,7 @@
       <c r="A164" s="12">
         <v>1454</v>
       </c>
-      <c r="B164" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B164" s="12"/>
       <c r="C164" s="13" t="s">
         <v>665</v>
       </c>
@@ -13232,9 +13223,7 @@
       <c r="A165" s="12">
         <v>1455</v>
       </c>
-      <c r="B165" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B165" s="12"/>
       <c r="C165" s="13" t="s">
         <v>667</v>
       </c>
@@ -13268,9 +13257,7 @@
       <c r="A166" s="12">
         <v>1456</v>
       </c>
-      <c r="B166" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B166" s="12"/>
       <c r="C166" s="13" t="s">
         <v>669</v>
       </c>
@@ -13304,9 +13291,7 @@
       <c r="A167" s="12">
         <v>1457</v>
       </c>
-      <c r="B167" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B167" s="12"/>
       <c r="C167" s="13" t="s">
         <v>670</v>
       </c>
@@ -13340,9 +13325,7 @@
       <c r="A168" s="12">
         <v>1458</v>
       </c>
-      <c r="B168" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B168" s="12"/>
       <c r="C168" s="13" t="s">
         <v>672</v>
       </c>
@@ -13376,9 +13359,7 @@
       <c r="A169" s="12">
         <v>1459</v>
       </c>
-      <c r="B169" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B169" s="12"/>
       <c r="C169" s="13" t="s">
         <v>674</v>
       </c>
@@ -13412,9 +13393,7 @@
       <c r="A170" s="12">
         <v>1460</v>
       </c>
-      <c r="B170" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B170" s="12"/>
       <c r="C170" s="13" t="s">
         <v>676</v>
       </c>
@@ -13448,9 +13427,7 @@
       <c r="A171" s="12">
         <v>1461</v>
       </c>
-      <c r="B171" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B171" s="12"/>
       <c r="C171" s="13" t="s">
         <v>677</v>
       </c>
@@ -13484,9 +13461,7 @@
       <c r="A172" s="12">
         <v>1462</v>
       </c>
-      <c r="B172" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B172" s="12"/>
       <c r="C172" s="13" t="s">
         <v>679</v>
       </c>
@@ -13520,9 +13495,7 @@
       <c r="A173" s="12">
         <v>1463</v>
       </c>
-      <c r="B173" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B173" s="12"/>
       <c r="C173" s="13" t="s">
         <v>680</v>
       </c>
@@ -13556,9 +13529,7 @@
       <c r="A174" s="12">
         <v>1464</v>
       </c>
-      <c r="B174" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B174" s="12"/>
       <c r="C174" s="13" t="s">
         <v>682</v>
       </c>
@@ -13592,9 +13563,7 @@
       <c r="A175" s="12">
         <v>1465</v>
       </c>
-      <c r="B175" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B175" s="12"/>
       <c r="C175" s="13" t="s">
         <v>683</v>
       </c>
@@ -13628,9 +13597,7 @@
       <c r="A176" s="12">
         <v>1466</v>
       </c>
-      <c r="B176" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B176" s="12"/>
       <c r="C176" s="13" t="s">
         <v>685</v>
       </c>
@@ -13664,9 +13631,7 @@
       <c r="A177" s="12">
         <v>1467</v>
       </c>
-      <c r="B177" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B177" s="12"/>
       <c r="C177" s="13" t="s">
         <v>687</v>
       </c>
@@ -13700,9 +13665,7 @@
       <c r="A178" s="12">
         <v>1468</v>
       </c>
-      <c r="B178" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B178" s="12"/>
       <c r="C178" s="13" t="s">
         <v>689</v>
       </c>
@@ -13736,9 +13699,7 @@
       <c r="A179" s="12">
         <v>1469</v>
       </c>
-      <c r="B179" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B179" s="12"/>
       <c r="C179" s="13" t="s">
         <v>691</v>
       </c>
@@ -13772,9 +13733,7 @@
       <c r="A180" s="12">
         <v>1470</v>
       </c>
-      <c r="B180" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B180" s="12"/>
       <c r="C180" s="13" t="s">
         <v>693</v>
       </c>
@@ -13808,9 +13767,7 @@
       <c r="A181" s="12">
         <v>1471</v>
       </c>
-      <c r="B181" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B181" s="12"/>
       <c r="C181" s="13" t="s">
         <v>695</v>
       </c>
@@ -13844,9 +13801,7 @@
       <c r="A182" s="12">
         <v>1472</v>
       </c>
-      <c r="B182" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B182" s="12"/>
       <c r="C182" s="13" t="s">
         <v>697</v>
       </c>
@@ -13880,9 +13835,7 @@
       <c r="A183" s="12">
         <v>1473</v>
       </c>
-      <c r="B183" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B183" s="12"/>
       <c r="C183" s="13" t="s">
         <v>699</v>
       </c>
@@ -13916,9 +13869,7 @@
       <c r="A184" s="12">
         <v>1474</v>
       </c>
-      <c r="B184" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B184" s="12"/>
       <c r="C184" s="13" t="s">
         <v>700</v>
       </c>
@@ -13952,9 +13903,7 @@
       <c r="A185" s="12">
         <v>1475</v>
       </c>
-      <c r="B185" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B185" s="12"/>
       <c r="C185" s="13" t="s">
         <v>702</v>
       </c>
@@ -14016,9 +13965,7 @@
       <c r="A187" s="12">
         <v>1477</v>
       </c>
-      <c r="B187" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B187" s="12"/>
       <c r="C187" s="13" t="s">
         <v>705</v>
       </c>
@@ -14392,9 +14339,7 @@
       <c r="A198" s="12">
         <v>1488</v>
       </c>
-      <c r="B198" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B198" s="12"/>
       <c r="C198" s="13" t="s">
         <v>427</v>
       </c>
@@ -14456,9 +14401,7 @@
       <c r="A200" s="12">
         <v>1490</v>
       </c>
-      <c r="B200" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B200" s="12"/>
       <c r="C200" s="13" t="s">
         <v>431</v>
       </c>
@@ -14526,9 +14469,7 @@
       <c r="A202" s="12">
         <v>1492</v>
       </c>
-      <c r="B202" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B202" s="12"/>
       <c r="C202" s="13" t="s">
         <v>435</v>
       </c>
@@ -14562,9 +14503,7 @@
       <c r="A203" s="12">
         <v>1493</v>
       </c>
-      <c r="B203" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B203" s="12"/>
       <c r="C203" s="13" t="s">
         <v>437</v>
       </c>
@@ -14596,9 +14535,7 @@
       <c r="A204" s="12">
         <v>1494</v>
       </c>
-      <c r="B204" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B204" s="12"/>
       <c r="C204" s="13" t="s">
         <v>439</v>
       </c>
@@ -14632,9 +14569,7 @@
       <c r="A205" s="12">
         <v>1495</v>
       </c>
-      <c r="B205" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B205" s="12"/>
       <c r="C205" s="13" t="s">
         <v>441</v>
       </c>
@@ -14668,9 +14603,7 @@
       <c r="A206" s="12">
         <v>1496</v>
       </c>
-      <c r="B206" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B206" s="12"/>
       <c r="C206" s="13" t="s">
         <v>442</v>
       </c>
@@ -14704,9 +14637,7 @@
       <c r="A207" s="12">
         <v>1497</v>
       </c>
-      <c r="B207" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B207" s="12"/>
       <c r="C207" s="13" t="s">
         <v>444</v>
       </c>
@@ -14774,9 +14705,7 @@
       <c r="A209" s="12">
         <v>1499</v>
       </c>
-      <c r="B209" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B209" s="12"/>
       <c r="C209" s="13" t="s">
         <v>448</v>
       </c>
@@ -14810,9 +14739,7 @@
       <c r="A210" s="12">
         <v>1500</v>
       </c>
-      <c r="B210" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B210" s="12"/>
       <c r="C210" s="13" t="s">
         <v>450</v>
       </c>
@@ -14846,9 +14773,7 @@
       <c r="A211" s="12">
         <v>1501</v>
       </c>
-      <c r="B211" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B211" s="12"/>
       <c r="C211" s="13" t="s">
         <v>451</v>
       </c>
@@ -14882,9 +14807,7 @@
       <c r="A212" s="12">
         <v>1502</v>
       </c>
-      <c r="B212" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B212" s="12"/>
       <c r="C212" s="13" t="s">
         <v>453</v>
       </c>
@@ -14918,9 +14841,7 @@
       <c r="A213" s="12">
         <v>1503</v>
       </c>
-      <c r="B213" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B213" s="12"/>
       <c r="C213" s="13" t="s">
         <v>455</v>
       </c>
@@ -14954,9 +14875,7 @@
       <c r="A214" s="12">
         <v>1504</v>
       </c>
-      <c r="B214" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B214" s="12"/>
       <c r="C214" s="13" t="s">
         <v>457</v>
       </c>
@@ -14990,9 +14909,7 @@
       <c r="A215" s="12">
         <v>1505</v>
       </c>
-      <c r="B215" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B215" s="12"/>
       <c r="C215" s="13" t="s">
         <v>459</v>
       </c>
@@ -15060,9 +14977,7 @@
       <c r="A217" s="12">
         <v>1507</v>
       </c>
-      <c r="B217" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B217" s="12"/>
       <c r="C217" s="13" t="s">
         <v>463</v>
       </c>
@@ -15096,9 +15011,7 @@
       <c r="A218" s="12">
         <v>1508</v>
       </c>
-      <c r="B218" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B218" s="12"/>
       <c r="C218" s="13" t="s">
         <v>465</v>
       </c>
@@ -15160,9 +15073,7 @@
       <c r="A220" s="12">
         <v>1510</v>
       </c>
-      <c r="B220" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B220" s="12"/>
       <c r="C220" s="13" t="s">
         <v>469</v>
       </c>
@@ -15230,9 +15141,7 @@
       <c r="A222" s="12">
         <v>1512</v>
       </c>
-      <c r="B222" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B222" s="12"/>
       <c r="C222" s="13" t="s">
         <v>473</v>
       </c>
@@ -15266,9 +15175,7 @@
       <c r="A223" s="12">
         <v>1513</v>
       </c>
-      <c r="B223" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B223" s="12"/>
       <c r="C223" s="13" t="s">
         <v>475</v>
       </c>
@@ -15302,9 +15209,7 @@
       <c r="A224" s="12">
         <v>1514</v>
       </c>
-      <c r="B224" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B224" s="12"/>
       <c r="C224" s="13" t="s">
         <v>476</v>
       </c>
@@ -15372,9 +15277,7 @@
       <c r="A226" s="12">
         <v>1516</v>
       </c>
-      <c r="B226" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B226" s="12"/>
       <c r="C226" s="13" t="s">
         <v>480</v>
       </c>
@@ -15408,9 +15311,7 @@
       <c r="A227" s="12">
         <v>1517</v>
       </c>
-      <c r="B227" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B227" s="12"/>
       <c r="C227" s="13" t="s">
         <v>482</v>
       </c>
@@ -15444,9 +15345,7 @@
       <c r="A228" s="12">
         <v>1518</v>
       </c>
-      <c r="B228" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B228" s="12"/>
       <c r="C228" s="13" t="s">
         <v>484</v>
       </c>
@@ -15514,9 +15413,7 @@
       <c r="A230" s="12">
         <v>1520</v>
       </c>
-      <c r="B230" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B230" s="12"/>
       <c r="C230" s="13" t="s">
         <v>487</v>
       </c>
@@ -15550,9 +15447,7 @@
       <c r="A231" s="12">
         <v>1521</v>
       </c>
-      <c r="B231" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B231" s="12"/>
       <c r="C231" s="13" t="s">
         <v>489</v>
       </c>
@@ -15586,9 +15481,7 @@
       <c r="A232" s="12">
         <v>1522</v>
       </c>
-      <c r="B232" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B232" s="12"/>
       <c r="C232" s="13" t="s">
         <v>491</v>
       </c>
@@ -15622,9 +15515,7 @@
       <c r="A233" s="12">
         <v>1523</v>
       </c>
-      <c r="B233" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B233" s="12"/>
       <c r="C233" s="13" t="s">
         <v>493</v>
       </c>
@@ -15658,9 +15549,7 @@
       <c r="A234" s="12">
         <v>1524</v>
       </c>
-      <c r="B234" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B234" s="12"/>
       <c r="C234" s="13" t="s">
         <v>495</v>
       </c>
@@ -15694,9 +15583,7 @@
       <c r="A235" s="12">
         <v>1525</v>
       </c>
-      <c r="B235" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B235" s="12"/>
       <c r="C235" s="13" t="s">
         <v>497</v>
       </c>
@@ -15798,9 +15685,7 @@
       <c r="A238" s="12">
         <v>1528</v>
       </c>
-      <c r="B238" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B238" s="12"/>
       <c r="C238" s="13" t="s">
         <v>502</v>
       </c>
@@ -15834,9 +15719,7 @@
       <c r="A239" s="12">
         <v>1529</v>
       </c>
-      <c r="B239" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B239" s="12"/>
       <c r="C239" s="13" t="s">
         <v>504</v>
       </c>
@@ -15870,9 +15753,7 @@
       <c r="A240" s="12">
         <v>1530</v>
       </c>
-      <c r="B240" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B240" s="12"/>
       <c r="C240" s="13" t="s">
         <v>506</v>
       </c>
@@ -15940,9 +15821,7 @@
       <c r="A242" s="12">
         <v>1532</v>
       </c>
-      <c r="B242" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B242" s="12"/>
       <c r="C242" s="13" t="s">
         <v>510</v>
       </c>
@@ -16008,9 +15887,7 @@
       <c r="A244" s="12">
         <v>1534</v>
       </c>
-      <c r="B244" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B244" s="12"/>
       <c r="C244" s="13" t="s">
         <v>514</v>
       </c>
@@ -16104,9 +15981,7 @@
       <c r="A247" s="12">
         <v>1537</v>
       </c>
-      <c r="B247" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B247" s="12"/>
       <c r="C247" s="13" t="s">
         <v>520</v>
       </c>
@@ -16140,9 +16015,7 @@
       <c r="A248" s="12">
         <v>1538</v>
       </c>
-      <c r="B248" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B248" s="12"/>
       <c r="C248" s="13" t="s">
         <v>522</v>
       </c>
@@ -16176,9 +16049,7 @@
       <c r="A249" s="12">
         <v>1539</v>
       </c>
-      <c r="B249" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B249" s="12"/>
       <c r="C249" s="13" t="s">
         <v>524</v>
       </c>
@@ -16210,9 +16081,7 @@
       <c r="A250" s="12">
         <v>1540</v>
       </c>
-      <c r="B250" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B250" s="12"/>
       <c r="C250" s="13" t="s">
         <v>526</v>
       </c>
@@ -16246,9 +16115,7 @@
       <c r="A251" s="12">
         <v>1541</v>
       </c>
-      <c r="B251" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B251" s="12"/>
       <c r="C251" s="13" t="s">
         <v>528</v>
       </c>
@@ -16282,9 +16149,7 @@
       <c r="A252" s="12">
         <v>1542</v>
       </c>
-      <c r="B252" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B252" s="12"/>
       <c r="C252" s="13" t="s">
         <v>530</v>
       </c>
@@ -16318,9 +16183,7 @@
       <c r="A253" s="12">
         <v>1543</v>
       </c>
-      <c r="B253" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B253" s="12"/>
       <c r="C253" s="13" t="s">
         <v>532</v>
       </c>
@@ -16354,9 +16217,7 @@
       <c r="A254" s="12">
         <v>1544</v>
       </c>
-      <c r="B254" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B254" s="12"/>
       <c r="C254" s="13" t="s">
         <v>534</v>
       </c>
@@ -16424,9 +16285,7 @@
       <c r="A256" s="12">
         <v>1546</v>
       </c>
-      <c r="B256" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B256" s="12"/>
       <c r="C256" s="13" t="s">
         <v>538</v>
       </c>
@@ -16460,9 +16319,7 @@
       <c r="A257" s="12">
         <v>1547</v>
       </c>
-      <c r="B257" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B257" s="12"/>
       <c r="C257" s="13" t="s">
         <v>540</v>
       </c>
@@ -16496,9 +16353,7 @@
       <c r="A258" s="12">
         <v>1548</v>
       </c>
-      <c r="B258" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B258" s="12"/>
       <c r="C258" s="13" t="s">
         <v>542</v>
       </c>
@@ -16532,9 +16387,7 @@
       <c r="A259" s="12">
         <v>1549</v>
       </c>
-      <c r="B259" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B259" s="12"/>
       <c r="C259" s="13" t="s">
         <v>543</v>
       </c>
@@ -16568,9 +16421,7 @@
       <c r="A260" s="12">
         <v>1550</v>
       </c>
-      <c r="B260" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B260" s="12"/>
       <c r="C260" s="13" t="s">
         <v>545</v>
       </c>
@@ -16604,9 +16455,7 @@
       <c r="A261" s="12">
         <v>1551</v>
       </c>
-      <c r="B261" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B261" s="12"/>
       <c r="C261" s="13" t="s">
         <v>547</v>
       </c>
@@ -16640,9 +16489,7 @@
       <c r="A262" s="12">
         <v>1552</v>
       </c>
-      <c r="B262" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B262" s="12"/>
       <c r="C262" s="13" t="s">
         <v>549</v>
       </c>
@@ -16676,9 +16523,7 @@
       <c r="A263" s="12">
         <v>1553</v>
       </c>
-      <c r="B263" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B263" s="12"/>
       <c r="C263" s="13" t="s">
         <v>550</v>
       </c>
@@ -16712,9 +16557,7 @@
       <c r="A264" s="12">
         <v>1554</v>
       </c>
-      <c r="B264" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B264" s="12"/>
       <c r="C264" s="13" t="s">
         <v>552</v>
       </c>
@@ -16748,9 +16591,7 @@
       <c r="A265" s="12">
         <v>1555</v>
       </c>
-      <c r="B265" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B265" s="12"/>
       <c r="C265" s="13" t="s">
         <v>554</v>
       </c>
@@ -16784,9 +16625,7 @@
       <c r="A266" s="12">
         <v>1556</v>
       </c>
-      <c r="B266" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B266" s="12"/>
       <c r="C266" s="13" t="s">
         <v>556</v>
       </c>
@@ -16820,9 +16659,7 @@
       <c r="A267" s="12">
         <v>1557</v>
       </c>
-      <c r="B267" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B267" s="12"/>
       <c r="C267" s="13" t="s">
         <v>558</v>
       </c>
@@ -16856,9 +16693,7 @@
       <c r="A268" s="12">
         <v>1558</v>
       </c>
-      <c r="B268" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B268" s="12"/>
       <c r="C268" s="13" t="s">
         <v>560</v>
       </c>
@@ -16926,9 +16761,7 @@
       <c r="A270" s="12">
         <v>1560</v>
       </c>
-      <c r="B270" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B270" s="12"/>
       <c r="C270" s="13" t="s">
         <v>564</v>
       </c>
@@ -17024,9 +16857,7 @@
       <c r="A273" s="12">
         <v>1563</v>
       </c>
-      <c r="B273" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B273" s="12"/>
       <c r="C273" s="13" t="s">
         <v>570</v>
       </c>
@@ -17094,9 +16925,7 @@
       <c r="A275" s="12">
         <v>1565</v>
       </c>
-      <c r="B275" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B275" s="12"/>
       <c r="C275" s="13" t="s">
         <v>574</v>
       </c>
@@ -17130,9 +16959,7 @@
       <c r="A276" s="12">
         <v>1566</v>
       </c>
-      <c r="B276" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B276" s="12"/>
       <c r="C276" s="13" t="s">
         <v>576</v>
       </c>
@@ -17166,9 +16993,7 @@
       <c r="A277" s="12">
         <v>1567</v>
       </c>
-      <c r="B277" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B277" s="12"/>
       <c r="C277" s="13" t="s">
         <v>578</v>
       </c>
@@ -17202,9 +17027,7 @@
       <c r="A278" s="12">
         <v>1568</v>
       </c>
-      <c r="B278" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B278" s="12"/>
       <c r="C278" s="13" t="s">
         <v>579</v>
       </c>
@@ -17272,9 +17095,7 @@
       <c r="A280" s="12">
         <v>1570</v>
       </c>
-      <c r="B280" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B280" s="12"/>
       <c r="C280" s="13" t="s">
         <v>583</v>
       </c>
@@ -17308,9 +17129,7 @@
       <c r="A281" s="12">
         <v>1571</v>
       </c>
-      <c r="B281" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B281" s="12"/>
       <c r="C281" s="13" t="s">
         <v>585</v>
       </c>
@@ -17344,9 +17163,7 @@
       <c r="A282" s="12">
         <v>1572</v>
       </c>
-      <c r="B282" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B282" s="12"/>
       <c r="C282" s="13" t="s">
         <v>587</v>
       </c>
@@ -17380,9 +17197,7 @@
       <c r="A283" s="12">
         <v>1573</v>
       </c>
-      <c r="B283" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B283" s="12"/>
       <c r="C283" s="13" t="s">
         <v>589</v>
       </c>
@@ -17416,9 +17231,7 @@
       <c r="A284" s="12">
         <v>1574</v>
       </c>
-      <c r="B284" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B284" s="12"/>
       <c r="C284" s="13" t="s">
         <v>591</v>
       </c>
@@ -17452,9 +17265,7 @@
       <c r="A285" s="12">
         <v>1575</v>
       </c>
-      <c r="B285" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B285" s="12"/>
       <c r="C285" s="13" t="s">
         <v>592</v>
       </c>
@@ -17488,9 +17299,7 @@
       <c r="A286" s="12">
         <v>1576</v>
       </c>
-      <c r="B286" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B286" s="12"/>
       <c r="C286" s="13" t="s">
         <v>593</v>
       </c>
@@ -17524,9 +17333,7 @@
       <c r="A287" s="12">
         <v>1577</v>
       </c>
-      <c r="B287" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B287" s="12"/>
       <c r="C287" s="13" t="s">
         <v>595</v>
       </c>
@@ -17560,9 +17367,7 @@
       <c r="A288" s="12">
         <v>1578</v>
       </c>
-      <c r="B288" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B288" s="12"/>
       <c r="C288" s="13" t="s">
         <v>597</v>
       </c>
@@ -17596,9 +17401,7 @@
       <c r="A289" s="12">
         <v>1579</v>
       </c>
-      <c r="B289" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B289" s="12"/>
       <c r="C289" s="13" t="s">
         <v>599</v>
       </c>
@@ -17632,9 +17435,7 @@
       <c r="A290" s="12">
         <v>1580</v>
       </c>
-      <c r="B290" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B290" s="12"/>
       <c r="C290" s="13" t="s">
         <v>601</v>
       </c>
@@ -17668,9 +17469,7 @@
       <c r="A291" s="12">
         <v>1581</v>
       </c>
-      <c r="B291" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B291" s="12"/>
       <c r="C291" s="13" t="s">
         <v>602</v>
       </c>
@@ -17704,9 +17503,7 @@
       <c r="A292" s="12">
         <v>1582</v>
       </c>
-      <c r="B292" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B292" s="12"/>
       <c r="C292" s="13" t="s">
         <v>603</v>
       </c>
@@ -17740,9 +17537,7 @@
       <c r="A293" s="12">
         <v>1583</v>
       </c>
-      <c r="B293" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B293" s="12"/>
       <c r="C293" s="13" t="s">
         <v>604</v>
       </c>
@@ -17776,9 +17571,7 @@
       <c r="A294" s="12">
         <v>1584</v>
       </c>
-      <c r="B294" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B294" s="12"/>
       <c r="C294" s="13" t="s">
         <v>605</v>
       </c>
@@ -17846,9 +17639,7 @@
       <c r="A296" s="12">
         <v>1586</v>
       </c>
-      <c r="B296" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B296" s="12"/>
       <c r="C296" s="13" t="s">
         <v>609</v>
       </c>
@@ -17882,9 +17673,7 @@
       <c r="A297" s="12">
         <v>1587</v>
       </c>
-      <c r="B297" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B297" s="12"/>
       <c r="C297" s="13" t="s">
         <v>610</v>
       </c>
@@ -17952,9 +17741,7 @@
       <c r="A299" s="12">
         <v>1589</v>
       </c>
-      <c r="B299" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B299" s="12"/>
       <c r="C299" s="13" t="s">
         <v>614</v>
       </c>
@@ -18022,9 +17809,7 @@
       <c r="A301" s="12">
         <v>1591</v>
       </c>
-      <c r="B301" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B301" s="12"/>
       <c r="C301" s="13" t="s">
         <v>618</v>
       </c>
@@ -18058,9 +17843,7 @@
       <c r="A302" s="12">
         <v>1592</v>
       </c>
-      <c r="B302" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B302" s="12"/>
       <c r="C302" s="13" t="s">
         <v>620</v>
       </c>
@@ -18094,9 +17877,7 @@
       <c r="A303" s="12">
         <v>1593</v>
       </c>
-      <c r="B303" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B303" s="12"/>
       <c r="C303" s="13" t="s">
         <v>622</v>
       </c>
@@ -18130,9 +17911,7 @@
       <c r="A304" s="12">
         <v>1594</v>
       </c>
-      <c r="B304" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B304" s="12"/>
       <c r="C304" s="13" t="s">
         <v>624</v>
       </c>
@@ -18166,9 +17945,7 @@
       <c r="A305" s="12">
         <v>1595</v>
       </c>
-      <c r="B305" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B305" s="12"/>
       <c r="C305" s="13" t="s">
         <v>626</v>
       </c>
@@ -18202,9 +17979,7 @@
       <c r="A306" s="12">
         <v>1596</v>
       </c>
-      <c r="B306" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B306" s="12"/>
       <c r="C306" s="13" t="s">
         <v>627</v>
       </c>
@@ -18238,9 +18013,7 @@
       <c r="A307" s="12">
         <v>1597</v>
       </c>
-      <c r="B307" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B307" s="12"/>
       <c r="C307" s="13" t="s">
         <v>629</v>
       </c>
@@ -18308,9 +18081,7 @@
       <c r="A309" s="12">
         <v>1599</v>
       </c>
-      <c r="B309" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B309" s="12"/>
       <c r="C309" s="13" t="s">
         <v>633</v>
       </c>
@@ -18650,9 +18421,7 @@
       <c r="A319" s="12">
         <v>1609</v>
       </c>
-      <c r="B319" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B319" s="12"/>
       <c r="C319" s="13" t="s">
         <v>653</v>
       </c>
@@ -18814,9 +18583,7 @@
       <c r="A324" s="12">
         <v>1614</v>
       </c>
-      <c r="B324" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B324" s="12"/>
       <c r="C324" s="13" t="s">
         <v>662</v>
       </c>
@@ -19530,9 +19297,7 @@
       <c r="A345" s="12">
         <v>1635</v>
       </c>
-      <c r="B345" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B345" s="12"/>
       <c r="C345" s="13" t="s">
         <v>763</v>
       </c>
@@ -19566,9 +19331,7 @@
       <c r="A346" s="12">
         <v>1636</v>
       </c>
-      <c r="B346" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B346" s="12"/>
       <c r="C346" s="13" t="s">
         <v>765</v>
       </c>
@@ -19602,9 +19365,7 @@
       <c r="A347" s="12">
         <v>1637</v>
       </c>
-      <c r="B347" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B347" s="12"/>
       <c r="C347" s="13" t="s">
         <v>767</v>
       </c>
@@ -19638,9 +19399,7 @@
       <c r="A348" s="12">
         <v>1638</v>
       </c>
-      <c r="B348" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B348" s="12"/>
       <c r="C348" s="13" t="s">
         <v>769</v>
       </c>
@@ -19674,9 +19433,7 @@
       <c r="A349" s="12">
         <v>1639</v>
       </c>
-      <c r="B349" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B349" s="12"/>
       <c r="C349" s="13" t="s">
         <v>771</v>
       </c>
@@ -19710,9 +19467,7 @@
       <c r="A350" s="12">
         <v>1640</v>
       </c>
-      <c r="B350" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B350" s="12"/>
       <c r="C350" s="13" t="s">
         <v>773</v>
       </c>
@@ -19746,9 +19501,7 @@
       <c r="A351" s="12">
         <v>1641</v>
       </c>
-      <c r="B351" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B351" s="12"/>
       <c r="C351" s="13" t="s">
         <v>775</v>
       </c>
@@ -19782,9 +19535,7 @@
       <c r="A352" s="12">
         <v>1642</v>
       </c>
-      <c r="B352" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B352" s="12"/>
       <c r="C352" s="13" t="s">
         <v>777</v>
       </c>
@@ -19818,9 +19569,7 @@
       <c r="A353" s="12">
         <v>1643</v>
       </c>
-      <c r="B353" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B353" s="12"/>
       <c r="C353" s="13" t="s">
         <v>779</v>
       </c>
@@ -19854,9 +19603,7 @@
       <c r="A354" s="12">
         <v>1644</v>
       </c>
-      <c r="B354" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B354" s="12"/>
       <c r="C354" s="13" t="s">
         <v>781</v>
       </c>
@@ -19890,9 +19637,7 @@
       <c r="A355" s="12">
         <v>1645</v>
       </c>
-      <c r="B355" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B355" s="12"/>
       <c r="C355" s="13" t="s">
         <v>783</v>
       </c>
@@ -19926,9 +19671,7 @@
       <c r="A356" s="12">
         <v>1646</v>
       </c>
-      <c r="B356" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B356" s="12"/>
       <c r="C356" s="13" t="s">
         <v>785</v>
       </c>
@@ -19962,9 +19705,7 @@
       <c r="A357" s="12">
         <v>1647</v>
       </c>
-      <c r="B357" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B357" s="12"/>
       <c r="C357" s="13" t="s">
         <v>787</v>
       </c>
@@ -19998,9 +19739,7 @@
       <c r="A358" s="12">
         <v>1648</v>
       </c>
-      <c r="B358" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B358" s="12"/>
       <c r="C358" s="13" t="s">
         <v>789</v>
       </c>
@@ -20062,9 +19801,7 @@
       <c r="A360" s="12">
         <v>1650</v>
       </c>
-      <c r="B360" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B360" s="12"/>
       <c r="C360" s="13" t="s">
         <v>793</v>
       </c>
@@ -20098,9 +19835,7 @@
       <c r="A361" s="12">
         <v>1651</v>
       </c>
-      <c r="B361" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B361" s="12"/>
       <c r="C361" s="13" t="s">
         <v>795</v>
       </c>
@@ -20134,9 +19869,7 @@
       <c r="A362" s="12">
         <v>1652</v>
       </c>
-      <c r="B362" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B362" s="12"/>
       <c r="C362" s="13" t="s">
         <v>797</v>
       </c>
@@ -20170,9 +19903,7 @@
       <c r="A363" s="12">
         <v>1653</v>
       </c>
-      <c r="B363" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B363" s="12"/>
       <c r="C363" s="13" t="s">
         <v>799</v>
       </c>
@@ -20206,9 +19937,7 @@
       <c r="A364" s="12">
         <v>1654</v>
       </c>
-      <c r="B364" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B364" s="12"/>
       <c r="C364" s="13" t="s">
         <v>801</v>
       </c>
@@ -20242,9 +19971,7 @@
       <c r="A365" s="12">
         <v>1655</v>
       </c>
-      <c r="B365" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B365" s="12"/>
       <c r="C365" s="13" t="s">
         <v>803</v>
       </c>
@@ -20278,9 +20005,7 @@
       <c r="A366" s="12">
         <v>1656</v>
       </c>
-      <c r="B366" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B366" s="12"/>
       <c r="C366" s="13" t="s">
         <v>805</v>
       </c>
@@ -20314,9 +20039,7 @@
       <c r="A367" s="12">
         <v>1657</v>
       </c>
-      <c r="B367" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B367" s="12"/>
       <c r="C367" s="13" t="s">
         <v>806</v>
       </c>
@@ -20350,9 +20073,7 @@
       <c r="A368" s="12">
         <v>1658</v>
       </c>
-      <c r="B368" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B368" s="12"/>
       <c r="C368" s="13" t="s">
         <v>808</v>
       </c>
@@ -20386,9 +20107,7 @@
       <c r="A369" s="12">
         <v>1659</v>
       </c>
-      <c r="B369" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B369" s="12"/>
       <c r="C369" s="13" t="s">
         <v>810</v>
       </c>
@@ -20422,9 +20141,7 @@
       <c r="A370" s="12">
         <v>1660</v>
       </c>
-      <c r="B370" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B370" s="12"/>
       <c r="C370" s="13" t="s">
         <v>812</v>
       </c>
@@ -20458,9 +20175,7 @@
       <c r="A371" s="12">
         <v>1661</v>
       </c>
-      <c r="B371" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B371" s="12"/>
       <c r="C371" s="13" t="s">
         <v>814</v>
       </c>
@@ -20494,9 +20209,7 @@
       <c r="A372" s="12">
         <v>1662</v>
       </c>
-      <c r="B372" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B372" s="12"/>
       <c r="C372" s="13" t="s">
         <v>815</v>
       </c>
@@ -20530,9 +20243,7 @@
       <c r="A373" s="12">
         <v>1663</v>
       </c>
-      <c r="B373" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B373" s="12"/>
       <c r="C373" s="13" t="s">
         <v>817</v>
       </c>
@@ -20566,9 +20277,7 @@
       <c r="A374" s="12">
         <v>1664</v>
       </c>
-      <c r="B374" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B374" s="12"/>
       <c r="C374" s="13" t="s">
         <v>819</v>
       </c>
@@ -20602,9 +20311,7 @@
       <c r="A375" s="12">
         <v>1665</v>
       </c>
-      <c r="B375" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B375" s="12"/>
       <c r="C375" s="13" t="s">
         <v>821</v>
       </c>
@@ -20672,9 +20379,7 @@
       <c r="A377" s="12">
         <v>1667</v>
       </c>
-      <c r="B377" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B377" s="12"/>
       <c r="C377" s="13" t="s">
         <v>824</v>
       </c>
@@ -20708,9 +20413,7 @@
       <c r="A378" s="12">
         <v>1668</v>
       </c>
-      <c r="B378" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B378" s="12"/>
       <c r="C378" s="13" t="s">
         <v>826</v>
       </c>
@@ -20744,9 +20447,7 @@
       <c r="A379" s="12">
         <v>1669</v>
       </c>
-      <c r="B379" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B379" s="12"/>
       <c r="C379" s="13" t="s">
         <v>828</v>
       </c>
@@ -20780,9 +20481,7 @@
       <c r="A380" s="12">
         <v>1670</v>
       </c>
-      <c r="B380" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B380" s="12"/>
       <c r="C380" s="13" t="s">
         <v>830</v>
       </c>
@@ -23058,9 +22757,7 @@
       <c r="A447" s="12">
         <v>1737</v>
       </c>
-      <c r="B447" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B447" s="12"/>
       <c r="C447" s="13" t="s">
         <v>934</v>
       </c>
@@ -23094,9 +22791,7 @@
       <c r="A448" s="12">
         <v>1738</v>
       </c>
-      <c r="B448" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B448" s="12"/>
       <c r="C448" s="13" t="s">
         <v>936</v>
       </c>
@@ -23130,9 +22825,7 @@
       <c r="A449" s="12">
         <v>1739</v>
       </c>
-      <c r="B449" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B449" s="12"/>
       <c r="C449" s="13" t="s">
         <v>937</v>
       </c>
@@ -23166,9 +22859,7 @@
       <c r="A450" s="12">
         <v>1740</v>
       </c>
-      <c r="B450" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B450" s="12"/>
       <c r="C450" s="13" t="s">
         <v>939</v>
       </c>
@@ -23202,9 +22893,7 @@
       <c r="A451" s="12">
         <v>1741</v>
       </c>
-      <c r="B451" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B451" s="12"/>
       <c r="C451" s="13" t="s">
         <v>941</v>
       </c>
@@ -23238,9 +22927,7 @@
       <c r="A452" s="12">
         <v>1742</v>
       </c>
-      <c r="B452" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B452" s="12"/>
       <c r="C452" s="13" t="s">
         <v>943</v>
       </c>
@@ -23274,9 +22961,7 @@
       <c r="A453" s="12">
         <v>1743</v>
       </c>
-      <c r="B453" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B453" s="12"/>
       <c r="C453" s="13" t="s">
         <v>945</v>
       </c>
@@ -23310,9 +22995,7 @@
       <c r="A454" s="12">
         <v>1744</v>
       </c>
-      <c r="B454" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B454" s="12"/>
       <c r="C454" s="13" t="s">
         <v>947</v>
       </c>
@@ -23346,9 +23029,7 @@
       <c r="A455" s="12">
         <v>1745</v>
       </c>
-      <c r="B455" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B455" s="12"/>
       <c r="C455" s="13" t="s">
         <v>949</v>
       </c>
@@ -23382,9 +23063,7 @@
       <c r="A456" s="12">
         <v>1746</v>
       </c>
-      <c r="B456" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B456" s="12"/>
       <c r="C456" s="13" t="s">
         <v>951</v>
       </c>
@@ -23418,9 +23097,7 @@
       <c r="A457" s="12">
         <v>1747</v>
       </c>
-      <c r="B457" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B457" s="12"/>
       <c r="C457" s="13" t="s">
         <v>953</v>
       </c>
@@ -23454,9 +23131,7 @@
       <c r="A458" s="12">
         <v>1748</v>
       </c>
-      <c r="B458" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B458" s="12"/>
       <c r="C458" s="13" t="s">
         <v>955</v>
       </c>
@@ -23490,9 +23165,7 @@
       <c r="A459" s="12">
         <v>1749</v>
       </c>
-      <c r="B459" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B459" s="12"/>
       <c r="C459" s="13" t="s">
         <v>957</v>
       </c>
@@ -23526,9 +23199,7 @@
       <c r="A460" s="12">
         <v>1750</v>
       </c>
-      <c r="B460" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B460" s="12"/>
       <c r="C460" s="13" t="s">
         <v>959</v>
       </c>
@@ -23562,9 +23233,7 @@
       <c r="A461" s="12">
         <v>1751</v>
       </c>
-      <c r="B461" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B461" s="12"/>
       <c r="C461" s="13" t="s">
         <v>961</v>
       </c>
@@ -23598,9 +23267,7 @@
       <c r="A462" s="12">
         <v>1752</v>
       </c>
-      <c r="B462" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B462" s="12"/>
       <c r="C462" s="13" t="s">
         <v>962</v>
       </c>
@@ -23634,9 +23301,7 @@
       <c r="A463" s="12">
         <v>1753</v>
       </c>
-      <c r="B463" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B463" s="12"/>
       <c r="C463" s="13" t="s">
         <v>964</v>
       </c>
@@ -23670,9 +23335,7 @@
       <c r="A464" s="12">
         <v>1754</v>
       </c>
-      <c r="B464" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B464" s="12"/>
       <c r="C464" s="13" t="s">
         <v>966</v>
       </c>
@@ -23706,9 +23369,7 @@
       <c r="A465" s="12">
         <v>1755</v>
       </c>
-      <c r="B465" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B465" s="12"/>
       <c r="C465" s="13" t="s">
         <v>968</v>
       </c>
@@ -23742,9 +23403,7 @@
       <c r="A466" s="12">
         <v>1756</v>
       </c>
-      <c r="B466" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B466" s="12"/>
       <c r="C466" s="13" t="s">
         <v>970</v>
       </c>
@@ -23778,9 +23437,7 @@
       <c r="A467" s="12">
         <v>1757</v>
       </c>
-      <c r="B467" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B467" s="12"/>
       <c r="C467" s="13" t="s">
         <v>972</v>
       </c>
@@ -23814,9 +23471,7 @@
       <c r="A468" s="12">
         <v>1758</v>
       </c>
-      <c r="B468" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B468" s="12"/>
       <c r="C468" s="13" t="s">
         <v>974</v>
       </c>
@@ -23850,9 +23505,7 @@
       <c r="A469" s="12">
         <v>1759</v>
       </c>
-      <c r="B469" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B469" s="12"/>
       <c r="C469" s="13" t="s">
         <v>976</v>
       </c>
@@ -23886,9 +23539,7 @@
       <c r="A470" s="12">
         <v>1760</v>
       </c>
-      <c r="B470" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B470" s="12"/>
       <c r="C470" s="13" t="s">
         <v>978</v>
       </c>
@@ -23922,9 +23573,7 @@
       <c r="A471" s="12">
         <v>1761</v>
       </c>
-      <c r="B471" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B471" s="12"/>
       <c r="C471" s="13" t="s">
         <v>980</v>
       </c>
@@ -23958,9 +23607,7 @@
       <c r="A472" s="12">
         <v>1762</v>
       </c>
-      <c r="B472" s="12" t="s">
-        <v>2351</v>
-      </c>
+      <c r="B472" s="12"/>
       <c r="C472" s="13" t="s">
         <v>981</v>
       </c>
@@ -28635,7 +28282,6 @@
       <c r="L618" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{3DDD6B5C-CAB7-4E5A-9A83-AB3221945E1E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K618">
     <sortCondition ref="A2:A618"/>
   </sortState>

--- a/FORWARDED FOR PRINTING PURPOSE.xlsx
+++ b/FORWARDED FOR PRINTING PURPOSE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bashir102\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\bashir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B651DCC-F4E9-471F-87F6-C29CECCF148A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A93D97-AF8A-4094-BAB3-D69D6186DEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5754EDB6-AC50-44B2-8BB6-BD21556617BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5754EDB6-AC50-44B2-8BB6-BD21556617BD}"/>
   </bookViews>
   <sheets>
     <sheet name="7TH" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -7720,25 +7731,25 @@
   <dimension ref="A1:L621"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="38.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" customWidth="1"/>
+    <col min="1" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="38.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="11" max="12" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>2380</v>
       </c>
@@ -7776,7 +7787,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1292</v>
       </c>
@@ -7814,7 +7825,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1293</v>
       </c>
@@ -7852,7 +7863,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1294</v>
       </c>
@@ -7890,7 +7901,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1295</v>
       </c>
@@ -7928,7 +7939,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1296</v>
       </c>
@@ -7966,7 +7977,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1297</v>
       </c>
@@ -8004,7 +8015,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1298</v>
       </c>
@@ -8042,7 +8053,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1299</v>
       </c>
@@ -8080,7 +8091,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1300</v>
       </c>
@@ -8118,7 +8129,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1301</v>
       </c>
@@ -8156,7 +8167,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1302</v>
       </c>
@@ -8194,7 +8205,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1303</v>
       </c>
@@ -8232,7 +8243,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1304</v>
       </c>
@@ -8270,7 +8281,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1305</v>
       </c>
@@ -8308,7 +8319,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>1306</v>
       </c>
@@ -8346,7 +8357,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1307</v>
       </c>
@@ -8384,7 +8395,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>1308</v>
       </c>
@@ -8422,7 +8433,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>1309</v>
       </c>
@@ -8460,7 +8471,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>1310</v>
       </c>
@@ -8496,7 +8507,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>1311</v>
       </c>
@@ -8534,7 +8545,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>1312</v>
       </c>
@@ -8572,7 +8583,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>1313</v>
       </c>
@@ -8610,7 +8621,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>1314</v>
       </c>
@@ -8646,7 +8657,7 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>1315</v>
       </c>
@@ -8684,7 +8695,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>1316</v>
       </c>
@@ -8722,7 +8733,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>1317</v>
       </c>
@@ -8758,7 +8769,7 @@
       </c>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>1318</v>
       </c>
@@ -8796,7 +8807,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>1319</v>
       </c>
@@ -8834,7 +8845,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>1320</v>
       </c>
@@ -8870,7 +8881,7 @@
       </c>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>1321</v>
       </c>
@@ -8908,7 +8919,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>1322</v>
       </c>
@@ -8946,7 +8957,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>1323</v>
       </c>
@@ -8984,7 +8995,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>1324</v>
       </c>
@@ -9022,7 +9033,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>1325</v>
       </c>
@@ -9058,7 +9069,7 @@
       </c>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>1326</v>
       </c>
@@ -9096,7 +9107,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>1327</v>
       </c>
@@ -9134,7 +9145,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>1328</v>
       </c>
@@ -9172,7 +9183,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>1329</v>
       </c>
@@ -9210,7 +9221,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>1330</v>
       </c>
@@ -9248,7 +9259,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>1331</v>
       </c>
@@ -9286,7 +9297,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>1332</v>
       </c>
@@ -9324,7 +9335,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>1333</v>
       </c>
@@ -9360,7 +9371,7 @@
       </c>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>1334</v>
       </c>
@@ -9398,7 +9409,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>1335</v>
       </c>
@@ -9436,7 +9447,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>1336</v>
       </c>
@@ -9472,7 +9483,7 @@
       </c>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>1337</v>
       </c>
@@ -9510,7 +9521,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>1338</v>
       </c>
@@ -9548,7 +9559,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>1339</v>
       </c>
@@ -9586,7 +9597,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>1340</v>
       </c>
@@ -9624,7 +9635,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>1341</v>
       </c>
@@ -9662,7 +9673,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>1342</v>
       </c>
@@ -9700,7 +9711,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>1343</v>
       </c>
@@ -9738,7 +9749,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>1344</v>
       </c>
@@ -9776,7 +9787,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>1345</v>
       </c>
@@ -9814,7 +9825,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>1346</v>
       </c>
@@ -9852,7 +9863,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>1347</v>
       </c>
@@ -9890,7 +9901,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>1348</v>
       </c>
@@ -9928,7 +9939,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>1349</v>
       </c>
@@ -9964,7 +9975,7 @@
       </c>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>1350</v>
       </c>
@@ -10002,7 +10013,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>1351</v>
       </c>
@@ -10040,7 +10051,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>1352</v>
       </c>
@@ -10078,7 +10089,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>1353</v>
       </c>
@@ -10116,7 +10127,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>1354</v>
       </c>
@@ -10154,7 +10165,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>1355</v>
       </c>
@@ -10192,7 +10203,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>1356</v>
       </c>
@@ -10230,7 +10241,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>1357</v>
       </c>
@@ -10268,7 +10279,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>1358</v>
       </c>
@@ -10306,7 +10317,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>1359</v>
       </c>
@@ -10344,7 +10355,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>1360</v>
       </c>
@@ -10382,7 +10393,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>1361</v>
       </c>
@@ -10420,7 +10431,7 @@
         <v>3137694661</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>1362</v>
       </c>
@@ -10458,7 +10469,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>1363</v>
       </c>
@@ -10496,7 +10507,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>1364</v>
       </c>
@@ -10534,7 +10545,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>1365</v>
       </c>
@@ -10572,7 +10583,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>1366</v>
       </c>
@@ -10610,7 +10621,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>1367</v>
       </c>
@@ -10648,7 +10659,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>1368</v>
       </c>
@@ -10686,7 +10697,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>1369</v>
       </c>
@@ -10724,7 +10735,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>1370</v>
       </c>
@@ -10762,7 +10773,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>1371</v>
       </c>
@@ -10800,7 +10811,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>1372</v>
       </c>
@@ -10838,7 +10849,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>1373</v>
       </c>
@@ -10876,7 +10887,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>1374</v>
       </c>
@@ -10914,7 +10925,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>1375</v>
       </c>
@@ -10952,7 +10963,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>1376</v>
       </c>
@@ -10990,7 +11001,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>1377</v>
       </c>
@@ -11028,7 +11039,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>1378</v>
       </c>
@@ -11066,7 +11077,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>1379</v>
       </c>
@@ -11104,7 +11115,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>1380</v>
       </c>
@@ -11142,7 +11153,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>1381</v>
       </c>
@@ -11180,7 +11191,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>1382</v>
       </c>
@@ -11218,7 +11229,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>1383</v>
       </c>
@@ -11256,7 +11267,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>1384</v>
       </c>
@@ -11294,7 +11305,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="95" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>1385</v>
       </c>
@@ -11332,7 +11343,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>1386</v>
       </c>
@@ -11370,7 +11381,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>1387</v>
       </c>
@@ -11408,7 +11419,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>1388</v>
       </c>
@@ -11446,7 +11457,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>1389</v>
       </c>
@@ -11484,7 +11495,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>1390</v>
       </c>
@@ -11522,7 +11533,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>1391</v>
       </c>
@@ -11560,7 +11571,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>1392</v>
       </c>
@@ -11598,7 +11609,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>1393</v>
       </c>
@@ -11636,7 +11647,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>1394</v>
       </c>
@@ -11672,7 +11683,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>1395</v>
       </c>
@@ -11710,7 +11721,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>1396</v>
       </c>
@@ -11748,7 +11759,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>1397</v>
       </c>
@@ -11786,7 +11797,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>1398</v>
       </c>
@@ -11816,7 +11827,7 @@
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
     </row>
-    <row r="109" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>1399</v>
       </c>
@@ -11854,7 +11865,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>1400</v>
       </c>
@@ -11892,7 +11903,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>1401</v>
       </c>
@@ -11930,7 +11941,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>1402</v>
       </c>
@@ -11968,7 +11979,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="113" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>1403</v>
       </c>
@@ -12006,7 +12017,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="114" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>1404</v>
       </c>
@@ -12044,7 +12055,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>1405</v>
       </c>
@@ -12082,7 +12093,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>1406</v>
       </c>
@@ -12120,7 +12131,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="117" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>1407</v>
       </c>
@@ -12158,7 +12169,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="118" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>1408</v>
       </c>
@@ -12196,7 +12207,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>1409</v>
       </c>
@@ -12234,7 +12245,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="120" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>1410</v>
       </c>
@@ -12270,7 +12281,7 @@
       </c>
       <c r="L120" s="6"/>
     </row>
-    <row r="121" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>1411</v>
       </c>
@@ -12308,7 +12319,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>1412</v>
       </c>
@@ -12346,7 +12357,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="123" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>1413</v>
       </c>
@@ -12384,7 +12395,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="124" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>1414</v>
       </c>
@@ -12422,7 +12433,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>1415</v>
       </c>
@@ -12460,7 +12471,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="126" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>1416</v>
       </c>
@@ -12498,7 +12509,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="127" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>1417</v>
       </c>
@@ -12536,7 +12547,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="128" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>1418</v>
       </c>
@@ -12574,7 +12585,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>1419</v>
       </c>
@@ -12612,7 +12623,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>1420</v>
       </c>
@@ -12650,7 +12661,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>1421</v>
       </c>
@@ -12688,7 +12699,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>1422</v>
       </c>
@@ -12726,7 +12737,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>1423</v>
       </c>
@@ -12764,7 +12775,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>1424</v>
       </c>
@@ -12802,7 +12813,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>1425</v>
       </c>
@@ -12832,7 +12843,7 @@
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
     </row>
-    <row r="136" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>1426</v>
       </c>
@@ -12870,7 +12881,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="137" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>1427</v>
       </c>
@@ -12908,7 +12919,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="138" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>1428</v>
       </c>
@@ -12946,7 +12957,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>1429</v>
       </c>
@@ -12984,7 +12995,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>1430</v>
       </c>
@@ -13022,7 +13033,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="141" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>1431</v>
       </c>
@@ -13060,7 +13071,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="142" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>1432</v>
       </c>
@@ -13098,7 +13109,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="143" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>1433</v>
       </c>
@@ -13136,7 +13147,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="144" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>1434</v>
       </c>
@@ -13174,7 +13185,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>1435</v>
       </c>
@@ -13212,7 +13223,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>1436</v>
       </c>
@@ -13250,7 +13261,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="147" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>1437</v>
       </c>
@@ -13288,7 +13299,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>1438</v>
       </c>
@@ -13326,7 +13337,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="149" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>1439</v>
       </c>
@@ -13364,7 +13375,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="150" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>1440</v>
       </c>
@@ -13402,7 +13413,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="151" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>1441</v>
       </c>
@@ -13440,7 +13451,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>1442</v>
       </c>
@@ -13478,7 +13489,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="153" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>1443</v>
       </c>
@@ -13516,7 +13527,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>1444</v>
       </c>
@@ -13554,7 +13565,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="155" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>1445</v>
       </c>
@@ -13592,7 +13603,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="156" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>1446</v>
       </c>
@@ -13630,7 +13641,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="157" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>1447</v>
       </c>
@@ -13668,7 +13679,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="158" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>1448</v>
       </c>
@@ -13706,7 +13717,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="159" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>1449</v>
       </c>
@@ -13744,7 +13755,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="160" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>1450</v>
       </c>
@@ -13782,7 +13793,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="161" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>1451</v>
       </c>
@@ -13818,7 +13829,7 @@
       </c>
       <c r="L161" s="6"/>
     </row>
-    <row r="162" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>1452</v>
       </c>
@@ -13856,7 +13867,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="163" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>1453</v>
       </c>
@@ -13892,7 +13903,7 @@
       </c>
       <c r="L163" s="6"/>
     </row>
-    <row r="164" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>1454</v>
       </c>
@@ -13930,7 +13941,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="165" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>1455</v>
       </c>
@@ -13968,7 +13979,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="166" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>1456</v>
       </c>
@@ -14006,7 +14017,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="167" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>1457</v>
       </c>
@@ -14044,7 +14055,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="168" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>1458</v>
       </c>
@@ -14082,7 +14093,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="169" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>1459</v>
       </c>
@@ -14120,7 +14131,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>1460</v>
       </c>
@@ -14158,7 +14169,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="171" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>1461</v>
       </c>
@@ -14196,7 +14207,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="172" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>1462</v>
       </c>
@@ -14234,7 +14245,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="173" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>1463</v>
       </c>
@@ -14272,7 +14283,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="174" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>1464</v>
       </c>
@@ -14310,7 +14321,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="175" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>1465</v>
       </c>
@@ -14348,7 +14359,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="176" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>1466</v>
       </c>
@@ -14386,7 +14397,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="177" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>1467</v>
       </c>
@@ -14424,7 +14435,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="178" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>1468</v>
       </c>
@@ -14462,7 +14473,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="179" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>1469</v>
       </c>
@@ -14500,7 +14511,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="180" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>1470</v>
       </c>
@@ -14538,7 +14549,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="181" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>1471</v>
       </c>
@@ -14576,7 +14587,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="182" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>1472</v>
       </c>
@@ -14614,7 +14625,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="183" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>1473</v>
       </c>
@@ -14652,7 +14663,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="184" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>1474</v>
       </c>
@@ -14690,7 +14701,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="185" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>1475</v>
       </c>
@@ -14728,7 +14739,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="186" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>1476</v>
       </c>
@@ -14758,7 +14769,7 @@
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
     </row>
-    <row r="187" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>1477</v>
       </c>
@@ -14796,7 +14807,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="188" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>1478</v>
       </c>
@@ -14834,7 +14845,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="189" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>1479</v>
       </c>
@@ -14870,7 +14881,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="190" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>1480</v>
       </c>
@@ -14906,7 +14917,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="191" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>1481</v>
       </c>
@@ -14942,7 +14953,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="192" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>1482</v>
       </c>
@@ -14978,7 +14989,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="193" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>1483</v>
       </c>
@@ -15014,7 +15025,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="194" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>1484</v>
       </c>
@@ -15050,7 +15061,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="195" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>1485</v>
       </c>
@@ -15086,7 +15097,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="196" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>1486</v>
       </c>
@@ -15122,7 +15133,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="197" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>1487</v>
       </c>
@@ -15158,7 +15169,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="198" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>1488</v>
       </c>
@@ -15196,7 +15207,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="199" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>1489</v>
       </c>
@@ -15234,7 +15245,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="200" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>1490</v>
       </c>
@@ -15272,7 +15283,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="201" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>1491</v>
       </c>
@@ -15308,7 +15319,7 @@
       </c>
       <c r="L201" s="6"/>
     </row>
-    <row r="202" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>1492</v>
       </c>
@@ -15346,7 +15357,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="203" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>1493</v>
       </c>
@@ -15384,7 +15395,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="204" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>1494</v>
       </c>
@@ -15422,7 +15433,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="205" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>1495</v>
       </c>
@@ -15460,7 +15471,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="206" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>1496</v>
       </c>
@@ -15498,7 +15509,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="207" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>1497</v>
       </c>
@@ -15536,7 +15547,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="208" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>1498</v>
       </c>
@@ -15574,7 +15585,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="209" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>1499</v>
       </c>
@@ -15612,7 +15623,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="210" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>1500</v>
       </c>
@@ -15650,7 +15661,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="211" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>1501</v>
       </c>
@@ -15688,7 +15699,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="212" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>1502</v>
       </c>
@@ -15726,7 +15737,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="213" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>1503</v>
       </c>
@@ -15762,7 +15773,7 @@
       </c>
       <c r="L213" s="6"/>
     </row>
-    <row r="214" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>1504</v>
       </c>
@@ -15800,7 +15811,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="215" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>1505</v>
       </c>
@@ -15838,7 +15849,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="216" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>1506</v>
       </c>
@@ -15876,7 +15887,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="217" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>1507</v>
       </c>
@@ -15914,7 +15925,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="218" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>1508</v>
       </c>
@@ -15952,7 +15963,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="219" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>1509</v>
       </c>
@@ -15990,7 +16001,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="220" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>1510</v>
       </c>
@@ -16028,7 +16039,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="221" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>1511</v>
       </c>
@@ -16066,7 +16077,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="222" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>1512</v>
       </c>
@@ -16104,7 +16115,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="223" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>1513</v>
       </c>
@@ -16142,7 +16153,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="224" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>1514</v>
       </c>
@@ -16180,7 +16191,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="225" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>1515</v>
       </c>
@@ -16218,7 +16229,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="226" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>1516</v>
       </c>
@@ -16256,7 +16267,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="227" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>1517</v>
       </c>
@@ -16294,7 +16305,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="228" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>1518</v>
       </c>
@@ -16332,7 +16343,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="229" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>1519</v>
       </c>
@@ -16370,7 +16381,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="230" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>1520</v>
       </c>
@@ -16408,7 +16419,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="231" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>1521</v>
       </c>
@@ -16446,7 +16457,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="232" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>1522</v>
       </c>
@@ -16484,7 +16495,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="233" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>1523</v>
       </c>
@@ -16522,7 +16533,7 @@
         <v>3004362366</v>
       </c>
     </row>
-    <row r="234" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>1524</v>
       </c>
@@ -16560,7 +16571,7 @@
         <v>3223645385</v>
       </c>
     </row>
-    <row r="235" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>1525</v>
       </c>
@@ -16598,7 +16609,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="236" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>1526</v>
       </c>
@@ -16636,7 +16647,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="237" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>1527</v>
       </c>
@@ -16674,7 +16685,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="238" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>1528</v>
       </c>
@@ -16712,7 +16723,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="239" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>1529</v>
       </c>
@@ -16750,7 +16761,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="240" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>1530</v>
       </c>
@@ -16788,7 +16799,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="241" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>1531</v>
       </c>
@@ -16826,7 +16837,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="242" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>1532</v>
       </c>
@@ -16864,7 +16875,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="243" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>1533</v>
       </c>
@@ -16902,7 +16913,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="244" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>1534</v>
       </c>
@@ -16940,7 +16951,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="245" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>1535</v>
       </c>
@@ -16978,7 +16989,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="246" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>1536</v>
       </c>
@@ -17016,7 +17027,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="247" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>1537</v>
       </c>
@@ -17054,7 +17065,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="248" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>1538</v>
       </c>
@@ -17092,7 +17103,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="249" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>1539</v>
       </c>
@@ -17130,7 +17141,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="250" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>1540</v>
       </c>
@@ -17166,7 +17177,7 @@
       </c>
       <c r="L250" s="6"/>
     </row>
-    <row r="251" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>1541</v>
       </c>
@@ -17204,7 +17215,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="252" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>1542</v>
       </c>
@@ -17242,7 +17253,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="253" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>1543</v>
       </c>
@@ -17280,7 +17291,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="254" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>1544</v>
       </c>
@@ -17318,7 +17329,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="255" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>1545</v>
       </c>
@@ -17356,7 +17367,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="256" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>1546</v>
       </c>
@@ -17394,7 +17405,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="257" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>1547</v>
       </c>
@@ -17432,7 +17443,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="258" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>1548</v>
       </c>
@@ -17470,7 +17481,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="259" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>1549</v>
       </c>
@@ -17508,7 +17519,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="260" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>1550</v>
       </c>
@@ -17546,7 +17557,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="261" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>1551</v>
       </c>
@@ -17584,7 +17595,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="262" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>1552</v>
       </c>
@@ -17622,7 +17633,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="263" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>1553</v>
       </c>
@@ -17660,7 +17671,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="264" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>1554</v>
       </c>
@@ -17698,7 +17709,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="265" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>1555</v>
       </c>
@@ -17736,7 +17747,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="266" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>1556</v>
       </c>
@@ -17774,7 +17785,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="267" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>1557</v>
       </c>
@@ -17812,7 +17823,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="268" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>1558</v>
       </c>
@@ -17850,7 +17861,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="269" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>1559</v>
       </c>
@@ -17888,7 +17899,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="270" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>1560</v>
       </c>
@@ -17926,7 +17937,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="271" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>1561</v>
       </c>
@@ -17964,7 +17975,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="272" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>1562</v>
       </c>
@@ -18002,7 +18013,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="273" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>1563</v>
       </c>
@@ -18038,7 +18049,7 @@
       </c>
       <c r="L273" s="6"/>
     </row>
-    <row r="274" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>1564</v>
       </c>
@@ -18076,7 +18087,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="275" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>1565</v>
       </c>
@@ -18114,7 +18125,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="276" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>1566</v>
       </c>
@@ -18150,7 +18161,7 @@
       </c>
       <c r="L276" s="6"/>
     </row>
-    <row r="277" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>1567</v>
       </c>
@@ -18188,7 +18199,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="278" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>1568</v>
       </c>
@@ -18226,7 +18237,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="279" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>1569</v>
       </c>
@@ -18262,7 +18273,7 @@
       </c>
       <c r="L279" s="6"/>
     </row>
-    <row r="280" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>1570</v>
       </c>
@@ -18300,7 +18311,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="281" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>1571</v>
       </c>
@@ -18338,7 +18349,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="282" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>1572</v>
       </c>
@@ -18376,7 +18387,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="283" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>1573</v>
       </c>
@@ -18414,7 +18425,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="284" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>1574</v>
       </c>
@@ -18452,7 +18463,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="285" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>1575</v>
       </c>
@@ -18490,7 +18501,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="286" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>1576</v>
       </c>
@@ -18526,7 +18537,7 @@
       </c>
       <c r="L286" s="6"/>
     </row>
-    <row r="287" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>1577</v>
       </c>
@@ -18564,7 +18575,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="288" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>1578</v>
       </c>
@@ -18602,7 +18613,7 @@
         <v>3474434450</v>
       </c>
     </row>
-    <row r="289" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
         <v>1579</v>
       </c>
@@ -18640,7 +18651,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="290" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <v>1580</v>
       </c>
@@ -18678,7 +18689,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="291" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <v>1581</v>
       </c>
@@ -18716,7 +18727,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="292" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>1582</v>
       </c>
@@ -18752,7 +18763,7 @@
       </c>
       <c r="L292" s="6"/>
     </row>
-    <row r="293" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
         <v>1583</v>
       </c>
@@ -18790,7 +18801,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="294" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <v>1584</v>
       </c>
@@ -18826,7 +18837,7 @@
       </c>
       <c r="L294" s="6"/>
     </row>
-    <row r="295" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
         <v>1585</v>
       </c>
@@ -18864,7 +18875,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="296" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
         <v>1586</v>
       </c>
@@ -18902,7 +18913,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="297" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
         <v>1587</v>
       </c>
@@ -18940,7 +18951,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="298" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <v>1588</v>
       </c>
@@ -18978,7 +18989,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="299" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
         <v>1589</v>
       </c>
@@ -19016,7 +19027,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="300" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
         <v>1590</v>
       </c>
@@ -19054,7 +19065,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="301" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
         <v>1591</v>
       </c>
@@ -19092,7 +19103,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="302" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
         <v>1592</v>
       </c>
@@ -19130,7 +19141,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="303" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
         <v>1593</v>
       </c>
@@ -19168,7 +19179,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="304" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
         <v>1594</v>
       </c>
@@ -19206,7 +19217,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="305" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
         <v>1595</v>
       </c>
@@ -19244,7 +19255,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="306" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
         <v>1596</v>
       </c>
@@ -19282,7 +19293,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="307" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
         <v>1597</v>
       </c>
@@ -19320,7 +19331,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="308" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
         <v>1598</v>
       </c>
@@ -19358,7 +19369,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="309" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
         <v>1599</v>
       </c>
@@ -19396,7 +19407,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="310" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
         <v>1600</v>
       </c>
@@ -19434,7 +19445,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="311" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
         <v>1601</v>
       </c>
@@ -19472,7 +19483,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="312" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
         <v>1602</v>
       </c>
@@ -19510,7 +19521,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="313" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
         <v>1603</v>
       </c>
@@ -19548,7 +19559,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="314" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
         <v>1604</v>
       </c>
@@ -19586,7 +19597,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="315" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
         <v>1605</v>
       </c>
@@ -19624,7 +19635,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="316" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
         <v>1606</v>
       </c>
@@ -19660,7 +19671,7 @@
       </c>
       <c r="L316" s="6"/>
     </row>
-    <row r="317" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
         <v>1607</v>
       </c>
@@ -19698,7 +19709,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="318" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
         <v>1608</v>
       </c>
@@ -19736,7 +19747,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="319" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
         <v>1609</v>
       </c>
@@ -19774,7 +19785,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="320" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
         <v>1610</v>
       </c>
@@ -19812,7 +19823,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="321" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
         <v>1611</v>
       </c>
@@ -19850,7 +19861,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="322" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
         <v>1612</v>
       </c>
@@ -19886,7 +19897,7 @@
       </c>
       <c r="L322" s="6"/>
     </row>
-    <row r="323" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
         <v>1613</v>
       </c>
@@ -19922,7 +19933,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="324" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
         <v>1614</v>
       </c>
@@ -19960,7 +19971,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="325" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
         <v>1615</v>
       </c>
@@ -19998,7 +20009,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="326" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
         <v>1616</v>
       </c>
@@ -20036,7 +20047,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="327" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
         <v>1617</v>
       </c>
@@ -20074,7 +20085,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="328" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
         <v>1618</v>
       </c>
@@ -20112,7 +20123,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="329" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
         <v>1619</v>
       </c>
@@ -20150,7 +20161,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="330" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
         <v>1620</v>
       </c>
@@ -20188,7 +20199,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="331" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
         <v>1621</v>
       </c>
@@ -20226,7 +20237,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="332" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
         <v>1622</v>
       </c>
@@ -20264,7 +20275,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="333" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
         <v>1623</v>
       </c>
@@ -20302,7 +20313,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="334" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
         <v>1624</v>
       </c>
@@ -20340,7 +20351,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="335" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
         <v>1625</v>
       </c>
@@ -20378,7 +20389,7 @@
         <v>3204609868</v>
       </c>
     </row>
-    <row r="336" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
         <v>1626</v>
       </c>
@@ -20416,7 +20427,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="337" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
         <v>1627</v>
       </c>
@@ -20454,7 +20465,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="338" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
         <v>1628</v>
       </c>
@@ -20492,7 +20503,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="339" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
         <v>1629</v>
       </c>
@@ -20530,7 +20541,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="340" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
         <v>1630</v>
       </c>
@@ -20568,7 +20579,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="341" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
         <v>1631</v>
       </c>
@@ -20606,7 +20617,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="342" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
         <v>1632</v>
       </c>
@@ -20644,7 +20655,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="343" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
         <v>1633</v>
       </c>
@@ -20682,7 +20693,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="344" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
         <v>1634</v>
       </c>
@@ -20720,7 +20731,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="345" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
         <v>1635</v>
       </c>
@@ -20758,7 +20769,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="346" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
         <v>1636</v>
       </c>
@@ -20796,7 +20807,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="347" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
         <v>1637</v>
       </c>
@@ -20834,7 +20845,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="348" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
         <v>1638</v>
       </c>
@@ -20872,7 +20883,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="349" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="4">
         <v>1639</v>
       </c>
@@ -20910,7 +20921,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="350" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
         <v>1640</v>
       </c>
@@ -20948,7 +20959,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="351" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
         <v>1641</v>
       </c>
@@ -20986,7 +20997,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="352" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
         <v>1642</v>
       </c>
@@ -21024,7 +21035,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="353" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="4">
         <v>1643</v>
       </c>
@@ -21062,7 +21073,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="354" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
         <v>1644</v>
       </c>
@@ -21100,7 +21111,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="355" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
         <v>1645</v>
       </c>
@@ -21138,7 +21149,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="356" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
         <v>1646</v>
       </c>
@@ -21176,7 +21187,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="357" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
         <v>1647</v>
       </c>
@@ -21212,7 +21223,7 @@
       </c>
       <c r="L357" s="6"/>
     </row>
-    <row r="358" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
         <v>1648</v>
       </c>
@@ -21250,7 +21261,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="359" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
         <v>1649</v>
       </c>
@@ -21288,7 +21299,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="360" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
         <v>1650</v>
       </c>
@@ -21326,7 +21337,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="361" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
         <v>1651</v>
       </c>
@@ -21362,7 +21373,7 @@
       </c>
       <c r="L361" s="6"/>
     </row>
-    <row r="362" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
         <v>1652</v>
       </c>
@@ -21400,7 +21411,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="363" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
         <v>1653</v>
       </c>
@@ -21438,7 +21449,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="364" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
         <v>1654</v>
       </c>
@@ -21476,7 +21487,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="365" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
         <v>1655</v>
       </c>
@@ -21514,7 +21525,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="366" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
         <v>1656</v>
       </c>
@@ -21552,7 +21563,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="367" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
         <v>1657</v>
       </c>
@@ -21590,7 +21601,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="368" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
         <v>1658</v>
       </c>
@@ -21628,7 +21639,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="369" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
         <v>1659</v>
       </c>
@@ -21666,7 +21677,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="370" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
         <v>1660</v>
       </c>
@@ -21704,7 +21715,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="371" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="4">
         <v>1661</v>
       </c>
@@ -21742,7 +21753,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="372" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="4">
         <v>1662</v>
       </c>
@@ -21780,7 +21791,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="373" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="4">
         <v>1663</v>
       </c>
@@ -21818,7 +21829,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="374" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="4">
         <v>1664</v>
       </c>
@@ -21856,7 +21867,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="375" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="4">
         <v>1665</v>
       </c>
@@ -21894,7 +21905,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="376" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="4">
         <v>1666</v>
       </c>
@@ -21932,7 +21943,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="377" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="4">
         <v>1667</v>
       </c>
@@ -21970,7 +21981,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="378" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="4">
         <v>1668</v>
       </c>
@@ -22008,7 +22019,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="379" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="4">
         <v>1669</v>
       </c>
@@ -22046,7 +22057,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="380" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="4">
         <v>1670</v>
       </c>
@@ -22084,7 +22095,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="381" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="4">
         <v>1671</v>
       </c>
@@ -22122,7 +22133,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="382" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
         <v>1672</v>
       </c>
@@ -22160,7 +22171,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="383" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="4">
         <v>1673</v>
       </c>
@@ -22198,7 +22209,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="384" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="4">
         <v>1674</v>
       </c>
@@ -22236,7 +22247,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="385" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="4">
         <v>1675</v>
       </c>
@@ -22274,7 +22285,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="386" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
         <v>1676</v>
       </c>
@@ -22312,7 +22323,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="387" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="4">
         <v>1677</v>
       </c>
@@ -22350,7 +22361,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="388" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
         <v>1678</v>
       </c>
@@ -22388,7 +22399,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="389" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="4">
         <v>1679</v>
       </c>
@@ -22426,7 +22437,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="390" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
         <v>1680</v>
       </c>
@@ -22464,7 +22475,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="391" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="4">
         <v>1681</v>
       </c>
@@ -22502,7 +22513,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="392" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="4">
         <v>1682</v>
       </c>
@@ -22540,7 +22551,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="393" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="4">
         <v>1683</v>
       </c>
@@ -22578,7 +22589,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="394" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="4">
         <v>1684</v>
       </c>
@@ -22616,7 +22627,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="395" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="4">
         <v>1685</v>
       </c>
@@ -22654,7 +22665,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="396" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="4">
         <v>1686</v>
       </c>
@@ -22692,7 +22703,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="397" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="4">
         <v>1687</v>
       </c>
@@ -22730,7 +22741,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="398" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="4">
         <v>1688</v>
       </c>
@@ -22768,7 +22779,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="399" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="4">
         <v>1689</v>
       </c>
@@ -22806,7 +22817,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="400" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="4">
         <v>1690</v>
       </c>
@@ -22842,7 +22853,7 @@
       </c>
       <c r="L400" s="6"/>
     </row>
-    <row r="401" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="4">
         <v>1691</v>
       </c>
@@ -22880,7 +22891,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="402" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="4">
         <v>1692</v>
       </c>
@@ -22918,7 +22929,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="403" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="4">
         <v>1693</v>
       </c>
@@ -22956,7 +22967,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="404" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="4">
         <v>1694</v>
       </c>
@@ -22994,7 +23005,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="405" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="4">
         <v>1695</v>
       </c>
@@ -23032,7 +23043,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="406" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="4">
         <v>1696</v>
       </c>
@@ -23070,7 +23081,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="407" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="4">
         <v>1697</v>
       </c>
@@ -23108,7 +23119,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="408" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="4">
         <v>1698</v>
       </c>
@@ -23144,7 +23155,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="409" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="4">
         <v>1699</v>
       </c>
@@ -23182,7 +23193,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="410" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="4">
         <v>1700</v>
       </c>
@@ -23220,7 +23231,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="411" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="4">
         <v>1701</v>
       </c>
@@ -23258,7 +23269,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="412" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="4">
         <v>1702</v>
       </c>
@@ -23296,7 +23307,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="413" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="4">
         <v>1703</v>
       </c>
@@ -23334,7 +23345,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="414" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="4">
         <v>1704</v>
       </c>
@@ -23372,7 +23383,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="415" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="4">
         <v>1705</v>
       </c>
@@ -23410,7 +23421,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="416" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="4">
         <v>1706</v>
       </c>
@@ -23448,7 +23459,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="417" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="4">
         <v>1707</v>
       </c>
@@ -23486,7 +23497,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="418" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="4">
         <v>1708</v>
       </c>
@@ -23524,7 +23535,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="419" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="4">
         <v>1709</v>
       </c>
@@ -23562,7 +23573,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="420" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="4">
         <v>1710</v>
       </c>
@@ -23600,7 +23611,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="421" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="4">
         <v>1711</v>
       </c>
@@ -23638,7 +23649,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="422" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="4">
         <v>1712</v>
       </c>
@@ -23676,7 +23687,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="423" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="4">
         <v>1713</v>
       </c>
@@ -23714,7 +23725,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="424" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="4">
         <v>1714</v>
       </c>
@@ -23752,7 +23763,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="425" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="4">
         <v>1715</v>
       </c>
@@ -23790,7 +23801,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="426" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="4">
         <v>1716</v>
       </c>
@@ -23828,7 +23839,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="427" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="4">
         <v>1717</v>
       </c>
@@ -23866,7 +23877,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="428" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="4">
         <v>1718</v>
       </c>
@@ -23904,7 +23915,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="429" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="4">
         <v>1719</v>
       </c>
@@ -23942,7 +23953,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="430" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="4">
         <v>1720</v>
       </c>
@@ -23980,7 +23991,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="431" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="4">
         <v>1721</v>
       </c>
@@ -24018,7 +24029,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="432" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="4">
         <v>1722</v>
       </c>
@@ -24056,7 +24067,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="433" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="4">
         <v>1723</v>
       </c>
@@ -24094,7 +24105,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="434" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="4">
         <v>1724</v>
       </c>
@@ -24132,7 +24143,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="435" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="4">
         <v>1725</v>
       </c>
@@ -24170,7 +24181,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="436" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="4">
         <v>1726</v>
       </c>
@@ -24208,7 +24219,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="437" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="4">
         <v>1727</v>
       </c>
@@ -24246,7 +24257,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="438" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="4">
         <v>1728</v>
       </c>
@@ -24284,7 +24295,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="439" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="4">
         <v>1729</v>
       </c>
@@ -24322,7 +24333,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="440" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="4">
         <v>1730</v>
       </c>
@@ -24360,7 +24371,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="441" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="4">
         <v>1731</v>
       </c>
@@ -24398,7 +24409,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="442" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="4">
         <v>1732</v>
       </c>
@@ -24436,7 +24447,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="443" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="4">
         <v>1733</v>
       </c>
@@ -24472,7 +24483,7 @@
       </c>
       <c r="L443" s="6"/>
     </row>
-    <row r="444" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="4">
         <v>1734</v>
       </c>
@@ -24510,7 +24521,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="445" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="4">
         <v>1735</v>
       </c>
@@ -24546,7 +24557,7 @@
       </c>
       <c r="L445" s="6"/>
     </row>
-    <row r="446" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="4">
         <v>1736</v>
       </c>
@@ -24584,7 +24595,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="447" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="4">
         <v>1737</v>
       </c>
@@ -24622,7 +24633,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="448" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="4">
         <v>1738</v>
       </c>
@@ -24660,7 +24671,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="449" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="4">
         <v>1739</v>
       </c>
@@ -24696,7 +24707,7 @@
       </c>
       <c r="L449" s="6"/>
     </row>
-    <row r="450" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="4">
         <v>1740</v>
       </c>
@@ -24734,7 +24745,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="451" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="4">
         <v>1741</v>
       </c>
@@ -24772,7 +24783,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="452" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="4">
         <v>1742</v>
       </c>
@@ -24810,7 +24821,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="453" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="4">
         <v>1743</v>
       </c>
@@ -24848,7 +24859,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="454" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="4">
         <v>1744</v>
       </c>
@@ -24886,7 +24897,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="455" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="4">
         <v>1745</v>
       </c>
@@ -24924,7 +24935,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="456" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="4">
         <v>1746</v>
       </c>
@@ -24962,7 +24973,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="457" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="4">
         <v>1747</v>
       </c>
@@ -24998,7 +25009,7 @@
       </c>
       <c r="L457" s="6"/>
     </row>
-    <row r="458" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="4">
         <v>1748</v>
       </c>
@@ -25036,7 +25047,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="459" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="4">
         <v>1749</v>
       </c>
@@ -25074,7 +25085,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="460" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="4">
         <v>1750</v>
       </c>
@@ -25112,7 +25123,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="461" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="4">
         <v>1751</v>
       </c>
@@ -25150,7 +25161,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="462" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="4">
         <v>1752</v>
       </c>
@@ -25188,7 +25199,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="463" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="4">
         <v>1753</v>
       </c>
@@ -25226,7 +25237,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="464" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="4">
         <v>1754</v>
       </c>
@@ -25264,7 +25275,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="465" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="4">
         <v>1755</v>
       </c>
@@ -25300,7 +25311,7 @@
       </c>
       <c r="L465" s="6"/>
     </row>
-    <row r="466" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="4">
         <v>1756</v>
       </c>
@@ -25338,7 +25349,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="467" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="4">
         <v>1757</v>
       </c>
@@ -25376,7 +25387,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="468" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="4">
         <v>1758</v>
       </c>
@@ -25414,7 +25425,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="469" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="4">
         <v>1759</v>
       </c>
@@ -25452,7 +25463,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="470" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="4">
         <v>1760</v>
       </c>
@@ -25490,7 +25501,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="471" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="4">
         <v>1761</v>
       </c>
@@ -25528,7 +25539,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="472" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="4">
         <v>1762</v>
       </c>
@@ -25566,7 +25577,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="473" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="4">
         <v>1763</v>
       </c>
@@ -25604,7 +25615,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="474" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="4">
         <v>1764</v>
       </c>
@@ -25642,7 +25653,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="475" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="4">
         <v>1765</v>
       </c>
@@ -25680,7 +25691,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="476" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="4">
         <v>1766</v>
       </c>
@@ -25718,7 +25729,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="477" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="4">
         <v>1767</v>
       </c>
@@ -25756,7 +25767,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="478" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="4">
         <v>1768</v>
       </c>
@@ -25794,7 +25805,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="479" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="4">
         <v>1769</v>
       </c>
@@ -25832,7 +25843,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="480" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="4">
         <v>1770</v>
       </c>
@@ -25870,7 +25881,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="481" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="4">
         <v>1771</v>
       </c>
@@ -25908,7 +25919,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="482" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="4">
         <v>1772</v>
       </c>
@@ -25946,7 +25957,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="483" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="4">
         <v>1773</v>
       </c>
@@ -25984,7 +25995,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="484" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="4">
         <v>1774</v>
       </c>
@@ -26022,7 +26033,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="485" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="4">
         <v>1775</v>
       </c>
@@ -26060,7 +26071,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="486" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="4">
         <v>1776</v>
       </c>
@@ -26098,7 +26109,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="487" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="4">
         <v>1777</v>
       </c>
@@ -26136,7 +26147,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="488" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="4">
         <v>1778</v>
       </c>
@@ -26174,7 +26185,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="489" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="4">
         <v>1779</v>
       </c>
@@ -26212,7 +26223,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="490" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="4">
         <v>1780</v>
       </c>
@@ -26250,7 +26261,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="491" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="4">
         <v>1781</v>
       </c>
@@ -26288,7 +26299,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="492" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="4">
         <v>1782</v>
       </c>
@@ -26326,7 +26337,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="493" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="4">
         <v>1783</v>
       </c>
@@ -26364,7 +26375,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="494" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="4">
         <v>1784</v>
       </c>
@@ -26402,7 +26413,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="495" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="4">
         <v>1785</v>
       </c>
@@ -26440,7 +26451,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="496" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="4">
         <v>1786</v>
       </c>
@@ -26478,7 +26489,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="497" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="4">
         <v>1787</v>
       </c>
@@ -26516,7 +26527,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="498" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="4">
         <v>1788</v>
       </c>
@@ -26552,7 +26563,7 @@
       </c>
       <c r="L498" s="6"/>
     </row>
-    <row r="499" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="4">
         <v>1789</v>
       </c>
@@ -26590,7 +26601,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="500" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="4">
         <v>1790</v>
       </c>
@@ -26628,7 +26639,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="501" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="4">
         <v>1791</v>
       </c>
@@ -26660,7 +26671,7 @@
       <c r="K501" s="6"/>
       <c r="L501" s="6"/>
     </row>
-    <row r="502" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="4">
         <v>1792</v>
       </c>
@@ -26692,7 +26703,7 @@
       <c r="K502" s="6"/>
       <c r="L502" s="6"/>
     </row>
-    <row r="503" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="4">
         <v>1793</v>
       </c>
@@ -26722,7 +26733,7 @@
       <c r="K503" s="6"/>
       <c r="L503" s="6"/>
     </row>
-    <row r="504" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="4">
         <v>1794</v>
       </c>
@@ -26758,7 +26769,7 @@
       </c>
       <c r="L504" s="6"/>
     </row>
-    <row r="505" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="4">
         <v>1795</v>
       </c>
@@ -26790,7 +26801,7 @@
       <c r="K505" s="6"/>
       <c r="L505" s="6"/>
     </row>
-    <row r="506" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="4">
         <v>1796</v>
       </c>
@@ -26822,7 +26833,7 @@
       <c r="K506" s="6"/>
       <c r="L506" s="6"/>
     </row>
-    <row r="507" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="4">
         <v>1797</v>
       </c>
@@ -26854,7 +26865,7 @@
       <c r="K507" s="6"/>
       <c r="L507" s="6"/>
     </row>
-    <row r="508" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="4">
         <v>1798</v>
       </c>
@@ -26886,7 +26897,7 @@
       <c r="K508" s="6"/>
       <c r="L508" s="6"/>
     </row>
-    <row r="509" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="4">
         <v>1799</v>
       </c>
@@ -26922,7 +26933,7 @@
       </c>
       <c r="L509" s="6"/>
     </row>
-    <row r="510" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="4">
         <v>1800</v>
       </c>
@@ -26960,7 +26971,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="511" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="4">
         <v>1801</v>
       </c>
@@ -26998,7 +27009,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="512" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="4">
         <v>1802</v>
       </c>
@@ -27036,7 +27047,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="513" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="4">
         <v>1803</v>
       </c>
@@ -27074,7 +27085,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="514" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="4">
         <v>1804</v>
       </c>
@@ -27112,7 +27123,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="515" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="4">
         <v>1805</v>
       </c>
@@ -27142,7 +27153,7 @@
       <c r="K515" s="6"/>
       <c r="L515" s="6"/>
     </row>
-    <row r="516" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="4">
         <v>1806</v>
       </c>
@@ -27180,7 +27191,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="517" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="4">
         <v>1807</v>
       </c>
@@ -27218,7 +27229,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="518" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="4">
         <v>1808</v>
       </c>
@@ -27256,7 +27267,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="519" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="4">
         <v>1809</v>
       </c>
@@ -27294,7 +27305,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="520" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="4">
         <v>1810</v>
       </c>
@@ -27332,7 +27343,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="521" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="4">
         <v>1811</v>
       </c>
@@ -27370,7 +27381,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="522" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="4">
         <v>1812</v>
       </c>
@@ -27408,7 +27419,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="523" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="4">
         <v>1813</v>
       </c>
@@ -27446,7 +27457,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="524" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="4">
         <v>1814</v>
       </c>
@@ -27484,7 +27495,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="525" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="4">
         <v>1815</v>
       </c>
@@ -27522,7 +27533,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="526" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="4">
         <v>1816</v>
       </c>
@@ -27560,7 +27571,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="527" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="4">
         <v>1817</v>
       </c>
@@ -27590,7 +27601,7 @@
       <c r="K527" s="6"/>
       <c r="L527" s="6"/>
     </row>
-    <row r="528" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="4">
         <v>1818</v>
       </c>
@@ -27620,7 +27631,7 @@
       <c r="K528" s="6"/>
       <c r="L528" s="6"/>
     </row>
-    <row r="529" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="4">
         <v>1819</v>
       </c>
@@ -27658,7 +27669,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="530" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="4">
         <v>1820</v>
       </c>
@@ -27694,7 +27705,7 @@
       </c>
       <c r="L530" s="6"/>
     </row>
-    <row r="531" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="4">
         <v>1821</v>
       </c>
@@ -27724,7 +27735,7 @@
       <c r="K531" s="6"/>
       <c r="L531" s="6"/>
     </row>
-    <row r="532" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="4">
         <v>1822</v>
       </c>
@@ -27762,7 +27773,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="533" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="4">
         <v>1823</v>
       </c>
@@ -27800,7 +27811,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="534" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="4">
         <v>1824</v>
       </c>
@@ -27838,7 +27849,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="535" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="4">
         <v>1825</v>
       </c>
@@ -27876,7 +27887,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="536" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="4">
         <v>1826</v>
       </c>
@@ -27914,7 +27925,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="537" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="4">
         <v>1827</v>
       </c>
@@ -27952,7 +27963,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="538" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="4">
         <v>1828</v>
       </c>
@@ -27990,7 +28001,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="539" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="4">
         <v>1829</v>
       </c>
@@ -28020,7 +28031,7 @@
       <c r="K539" s="6"/>
       <c r="L539" s="6"/>
     </row>
-    <row r="540" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="4">
         <v>1830</v>
       </c>
@@ -28050,7 +28061,7 @@
       <c r="K540" s="6"/>
       <c r="L540" s="6"/>
     </row>
-    <row r="541" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="4">
         <v>1831</v>
       </c>
@@ -28088,7 +28099,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="542" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="4">
         <v>1832</v>
       </c>
@@ -28126,7 +28137,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="543" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="4">
         <v>1833</v>
       </c>
@@ -28162,7 +28173,7 @@
       </c>
       <c r="L543" s="6"/>
     </row>
-    <row r="544" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="4">
         <v>1834</v>
       </c>
@@ -28200,7 +28211,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="545" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="4">
         <v>1835</v>
       </c>
@@ -28238,7 +28249,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="546" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="4">
         <v>1836</v>
       </c>
@@ -28276,7 +28287,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="547" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="4">
         <v>1837</v>
       </c>
@@ -28306,7 +28317,7 @@
       <c r="K547" s="6"/>
       <c r="L547" s="6"/>
     </row>
-    <row r="548" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="4">
         <v>1838</v>
       </c>
@@ -28340,7 +28351,7 @@
       </c>
       <c r="L548" s="6"/>
     </row>
-    <row r="549" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="4">
         <v>1839</v>
       </c>
@@ -28378,7 +28389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="4">
         <v>1840</v>
       </c>
@@ -28408,7 +28419,7 @@
       <c r="K550" s="6"/>
       <c r="L550" s="6"/>
     </row>
-    <row r="551" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="4">
         <v>1841</v>
       </c>
@@ -28438,7 +28449,7 @@
       <c r="K551" s="6"/>
       <c r="L551" s="6"/>
     </row>
-    <row r="552" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="4">
         <v>1842</v>
       </c>
@@ -28468,7 +28479,7 @@
       <c r="K552" s="6"/>
       <c r="L552" s="6"/>
     </row>
-    <row r="553" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="4">
         <v>1843</v>
       </c>
@@ -28498,7 +28509,7 @@
       <c r="K553" s="6"/>
       <c r="L553" s="6"/>
     </row>
-    <row r="554" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="4">
         <v>1844</v>
       </c>
@@ -28528,7 +28539,7 @@
       <c r="K554" s="6"/>
       <c r="L554" s="6"/>
     </row>
-    <row r="555" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="4">
         <v>1845</v>
       </c>
@@ -28558,7 +28569,7 @@
       <c r="K555" s="6"/>
       <c r="L555" s="6"/>
     </row>
-    <row r="556" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="4">
         <v>1846</v>
       </c>
@@ -28588,7 +28599,7 @@
       <c r="K556" s="6"/>
       <c r="L556" s="6"/>
     </row>
-    <row r="557" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="4">
         <v>1847</v>
       </c>
@@ -28618,7 +28629,7 @@
       <c r="K557" s="6"/>
       <c r="L557" s="6"/>
     </row>
-    <row r="558" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="4">
         <v>1848</v>
       </c>
@@ -28656,7 +28667,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="559" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="4">
         <v>1849</v>
       </c>
@@ -28686,7 +28697,7 @@
       <c r="K559" s="6"/>
       <c r="L559" s="6"/>
     </row>
-    <row r="560" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="4">
         <v>1850</v>
       </c>
@@ -28718,7 +28729,7 @@
       <c r="K560" s="6"/>
       <c r="L560" s="6"/>
     </row>
-    <row r="561" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="4">
         <v>1851</v>
       </c>
@@ -28756,7 +28767,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="562" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="4">
         <v>1852</v>
       </c>
@@ -28786,7 +28797,7 @@
       <c r="K562" s="6"/>
       <c r="L562" s="6"/>
     </row>
-    <row r="563" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="4">
         <v>1853</v>
       </c>
@@ -28822,7 +28833,7 @@
       </c>
       <c r="L563" s="6"/>
     </row>
-    <row r="564" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="4">
         <v>1854</v>
       </c>
@@ -28854,7 +28865,7 @@
       <c r="K564" s="6"/>
       <c r="L564" s="6"/>
     </row>
-    <row r="565" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="4">
         <v>1855</v>
       </c>
@@ -28892,7 +28903,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="566" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="4">
         <v>1856</v>
       </c>
@@ -28930,7 +28941,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="567" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="4">
         <v>1857</v>
       </c>
@@ -28960,7 +28971,7 @@
       <c r="K567" s="6"/>
       <c r="L567" s="6"/>
     </row>
-    <row r="568" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="4">
         <v>1858</v>
       </c>
@@ -28998,7 +29009,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="569" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="4">
         <v>1859</v>
       </c>
@@ -29036,7 +29047,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="570" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="4">
         <v>1860</v>
       </c>
@@ -29074,7 +29085,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="571" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="4">
         <v>1861</v>
       </c>
@@ -29112,7 +29123,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="572" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="4">
         <v>1862</v>
       </c>
@@ -29142,7 +29153,7 @@
       <c r="K572" s="6"/>
       <c r="L572" s="6"/>
     </row>
-    <row r="573" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="4">
         <v>1863</v>
       </c>
@@ -29180,7 +29191,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="574" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="4">
         <v>1864</v>
       </c>
@@ -29216,7 +29227,7 @@
       </c>
       <c r="L574" s="6"/>
     </row>
-    <row r="575" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="4">
         <v>1865</v>
       </c>
@@ -29254,7 +29265,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="576" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="4">
         <v>1866</v>
       </c>
@@ -29292,7 +29303,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="577" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="4">
         <v>1867</v>
       </c>
@@ -29330,7 +29341,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="578" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="4">
         <v>1868</v>
       </c>
@@ -29368,7 +29379,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="579" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="4">
         <v>1869</v>
       </c>
@@ -29406,7 +29417,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="580" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="4">
         <v>1870</v>
       </c>
@@ -29444,7 +29455,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="581" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="4">
         <v>1871</v>
       </c>
@@ -29482,7 +29493,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="582" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="4">
         <v>1872</v>
       </c>
@@ -29518,7 +29529,7 @@
       </c>
       <c r="L582" s="6"/>
     </row>
-    <row r="583" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="4">
         <v>1873</v>
       </c>
@@ -29548,7 +29559,7 @@
       <c r="K583" s="6"/>
       <c r="L583" s="6"/>
     </row>
-    <row r="584" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="4">
         <v>1874</v>
       </c>
@@ -29578,7 +29589,7 @@
       <c r="K584" s="6"/>
       <c r="L584" s="6"/>
     </row>
-    <row r="585" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="4">
         <v>1875</v>
       </c>
@@ -29608,7 +29619,7 @@
       <c r="K585" s="6"/>
       <c r="L585" s="6"/>
     </row>
-    <row r="586" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="4">
         <v>1876</v>
       </c>
@@ -29638,7 +29649,7 @@
       <c r="K586" s="6"/>
       <c r="L586" s="6"/>
     </row>
-    <row r="587" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="4">
         <v>1877</v>
       </c>
@@ -29676,7 +29687,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="588" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="4">
         <v>1878</v>
       </c>
@@ -29714,7 +29725,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="589" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="4">
         <v>1879</v>
       </c>
@@ -29752,7 +29763,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="590" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="4">
         <v>1880</v>
       </c>
@@ -29790,7 +29801,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="591" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="4">
         <v>1881</v>
       </c>
@@ -29828,7 +29839,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="592" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="4">
         <v>1882</v>
       </c>
@@ -29858,7 +29869,7 @@
       <c r="K592" s="6"/>
       <c r="L592" s="6"/>
     </row>
-    <row r="593" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="4">
         <v>1883</v>
       </c>
@@ -29896,7 +29907,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="594" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="4">
         <v>1884</v>
       </c>
@@ -29934,7 +29945,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="595" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="4">
         <v>1885</v>
       </c>
@@ -29972,7 +29983,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="596" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="4">
         <v>1886</v>
       </c>
@@ -30010,7 +30021,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="597" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="4">
         <v>1887</v>
       </c>
@@ -30048,7 +30059,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="598" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="4">
         <v>1888</v>
       </c>
@@ -30086,7 +30097,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="599" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="4">
         <v>1889</v>
       </c>
@@ -30124,7 +30135,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="600" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="4">
         <v>1890</v>
       </c>
@@ -30160,7 +30171,7 @@
       </c>
       <c r="L600" s="6"/>
     </row>
-    <row r="601" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="4">
         <v>1891</v>
       </c>
@@ -30190,7 +30201,7 @@
       <c r="K601" s="6"/>
       <c r="L601" s="6"/>
     </row>
-    <row r="602" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="4">
         <v>1892</v>
       </c>
@@ -30220,7 +30231,7 @@
       <c r="K602" s="6"/>
       <c r="L602" s="6"/>
     </row>
-    <row r="603" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="4">
         <v>1893</v>
       </c>
@@ -30250,7 +30261,7 @@
       <c r="K603" s="6"/>
       <c r="L603" s="6"/>
     </row>
-    <row r="604" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="4">
         <v>1894</v>
       </c>
@@ -30286,7 +30297,7 @@
       </c>
       <c r="L604" s="6"/>
     </row>
-    <row r="605" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="4">
         <v>1895</v>
       </c>
@@ -30324,7 +30335,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="606" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="4">
         <v>1896</v>
       </c>
@@ -30362,7 +30373,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="607" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="4">
         <v>1897</v>
       </c>
@@ -30400,7 +30411,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="608" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="4">
         <v>1898</v>
       </c>
@@ -30436,7 +30447,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="609" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="4">
         <v>1899</v>
       </c>
@@ -30474,7 +30485,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="610" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="4">
         <v>1900</v>
       </c>
@@ -30510,7 +30521,7 @@
       </c>
       <c r="L610" s="6"/>
     </row>
-    <row r="611" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="4">
         <v>1901</v>
       </c>
@@ -30542,7 +30553,7 @@
       <c r="K611" s="6"/>
       <c r="L611" s="6"/>
     </row>
-    <row r="612" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="4">
         <v>1902</v>
       </c>
@@ -30574,7 +30585,7 @@
       <c r="K612" s="6"/>
       <c r="L612" s="6"/>
     </row>
-    <row r="613" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="4">
         <v>1903</v>
       </c>
@@ -30612,7 +30623,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="614" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="4">
         <v>1904</v>
       </c>
@@ -30650,7 +30661,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="615" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="4">
         <v>1905</v>
       </c>
@@ -30682,7 +30693,7 @@
       <c r="K615" s="6"/>
       <c r="L615" s="6"/>
     </row>
-    <row r="616" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="4">
         <v>1906</v>
       </c>
@@ -30714,7 +30725,7 @@
       <c r="K616" s="6"/>
       <c r="L616" s="6"/>
     </row>
-    <row r="617" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="4">
         <v>1907</v>
       </c>
@@ -30746,7 +30757,7 @@
       <c r="K617" s="6"/>
       <c r="L617" s="6"/>
     </row>
-    <row r="618" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="4">
         <v>1908</v>
       </c>
@@ -30778,7 +30789,7 @@
       <c r="K618" s="6"/>
       <c r="L618" s="6"/>
     </row>
-    <row r="619" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="4">
         <v>1909</v>
       </c>
@@ -30816,7 +30827,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="620" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="4">
         <v>1910</v>
       </c>
@@ -30854,7 +30865,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="621" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="4">
         <v>1911</v>
       </c>
@@ -30893,6 +30904,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L621" xr:uid="{3DDD6B5C-CAB7-4E5A-9A83-AB3221945E1E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L621">
     <sortCondition ref="A2:A621"/>
   </sortState>
@@ -30913,13 +30925,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="166.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="166.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="11" t="s">
         <v>2376</v>
@@ -30931,7 +30943,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>1424</v>
       </c>
@@ -30940,212 +30952,212 @@
         <v>03471452351,03474276521,03474493640,03474714005,03474738356,03475016500,03475216856,03482028172,03484059754,03484375528,03484872653,03486769976,03487588506,03490169576,03490415532,03490863903,03491444513,03491487521,03494329007,03494927404,03496658220,03498462106,03554741994,032084533065,03154027327,03004709084,03324115672,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>2349</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>2311</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>1925</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>2248</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>1901</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>2198</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>1933</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>2011</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>1903</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>1956</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>1964</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>2051</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>1981</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>1710</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>2194</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>2079</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>2372</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>2373</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>2374</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="22"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="22"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="22"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="22"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="22"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="22"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="22"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="22"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="22"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="22"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="22"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="22"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="22"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="22"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
     </row>
   </sheetData>

--- a/FORWARDED FOR PRINTING PURPOSE.xlsx
+++ b/FORWARDED FOR PRINTING PURPOSE.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7TH'!$A$1:$M$621</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7TH'!$A$1:$M$619</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7TH'!$E$1:$E$625</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7TH'!$A$1:$M$618</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'7TH'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6158" uniqueCount="2391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6197" uniqueCount="2391">
   <si>
     <t>REGISTRATION NUMBER</t>
   </si>
@@ -7732,7 +7732,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7740,12 +7740,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M625"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F407" sqref="F407"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A620" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7803,7 +7802,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1292</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1293</v>
       </c>
@@ -7881,7 +7880,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1294</v>
       </c>
@@ -7920,7 +7919,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1295</v>
       </c>
@@ -7959,7 +7958,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1296</v>
       </c>
@@ -7998,7 +7997,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1297</v>
       </c>
@@ -8037,7 +8036,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1298</v>
       </c>
@@ -8076,7 +8075,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1299</v>
       </c>
@@ -8115,7 +8114,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1300</v>
       </c>
@@ -8154,7 +8153,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1301</v>
       </c>
@@ -8193,7 +8192,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1302</v>
       </c>
@@ -8232,7 +8231,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1303</v>
       </c>
@@ -8271,7 +8270,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1304</v>
       </c>
@@ -8310,7 +8309,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1305</v>
       </c>
@@ -8349,7 +8348,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1306</v>
       </c>
@@ -8388,7 +8387,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1307</v>
       </c>
@@ -8427,7 +8426,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1308</v>
       </c>
@@ -8466,7 +8465,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1309</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1310</v>
       </c>
@@ -8542,7 +8541,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1311</v>
       </c>
@@ -8581,7 +8580,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1312</v>
       </c>
@@ -8620,7 +8619,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1313</v>
       </c>
@@ -8659,7 +8658,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1314</v>
       </c>
@@ -8696,7 +8695,7 @@
       </c>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1315</v>
       </c>
@@ -8735,7 +8734,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1316</v>
       </c>
@@ -8774,7 +8773,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1317</v>
       </c>
@@ -8811,7 +8810,7 @@
       </c>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1318</v>
       </c>
@@ -8850,7 +8849,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1319</v>
       </c>
@@ -8889,7 +8888,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1320</v>
       </c>
@@ -8926,7 +8925,7 @@
       </c>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1321</v>
       </c>
@@ -8965,7 +8964,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>1322</v>
       </c>
@@ -9004,7 +9003,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1323</v>
       </c>
@@ -9043,7 +9042,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1324</v>
       </c>
@@ -9082,7 +9081,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1325</v>
       </c>
@@ -9119,7 +9118,7 @@
       </c>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>1326</v>
       </c>
@@ -9158,7 +9157,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>1327</v>
       </c>
@@ -9197,7 +9196,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>1328</v>
       </c>
@@ -9236,7 +9235,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>1329</v>
       </c>
@@ -9275,7 +9274,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>1330</v>
       </c>
@@ -9314,7 +9313,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>1331</v>
       </c>
@@ -9353,7 +9352,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>1332</v>
       </c>
@@ -9392,7 +9391,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>1333</v>
       </c>
@@ -9429,7 +9428,7 @@
       </c>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>1334</v>
       </c>
@@ -9468,7 +9467,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>1335</v>
       </c>
@@ -9507,7 +9506,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>1336</v>
       </c>
@@ -9544,7 +9543,7 @@
       </c>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>1337</v>
       </c>
@@ -9583,7 +9582,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>1338</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>1339</v>
       </c>
@@ -9661,7 +9660,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>1340</v>
       </c>
@@ -9700,7 +9699,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>1341</v>
       </c>
@@ -9739,7 +9738,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>1342</v>
       </c>
@@ -9778,7 +9777,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>1343</v>
       </c>
@@ -9817,7 +9816,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>1344</v>
       </c>
@@ -9856,7 +9855,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>1345</v>
       </c>
@@ -9895,7 +9894,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>1346</v>
       </c>
@@ -9934,7 +9933,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>1347</v>
       </c>
@@ -9973,7 +9972,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>1348</v>
       </c>
@@ -10012,7 +10011,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>1349</v>
       </c>
@@ -10049,7 +10048,7 @@
       </c>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>1350</v>
       </c>
@@ -10088,7 +10087,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>1351</v>
       </c>
@@ -10127,7 +10126,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>1352</v>
       </c>
@@ -10166,7 +10165,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>1353</v>
       </c>
@@ -10205,7 +10204,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>1354</v>
       </c>
@@ -10244,7 +10243,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>1355</v>
       </c>
@@ -10283,7 +10282,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>1356</v>
       </c>
@@ -10322,7 +10321,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>1357</v>
       </c>
@@ -10361,7 +10360,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>1358</v>
       </c>
@@ -10400,7 +10399,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>1359</v>
       </c>
@@ -10439,7 +10438,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>1360</v>
       </c>
@@ -10478,7 +10477,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>1361</v>
       </c>
@@ -10517,7 +10516,7 @@
         <v>3137694661</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>1362</v>
       </c>
@@ -10556,7 +10555,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>1363</v>
       </c>
@@ -10595,7 +10594,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>1364</v>
       </c>
@@ -10634,7 +10633,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>1365</v>
       </c>
@@ -10673,7 +10672,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>1366</v>
       </c>
@@ -10712,7 +10711,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>1367</v>
       </c>
@@ -10751,7 +10750,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>1368</v>
       </c>
@@ -10790,7 +10789,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>1369</v>
       </c>
@@ -10829,7 +10828,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>1370</v>
       </c>
@@ -10868,7 +10867,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>1371</v>
       </c>
@@ -10907,7 +10906,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>1372</v>
       </c>
@@ -10946,7 +10945,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>1373</v>
       </c>
@@ -10985,7 +10984,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>1374</v>
       </c>
@@ -11026,7 +11025,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>1375</v>
       </c>
@@ -11067,7 +11066,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>1376</v>
       </c>
@@ -11108,7 +11107,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>1377</v>
       </c>
@@ -11149,7 +11148,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>1378</v>
       </c>
@@ -11188,7 +11187,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>1379</v>
       </c>
@@ -11229,7 +11228,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>1380</v>
       </c>
@@ -11270,7 +11269,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>1381</v>
       </c>
@@ -11311,7 +11310,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>1382</v>
       </c>
@@ -11350,7 +11349,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>1383</v>
       </c>
@@ -11391,7 +11390,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>1384</v>
       </c>
@@ -11432,7 +11431,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>1385</v>
       </c>
@@ -11473,7 +11472,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>1386</v>
       </c>
@@ -11514,7 +11513,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>1387</v>
       </c>
@@ -11553,7 +11552,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>1388</v>
       </c>
@@ -11594,7 +11593,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>1389</v>
       </c>
@@ -11635,7 +11634,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>1390</v>
       </c>
@@ -11674,7 +11673,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>1391</v>
       </c>
@@ -11715,7 +11714,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>1392</v>
       </c>
@@ -11756,7 +11755,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>1393</v>
       </c>
@@ -11797,7 +11796,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>1394</v>
       </c>
@@ -11836,7 +11835,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>1395</v>
       </c>
@@ -11877,7 +11876,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>1396</v>
       </c>
@@ -11918,7 +11917,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>1397</v>
       </c>
@@ -11959,7 +11958,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>1398</v>
       </c>
@@ -11990,7 +11989,7 @@
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
     </row>
-    <row r="109" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>1399</v>
       </c>
@@ -12029,7 +12028,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>1400</v>
       </c>
@@ -12068,7 +12067,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>1401</v>
       </c>
@@ -12107,7 +12106,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="112" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>1402</v>
       </c>
@@ -12146,7 +12145,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>1403</v>
       </c>
@@ -12185,7 +12184,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>1404</v>
       </c>
@@ -12224,7 +12223,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>1405</v>
       </c>
@@ -12263,7 +12262,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="116" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>1406</v>
       </c>
@@ -12302,7 +12301,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>1407</v>
       </c>
@@ -12341,7 +12340,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>1408</v>
       </c>
@@ -12380,7 +12379,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>1409</v>
       </c>
@@ -12419,7 +12418,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>1410</v>
       </c>
@@ -12456,7 +12455,7 @@
       </c>
       <c r="M120" s="6"/>
     </row>
-    <row r="121" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>1411</v>
       </c>
@@ -12495,7 +12494,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>1412</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>1413</v>
       </c>
@@ -12573,7 +12572,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="124" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>1414</v>
       </c>
@@ -12612,7 +12611,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="125" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>1415</v>
       </c>
@@ -12651,7 +12650,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="126" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>1416</v>
       </c>
@@ -12690,7 +12689,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>1417</v>
       </c>
@@ -12729,7 +12728,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="128" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>1418</v>
       </c>
@@ -12768,7 +12767,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="129" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>1419</v>
       </c>
@@ -12807,7 +12806,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>1420</v>
       </c>
@@ -12846,7 +12845,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>1421</v>
       </c>
@@ -12885,7 +12884,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>1422</v>
       </c>
@@ -12924,7 +12923,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="133" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>1423</v>
       </c>
@@ -12963,7 +12962,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="134" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>1424</v>
       </c>
@@ -13002,7 +13001,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="135" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>1425</v>
       </c>
@@ -13033,7 +13032,7 @@
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
     </row>
-    <row r="136" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>1426</v>
       </c>
@@ -13072,7 +13071,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="137" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>1427</v>
       </c>
@@ -13111,7 +13110,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="138" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>1428</v>
       </c>
@@ -13150,7 +13149,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="139" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>1429</v>
       </c>
@@ -13189,7 +13188,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="140" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>1430</v>
       </c>
@@ -13228,7 +13227,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="141" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>1431</v>
       </c>
@@ -13267,7 +13266,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="142" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>1432</v>
       </c>
@@ -13306,7 +13305,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="143" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>1433</v>
       </c>
@@ -13345,7 +13344,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="144" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>1434</v>
       </c>
@@ -13384,7 +13383,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="145" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>1435</v>
       </c>
@@ -13423,7 +13422,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="146" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>1436</v>
       </c>
@@ -13462,7 +13461,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="147" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>1437</v>
       </c>
@@ -13501,7 +13500,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="148" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>1438</v>
       </c>
@@ -13540,7 +13539,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="149" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>1439</v>
       </c>
@@ -13579,7 +13578,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="150" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>1440</v>
       </c>
@@ -13618,7 +13617,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="151" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>1441</v>
       </c>
@@ -13657,7 +13656,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="152" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>1442</v>
       </c>
@@ -13696,7 +13695,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="153" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>1443</v>
       </c>
@@ -13735,7 +13734,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="154" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>1444</v>
       </c>
@@ -13774,7 +13773,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="155" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>1445</v>
       </c>
@@ -13813,7 +13812,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="156" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>1446</v>
       </c>
@@ -13852,7 +13851,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="157" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>1447</v>
       </c>
@@ -13891,7 +13890,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="158" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>1448</v>
       </c>
@@ -13930,7 +13929,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="159" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>1449</v>
       </c>
@@ -13969,7 +13968,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="160" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>1450</v>
       </c>
@@ -14008,7 +14007,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="161" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>1451</v>
       </c>
@@ -14045,7 +14044,7 @@
       </c>
       <c r="M161" s="6"/>
     </row>
-    <row r="162" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>1452</v>
       </c>
@@ -14084,7 +14083,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="163" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>1453</v>
       </c>
@@ -14121,7 +14120,7 @@
       </c>
       <c r="M163" s="6"/>
     </row>
-    <row r="164" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>1454</v>
       </c>
@@ -14160,7 +14159,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="165" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>1455</v>
       </c>
@@ -14199,7 +14198,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="166" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>1456</v>
       </c>
@@ -14238,7 +14237,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="167" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>1457</v>
       </c>
@@ -14277,7 +14276,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="168" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>1458</v>
       </c>
@@ -14316,7 +14315,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="169" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>1459</v>
       </c>
@@ -14355,7 +14354,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="170" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>1460</v>
       </c>
@@ -14394,7 +14393,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="171" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>1461</v>
       </c>
@@ -14433,7 +14432,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="172" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>1462</v>
       </c>
@@ -14472,7 +14471,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="173" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>1463</v>
       </c>
@@ -14511,7 +14510,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="174" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>1464</v>
       </c>
@@ -14550,7 +14549,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="175" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>1465</v>
       </c>
@@ -14589,7 +14588,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="176" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>1466</v>
       </c>
@@ -14628,7 +14627,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="177" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>1467</v>
       </c>
@@ -14667,7 +14666,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="178" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>1468</v>
       </c>
@@ -14706,7 +14705,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="179" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>1469</v>
       </c>
@@ -14745,7 +14744,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="180" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>1470</v>
       </c>
@@ -14784,7 +14783,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="181" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>1471</v>
       </c>
@@ -14823,7 +14822,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="182" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>1472</v>
       </c>
@@ -14862,7 +14861,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="183" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>1473</v>
       </c>
@@ -14901,7 +14900,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="184" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>1474</v>
       </c>
@@ -14940,7 +14939,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="185" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>1475</v>
       </c>
@@ -14979,7 +14978,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="186" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>1476</v>
       </c>
@@ -15010,7 +15009,7 @@
       <c r="L186" s="6"/>
       <c r="M186" s="6"/>
     </row>
-    <row r="187" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>1477</v>
       </c>
@@ -15049,7 +15048,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="188" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>1478</v>
       </c>
@@ -15088,7 +15087,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="189" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>1479</v>
       </c>
@@ -15125,7 +15124,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="190" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>1480</v>
       </c>
@@ -15162,7 +15161,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="191" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>1481</v>
       </c>
@@ -15199,7 +15198,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="192" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>1482</v>
       </c>
@@ -15236,7 +15235,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="193" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>1483</v>
       </c>
@@ -15273,7 +15272,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="194" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>1484</v>
       </c>
@@ -15310,7 +15309,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="195" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>1485</v>
       </c>
@@ -15347,7 +15346,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="196" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>1486</v>
       </c>
@@ -15384,7 +15383,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="197" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>1487</v>
       </c>
@@ -15421,7 +15420,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="198" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>1488</v>
       </c>
@@ -15462,7 +15461,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="199" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>1489</v>
       </c>
@@ -15501,7 +15500,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="200" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>1490</v>
       </c>
@@ -15542,7 +15541,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="201" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>1491</v>
       </c>
@@ -15579,7 +15578,7 @@
       </c>
       <c r="M201" s="6"/>
     </row>
-    <row r="202" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>1492</v>
       </c>
@@ -15620,7 +15619,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="203" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>1493</v>
       </c>
@@ -15661,7 +15660,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="204" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>1494</v>
       </c>
@@ -15702,7 +15701,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="205" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>1495</v>
       </c>
@@ -15743,7 +15742,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="206" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>1496</v>
       </c>
@@ -15784,7 +15783,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="207" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>1497</v>
       </c>
@@ -15825,7 +15824,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="208" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>1498</v>
       </c>
@@ -15864,7 +15863,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="209" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>1499</v>
       </c>
@@ -15905,7 +15904,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="210" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>1500</v>
       </c>
@@ -15946,7 +15945,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="211" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>1501</v>
       </c>
@@ -15987,7 +15986,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="212" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>1502</v>
       </c>
@@ -16028,7 +16027,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="213" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>1503</v>
       </c>
@@ -16067,7 +16066,7 @@
       </c>
       <c r="M213" s="6"/>
     </row>
-    <row r="214" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>1504</v>
       </c>
@@ -16108,7 +16107,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="215" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>1505</v>
       </c>
@@ -16149,7 +16148,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="216" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>1506</v>
       </c>
@@ -16188,7 +16187,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="217" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>1507</v>
       </c>
@@ -16229,7 +16228,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="218" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>1508</v>
       </c>
@@ -16270,7 +16269,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="219" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>1509</v>
       </c>
@@ -16309,7 +16308,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="220" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>1510</v>
       </c>
@@ -16350,7 +16349,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="221" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>1511</v>
       </c>
@@ -16389,7 +16388,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="222" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>1512</v>
       </c>
@@ -16430,7 +16429,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="223" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>1513</v>
       </c>
@@ -16471,7 +16470,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="224" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>1514</v>
       </c>
@@ -16510,7 +16509,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="225" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>1515</v>
       </c>
@@ -16549,7 +16548,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="226" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>1516</v>
       </c>
@@ -16588,7 +16587,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="227" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>1517</v>
       </c>
@@ -16627,7 +16626,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="228" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>1518</v>
       </c>
@@ -16666,7 +16665,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="229" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>1519</v>
       </c>
@@ -16705,7 +16704,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="230" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>1520</v>
       </c>
@@ -16744,7 +16743,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="231" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>1521</v>
       </c>
@@ -16783,7 +16782,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="232" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>1522</v>
       </c>
@@ -16822,7 +16821,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="233" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>1523</v>
       </c>
@@ -16861,7 +16860,7 @@
         <v>3004362366</v>
       </c>
     </row>
-    <row r="234" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>1524</v>
       </c>
@@ -16900,7 +16899,7 @@
         <v>3223645385</v>
       </c>
     </row>
-    <row r="235" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>1525</v>
       </c>
@@ -16939,7 +16938,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="236" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>1526</v>
       </c>
@@ -16978,7 +16977,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="237" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>1527</v>
       </c>
@@ -17017,7 +17016,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="238" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>1528</v>
       </c>
@@ -17056,7 +17055,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="239" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>1529</v>
       </c>
@@ -17095,7 +17094,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="240" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>1530</v>
       </c>
@@ -17134,7 +17133,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="241" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>1531</v>
       </c>
@@ -17173,7 +17172,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="242" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>1532</v>
       </c>
@@ -17212,7 +17211,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="243" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>1533</v>
       </c>
@@ -17251,7 +17250,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="244" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>1534</v>
       </c>
@@ -17290,7 +17289,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="245" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>1535</v>
       </c>
@@ -17329,7 +17328,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="246" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>1536</v>
       </c>
@@ -17368,7 +17367,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="247" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>1537</v>
       </c>
@@ -17407,7 +17406,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="248" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>1538</v>
       </c>
@@ -17446,7 +17445,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="249" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>1539</v>
       </c>
@@ -17487,7 +17486,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="250" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>1540</v>
       </c>
@@ -17524,7 +17523,7 @@
       </c>
       <c r="M250" s="6"/>
     </row>
-    <row r="251" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>1541</v>
       </c>
@@ -17563,7 +17562,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="252" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>1542</v>
       </c>
@@ -17602,7 +17601,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="253" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>1543</v>
       </c>
@@ -17641,7 +17640,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="254" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <v>1544</v>
       </c>
@@ -17680,7 +17679,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="255" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
         <v>1545</v>
       </c>
@@ -17719,7 +17718,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="256" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
         <v>1546</v>
       </c>
@@ -17760,7 +17759,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="257" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
         <v>1547</v>
       </c>
@@ -17801,7 +17800,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="258" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
         <v>1548</v>
       </c>
@@ -17842,7 +17841,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="259" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
         <v>1549</v>
       </c>
@@ -17883,7 +17882,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="260" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
         <v>1550</v>
       </c>
@@ -17924,7 +17923,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="261" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
         <v>1551</v>
       </c>
@@ -17965,7 +17964,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="262" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
         <v>1552</v>
       </c>
@@ -18006,7 +18005,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="263" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
         <v>1553</v>
       </c>
@@ -18045,7 +18044,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="264" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
         <v>1554</v>
       </c>
@@ -18086,7 +18085,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="265" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
         <v>1555</v>
       </c>
@@ -18127,7 +18126,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="266" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
         <v>1556</v>
       </c>
@@ -18168,7 +18167,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="267" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
         <v>1557</v>
       </c>
@@ -18209,7 +18208,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="268" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
         <v>1558</v>
       </c>
@@ -18250,7 +18249,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="269" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
         <v>1559</v>
       </c>
@@ -18289,7 +18288,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="270" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
         <v>1560</v>
       </c>
@@ -18330,7 +18329,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="271" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
         <v>1561</v>
       </c>
@@ -18369,7 +18368,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="272" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
         <v>1562</v>
       </c>
@@ -18408,7 +18407,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="273" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
         <v>1563</v>
       </c>
@@ -18447,7 +18446,7 @@
       </c>
       <c r="M273" s="6"/>
     </row>
-    <row r="274" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4">
         <v>1564</v>
       </c>
@@ -18486,7 +18485,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="275" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4">
         <v>1565</v>
       </c>
@@ -18527,7 +18526,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="276" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4">
         <v>1566</v>
       </c>
@@ -18566,7 +18565,7 @@
       </c>
       <c r="M276" s="6"/>
     </row>
-    <row r="277" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
         <v>1567</v>
       </c>
@@ -18607,7 +18606,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="278" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
         <v>1568</v>
       </c>
@@ -18648,7 +18647,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="279" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
         <v>1569</v>
       </c>
@@ -18685,7 +18684,7 @@
       </c>
       <c r="M279" s="6"/>
     </row>
-    <row r="280" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
         <v>1570</v>
       </c>
@@ -18726,7 +18725,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="281" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4">
         <v>1571</v>
       </c>
@@ -18767,7 +18766,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="282" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
         <v>1572</v>
       </c>
@@ -18808,7 +18807,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="283" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
         <v>1573</v>
       </c>
@@ -18849,7 +18848,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="284" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4">
         <v>1574</v>
       </c>
@@ -18890,7 +18889,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="285" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
         <v>1575</v>
       </c>
@@ -18931,7 +18930,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="286" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
         <v>1576</v>
       </c>
@@ -18970,7 +18969,7 @@
       </c>
       <c r="M286" s="6"/>
     </row>
-    <row r="287" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
         <v>1577</v>
       </c>
@@ -19009,7 +19008,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="288" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
         <v>1578</v>
       </c>
@@ -19048,7 +19047,7 @@
         <v>3474434450</v>
       </c>
     </row>
-    <row r="289" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
         <v>1579</v>
       </c>
@@ -19087,7 +19086,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="290" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
         <v>1580</v>
       </c>
@@ -19126,7 +19125,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="291" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
         <v>1581</v>
       </c>
@@ -19165,7 +19164,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="292" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4">
         <v>1582</v>
       </c>
@@ -19202,7 +19201,7 @@
       </c>
       <c r="M292" s="6"/>
     </row>
-    <row r="293" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4">
         <v>1583</v>
       </c>
@@ -19241,7 +19240,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="294" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4">
         <v>1584</v>
       </c>
@@ -19278,7 +19277,7 @@
       </c>
       <c r="M294" s="6"/>
     </row>
-    <row r="295" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4">
         <v>1585</v>
       </c>
@@ -19317,7 +19316,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="296" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4">
         <v>1586</v>
       </c>
@@ -19356,7 +19355,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="297" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4">
         <v>1587</v>
       </c>
@@ -19395,7 +19394,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="298" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4">
         <v>1588</v>
       </c>
@@ -19434,7 +19433,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="299" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4">
         <v>1589</v>
       </c>
@@ -19473,7 +19472,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="300" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4">
         <v>1590</v>
       </c>
@@ -19512,7 +19511,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="301" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4">
         <v>1591</v>
       </c>
@@ -19551,7 +19550,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="302" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4">
         <v>1592</v>
       </c>
@@ -19590,7 +19589,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="303" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4">
         <v>1593</v>
       </c>
@@ -19629,7 +19628,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="304" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4">
         <v>1594</v>
       </c>
@@ -19668,7 +19667,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="305" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4">
         <v>1595</v>
       </c>
@@ -19707,7 +19706,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="306" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4">
         <v>1596</v>
       </c>
@@ -19746,7 +19745,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="307" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4">
         <v>1597</v>
       </c>
@@ -19785,7 +19784,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="308" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4">
         <v>1598</v>
       </c>
@@ -19824,7 +19823,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="309" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4">
         <v>1599</v>
       </c>
@@ -19863,7 +19862,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="310" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4">
         <v>1600</v>
       </c>
@@ -19902,7 +19901,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="311" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4">
         <v>1601</v>
       </c>
@@ -19941,7 +19940,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="312" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4">
         <v>1602</v>
       </c>
@@ -19980,7 +19979,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="313" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4">
         <v>1603</v>
       </c>
@@ -20019,7 +20018,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="314" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4">
         <v>1604</v>
       </c>
@@ -20058,7 +20057,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="315" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4">
         <v>1605</v>
       </c>
@@ -20097,7 +20096,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="316" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4">
         <v>1606</v>
       </c>
@@ -20134,7 +20133,7 @@
       </c>
       <c r="M316" s="6"/>
     </row>
-    <row r="317" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4">
         <v>1607</v>
       </c>
@@ -20173,7 +20172,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="318" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4">
         <v>1608</v>
       </c>
@@ -20212,7 +20211,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="319" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4">
         <v>1609</v>
       </c>
@@ -20253,7 +20252,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="320" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4">
         <v>1610</v>
       </c>
@@ -20292,7 +20291,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="321" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4">
         <v>1611</v>
       </c>
@@ -20331,7 +20330,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="322" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4">
         <v>1612</v>
       </c>
@@ -20368,7 +20367,7 @@
       </c>
       <c r="M322" s="6"/>
     </row>
-    <row r="323" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4">
         <v>1613</v>
       </c>
@@ -20405,7 +20404,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="324" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4">
         <v>1614</v>
       </c>
@@ -20446,7 +20445,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="325" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4">
         <v>1615</v>
       </c>
@@ -20485,7 +20484,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="326" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4">
         <v>1616</v>
       </c>
@@ -20524,7 +20523,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="327" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4">
         <v>1617</v>
       </c>
@@ -20563,7 +20562,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="328" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4">
         <v>1618</v>
       </c>
@@ -20602,7 +20601,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="329" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4">
         <v>1619</v>
       </c>
@@ -20641,7 +20640,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="330" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4">
         <v>1620</v>
       </c>
@@ -20680,7 +20679,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="331" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4">
         <v>1621</v>
       </c>
@@ -20719,7 +20718,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="332" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4">
         <v>1622</v>
       </c>
@@ -20735,7 +20734,9 @@
       <c r="E332" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="F332" s="5"/>
+      <c r="F332" s="5" t="s">
+        <v>2385</v>
+      </c>
       <c r="G332" s="5" t="s">
         <v>740</v>
       </c>
@@ -20758,7 +20759,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="333" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4">
         <v>1623</v>
       </c>
@@ -20774,7 +20775,9 @@
       <c r="E333" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="F333" s="5"/>
+      <c r="F333" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G333" s="5" t="s">
         <v>742</v>
       </c>
@@ -20797,7 +20800,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="334" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4">
         <v>1624</v>
       </c>
@@ -20813,7 +20816,9 @@
       <c r="E334" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="F334" s="5"/>
+      <c r="F334" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G334" s="5" t="s">
         <v>744</v>
       </c>
@@ -20836,7 +20841,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="335" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4">
         <v>1625</v>
       </c>
@@ -20852,7 +20857,9 @@
       <c r="E335" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="F335" s="5"/>
+      <c r="F335" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G335" s="5" t="s">
         <v>114</v>
       </c>
@@ -20875,7 +20882,7 @@
         <v>3204609868</v>
       </c>
     </row>
-    <row r="336" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4">
         <v>1626</v>
       </c>
@@ -20891,7 +20898,9 @@
       <c r="E336" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="F336" s="5"/>
+      <c r="F336" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G336" s="5" t="s">
         <v>747</v>
       </c>
@@ -20914,7 +20923,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="337" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4">
         <v>1627</v>
       </c>
@@ -20953,7 +20962,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="338" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4">
         <v>1628</v>
       </c>
@@ -20969,7 +20978,9 @@
       <c r="E338" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="F338" s="5"/>
+      <c r="F338" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G338" s="5" t="s">
         <v>39</v>
       </c>
@@ -20992,7 +21003,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="339" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4">
         <v>1629</v>
       </c>
@@ -21008,7 +21019,9 @@
       <c r="E339" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="F339" s="5"/>
+      <c r="F339" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G339" s="5" t="s">
         <v>752</v>
       </c>
@@ -21031,7 +21044,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="340" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4">
         <v>1630</v>
       </c>
@@ -21070,7 +21083,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="341" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4">
         <v>1631</v>
       </c>
@@ -21109,7 +21122,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="342" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4">
         <v>1632</v>
       </c>
@@ -21125,7 +21138,9 @@
       <c r="E342" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="F342" s="5"/>
+      <c r="F342" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G342" s="5" t="s">
         <v>758</v>
       </c>
@@ -21148,7 +21163,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="343" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4">
         <v>1633</v>
       </c>
@@ -21164,7 +21179,9 @@
       <c r="E343" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="F343" s="5"/>
+      <c r="F343" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G343" s="5" t="s">
         <v>760</v>
       </c>
@@ -21187,7 +21204,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="344" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4">
         <v>1634</v>
       </c>
@@ -21203,7 +21220,9 @@
       <c r="E344" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="F344" s="5"/>
+      <c r="F344" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G344" s="5" t="s">
         <v>111</v>
       </c>
@@ -21226,7 +21245,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="345" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4">
         <v>1635</v>
       </c>
@@ -21267,7 +21286,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="346" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4">
         <v>1636</v>
       </c>
@@ -21308,7 +21327,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="347" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4">
         <v>1637</v>
       </c>
@@ -21349,7 +21368,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="348" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4">
         <v>1638</v>
       </c>
@@ -21390,7 +21409,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="349" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4">
         <v>1639</v>
       </c>
@@ -21431,7 +21450,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="350" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4">
         <v>1640</v>
       </c>
@@ -21472,7 +21491,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="351" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4">
         <v>1641</v>
       </c>
@@ -21513,7 +21532,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="352" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4">
         <v>1642</v>
       </c>
@@ -21554,7 +21573,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="353" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4">
         <v>1643</v>
       </c>
@@ -21595,7 +21614,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="354" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4">
         <v>1644</v>
       </c>
@@ -21636,7 +21655,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="355" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4">
         <v>1645</v>
       </c>
@@ -21677,7 +21696,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="356" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4">
         <v>1646</v>
       </c>
@@ -21718,7 +21737,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="357" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4">
         <v>1647</v>
       </c>
@@ -21757,7 +21776,7 @@
       </c>
       <c r="M357" s="6"/>
     </row>
-    <row r="358" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4">
         <v>1648</v>
       </c>
@@ -21798,7 +21817,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="359" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4">
         <v>1649</v>
       </c>
@@ -21839,7 +21858,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="360" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4">
         <v>1650</v>
       </c>
@@ -21880,7 +21899,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="361" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4">
         <v>1651</v>
       </c>
@@ -21919,7 +21938,7 @@
       </c>
       <c r="M361" s="6"/>
     </row>
-    <row r="362" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4">
         <v>1652</v>
       </c>
@@ -21960,7 +21979,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="363" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4">
         <v>1653</v>
       </c>
@@ -22001,7 +22020,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="364" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4">
         <v>1654</v>
       </c>
@@ -22042,7 +22061,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="365" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4">
         <v>1655</v>
       </c>
@@ -22083,7 +22102,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="366" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4">
         <v>1656</v>
       </c>
@@ -22124,7 +22143,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="367" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4">
         <v>1657</v>
       </c>
@@ -22165,7 +22184,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="368" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4">
         <v>1658</v>
       </c>
@@ -22206,7 +22225,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="369" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4">
         <v>1659</v>
       </c>
@@ -22247,7 +22266,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="370" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4">
         <v>1660</v>
       </c>
@@ -22288,7 +22307,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="371" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="4">
         <v>1661</v>
       </c>
@@ -22329,7 +22348,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="372" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4">
         <v>1662</v>
       </c>
@@ -22368,7 +22387,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="373" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4">
         <v>1663</v>
       </c>
@@ -22409,7 +22428,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="374" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="4">
         <v>1664</v>
       </c>
@@ -22450,7 +22469,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="375" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4">
         <v>1665</v>
       </c>
@@ -22491,7 +22510,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="376" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4">
         <v>1666</v>
       </c>
@@ -22530,7 +22549,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="377" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="4">
         <v>1667</v>
       </c>
@@ -22569,7 +22588,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="378" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4">
         <v>1668</v>
       </c>
@@ -22610,7 +22629,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="379" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4">
         <v>1669</v>
       </c>
@@ -22651,7 +22670,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="380" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="4">
         <v>1670</v>
       </c>
@@ -22692,7 +22711,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="381" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4">
         <v>1671</v>
       </c>
@@ -22733,7 +22752,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="382" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="4">
         <v>1672</v>
       </c>
@@ -22774,7 +22793,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="383" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4">
         <v>1673</v>
       </c>
@@ -22815,7 +22834,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="384" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4">
         <v>1674</v>
       </c>
@@ -22856,7 +22875,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="385" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4">
         <v>1675</v>
       </c>
@@ -22897,7 +22916,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="386" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4">
         <v>1676</v>
       </c>
@@ -22936,7 +22955,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="387" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4">
         <v>1677</v>
       </c>
@@ -22977,7 +22996,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="388" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4">
         <v>1678</v>
       </c>
@@ -23018,7 +23037,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="389" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4">
         <v>1679</v>
       </c>
@@ -23057,7 +23076,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="390" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4">
         <v>1680</v>
       </c>
@@ -23096,7 +23115,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="391" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4">
         <v>1681</v>
       </c>
@@ -23135,7 +23154,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="392" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4">
         <v>1682</v>
       </c>
@@ -23174,7 +23193,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="393" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4">
         <v>1683</v>
       </c>
@@ -23215,7 +23234,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="394" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4">
         <v>1684</v>
       </c>
@@ -23256,7 +23275,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="395" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4">
         <v>1685</v>
       </c>
@@ -23297,7 +23316,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="396" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="4">
         <v>1686</v>
       </c>
@@ -23338,7 +23357,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="397" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4">
         <v>1687</v>
       </c>
@@ -23377,7 +23396,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="398" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4">
         <v>1688</v>
       </c>
@@ -23418,7 +23437,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="399" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4">
         <v>1689</v>
       </c>
@@ -23457,7 +23476,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="400" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4">
         <v>1690</v>
       </c>
@@ -23494,7 +23513,7 @@
       </c>
       <c r="M400" s="6"/>
     </row>
-    <row r="401" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4">
         <v>1691</v>
       </c>
@@ -23535,7 +23554,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="402" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4">
         <v>1692</v>
       </c>
@@ -23576,7 +23595,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="403" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4">
         <v>1693</v>
       </c>
@@ -23656,7 +23675,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="405" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4">
         <v>1695</v>
       </c>
@@ -23697,7 +23716,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="406" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4">
         <v>1696</v>
       </c>
@@ -23738,7 +23757,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="407" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4">
         <v>1697</v>
       </c>
@@ -23779,7 +23798,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="408" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4">
         <v>1698</v>
       </c>
@@ -23816,7 +23835,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="409" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4">
         <v>1699</v>
       </c>
@@ -23857,7 +23876,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="410" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4">
         <v>1700</v>
       </c>
@@ -23898,7 +23917,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="411" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4">
         <v>1701</v>
       </c>
@@ -23939,7 +23958,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="412" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="4">
         <v>1702</v>
       </c>
@@ -23980,7 +23999,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="413" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="4">
         <v>1703</v>
       </c>
@@ -24019,7 +24038,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="414" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4">
         <v>1704</v>
       </c>
@@ -24058,7 +24077,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="415" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="4">
         <v>1705</v>
       </c>
@@ -24097,7 +24116,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="416" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="4">
         <v>1706</v>
       </c>
@@ -24136,7 +24155,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="417" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="4">
         <v>1707</v>
       </c>
@@ -24175,7 +24194,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="418" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="4">
         <v>1708</v>
       </c>
@@ -24214,7 +24233,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="419" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4">
         <v>1709</v>
       </c>
@@ -24253,7 +24272,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="420" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4">
         <v>1710</v>
       </c>
@@ -24292,7 +24311,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="421" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="4">
         <v>1711</v>
       </c>
@@ -24331,7 +24350,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="422" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4">
         <v>1712</v>
       </c>
@@ -24370,7 +24389,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="423" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="4">
         <v>1713</v>
       </c>
@@ -24409,7 +24428,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="424" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="4">
         <v>1714</v>
       </c>
@@ -24448,7 +24467,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="425" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="4">
         <v>1715</v>
       </c>
@@ -24487,7 +24506,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="426" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="4">
         <v>1716</v>
       </c>
@@ -24503,7 +24522,9 @@
       <c r="E426" s="5" t="s">
         <v>917</v>
       </c>
-      <c r="F426" s="5"/>
+      <c r="F426" s="5" t="s">
+        <v>2385</v>
+      </c>
       <c r="G426" s="5" t="s">
         <v>918</v>
       </c>
@@ -24526,7 +24547,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="427" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4">
         <v>1717</v>
       </c>
@@ -24565,7 +24586,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="428" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="4">
         <v>1718</v>
       </c>
@@ -24581,7 +24602,9 @@
       <c r="E428" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="F428" s="5"/>
+      <c r="F428" s="5" t="s">
+        <v>2385</v>
+      </c>
       <c r="G428" s="5" t="s">
         <v>922</v>
       </c>
@@ -24604,7 +24627,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="429" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="4">
         <v>1719</v>
       </c>
@@ -24620,7 +24643,9 @@
       <c r="E429" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="F429" s="5"/>
+      <c r="F429" s="5" t="s">
+        <v>2385</v>
+      </c>
       <c r="G429" s="5" t="s">
         <v>924</v>
       </c>
@@ -24643,7 +24668,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="430" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="4">
         <v>1720</v>
       </c>
@@ -24682,7 +24707,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="431" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="4">
         <v>1721</v>
       </c>
@@ -24698,7 +24723,9 @@
       <c r="E431" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="F431" s="5"/>
+      <c r="F431" s="5" t="s">
+        <v>2385</v>
+      </c>
       <c r="G431" s="5" t="s">
         <v>927</v>
       </c>
@@ -24721,7 +24748,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="432" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="4">
         <v>1722</v>
       </c>
@@ -24737,7 +24764,9 @@
       <c r="E432" s="5" t="s">
         <v>928</v>
       </c>
-      <c r="F432" s="5"/>
+      <c r="F432" s="5" t="s">
+        <v>2385</v>
+      </c>
       <c r="G432" s="5" t="s">
         <v>929</v>
       </c>
@@ -24760,7 +24789,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="433" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="4">
         <v>1723</v>
       </c>
@@ -24776,7 +24805,9 @@
       <c r="E433" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="F433" s="5"/>
+      <c r="F433" s="5" t="s">
+        <v>2385</v>
+      </c>
       <c r="G433" s="5" t="s">
         <v>8</v>
       </c>
@@ -24799,7 +24830,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="434" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4">
         <v>1724</v>
       </c>
@@ -24815,7 +24846,9 @@
       <c r="E434" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="F434" s="5"/>
+      <c r="F434" s="5" t="s">
+        <v>2385</v>
+      </c>
       <c r="G434" s="5" t="s">
         <v>932</v>
       </c>
@@ -24838,7 +24871,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="435" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4">
         <v>1725</v>
       </c>
@@ -24877,7 +24910,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="436" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="4">
         <v>1726</v>
       </c>
@@ -24916,7 +24949,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="437" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="4">
         <v>1727</v>
       </c>
@@ -24955,7 +24988,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="438" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4">
         <v>1728</v>
       </c>
@@ -24994,7 +25027,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="439" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4">
         <v>1729</v>
       </c>
@@ -25033,7 +25066,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="440" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4">
         <v>1730</v>
       </c>
@@ -25072,7 +25105,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="441" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="4">
         <v>1731</v>
       </c>
@@ -25111,7 +25144,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="442" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="4">
         <v>1732</v>
       </c>
@@ -25150,7 +25183,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="443" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="4">
         <v>1733</v>
       </c>
@@ -25187,7 +25220,7 @@
       </c>
       <c r="M443" s="6"/>
     </row>
-    <row r="444" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="4">
         <v>1734</v>
       </c>
@@ -25226,7 +25259,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="445" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="4">
         <v>1735</v>
       </c>
@@ -25263,7 +25296,7 @@
       </c>
       <c r="M445" s="6"/>
     </row>
-    <row r="446" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4">
         <v>1736</v>
       </c>
@@ -25302,7 +25335,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="447" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="4">
         <v>1737</v>
       </c>
@@ -25341,7 +25374,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="448" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="4">
         <v>1738</v>
       </c>
@@ -25380,7 +25413,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="449" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="4">
         <v>1739</v>
       </c>
@@ -25417,7 +25450,7 @@
       </c>
       <c r="M449" s="6"/>
     </row>
-    <row r="450" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="4">
         <v>1740</v>
       </c>
@@ -25456,7 +25489,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="451" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="4">
         <v>1741</v>
       </c>
@@ -25495,7 +25528,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="452" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="4">
         <v>1742</v>
       </c>
@@ -25534,7 +25567,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="453" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="4">
         <v>1743</v>
       </c>
@@ -25573,7 +25606,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="454" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="4">
         <v>1744</v>
       </c>
@@ -25612,7 +25645,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="455" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="4">
         <v>1745</v>
       </c>
@@ -25651,7 +25684,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="456" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="4">
         <v>1746</v>
       </c>
@@ -25690,7 +25723,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="457" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="4">
         <v>1747</v>
       </c>
@@ -25727,7 +25760,7 @@
       </c>
       <c r="M457" s="6"/>
     </row>
-    <row r="458" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="4">
         <v>1748</v>
       </c>
@@ -25766,7 +25799,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="459" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="4">
         <v>1749</v>
       </c>
@@ -25805,7 +25838,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="460" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4">
         <v>1750</v>
       </c>
@@ -25844,7 +25877,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="461" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="4">
         <v>1751</v>
       </c>
@@ -25883,7 +25916,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="462" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4">
         <v>1752</v>
       </c>
@@ -25922,7 +25955,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="463" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="4">
         <v>1753</v>
       </c>
@@ -25961,7 +25994,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="464" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="4">
         <v>1754</v>
       </c>
@@ -26000,7 +26033,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="465" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4">
         <v>1755</v>
       </c>
@@ -26037,7 +26070,7 @@
       </c>
       <c r="M465" s="6"/>
     </row>
-    <row r="466" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="4">
         <v>1756</v>
       </c>
@@ -26076,7 +26109,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="467" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="4">
         <v>1757</v>
       </c>
@@ -26115,7 +26148,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="468" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="4">
         <v>1758</v>
       </c>
@@ -26154,7 +26187,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="469" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="4">
         <v>1759</v>
       </c>
@@ -26193,7 +26226,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="470" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="4">
         <v>1760</v>
       </c>
@@ -26232,7 +26265,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="471" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="4">
         <v>1761</v>
       </c>
@@ -26271,7 +26304,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="472" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="4">
         <v>1762</v>
       </c>
@@ -26310,7 +26343,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="473" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="4">
         <v>1763</v>
       </c>
@@ -26349,7 +26382,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="474" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="4">
         <v>1764</v>
       </c>
@@ -26388,7 +26421,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="475" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="4">
         <v>1765</v>
       </c>
@@ -26427,7 +26460,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="476" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="4">
         <v>1766</v>
       </c>
@@ -26466,7 +26499,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="477" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="4">
         <v>1767</v>
       </c>
@@ -26505,7 +26538,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="478" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="4">
         <v>1768</v>
       </c>
@@ -26544,7 +26577,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="479" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="4">
         <v>1769</v>
       </c>
@@ -26583,7 +26616,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="480" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="4">
         <v>1770</v>
       </c>
@@ -26622,7 +26655,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="481" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4">
         <v>1771</v>
       </c>
@@ -26661,7 +26694,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="482" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4">
         <v>1772</v>
       </c>
@@ -26700,7 +26733,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="483" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4">
         <v>1773</v>
       </c>
@@ -26739,7 +26772,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="484" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="4">
         <v>1774</v>
       </c>
@@ -26778,7 +26811,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="485" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="4">
         <v>1775</v>
       </c>
@@ -26817,7 +26850,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="486" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="4">
         <v>1776</v>
       </c>
@@ -26856,7 +26889,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="487" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="4">
         <v>1777</v>
       </c>
@@ -26895,7 +26928,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="488" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="4">
         <v>1778</v>
       </c>
@@ -26934,7 +26967,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="489" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="4">
         <v>1779</v>
       </c>
@@ -26973,7 +27006,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="490" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="4">
         <v>1780</v>
       </c>
@@ -27012,7 +27045,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="491" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="4">
         <v>1781</v>
       </c>
@@ -27051,7 +27084,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="492" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="4">
         <v>1782</v>
       </c>
@@ -27090,7 +27123,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="493" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="4">
         <v>1783</v>
       </c>
@@ -27129,7 +27162,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="494" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="4">
         <v>1784</v>
       </c>
@@ -27168,7 +27201,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="495" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="4">
         <v>1785</v>
       </c>
@@ -27207,7 +27240,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="496" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="4">
         <v>1786</v>
       </c>
@@ -27246,7 +27279,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="497" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="4">
         <v>1787</v>
       </c>
@@ -27285,7 +27318,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="498" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="4">
         <v>1788</v>
       </c>
@@ -27322,7 +27355,7 @@
       </c>
       <c r="M498" s="6"/>
     </row>
-    <row r="499" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="4">
         <v>1789</v>
       </c>
@@ -27361,7 +27394,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="500" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="4">
         <v>1790</v>
       </c>
@@ -27400,7 +27433,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="501" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="4">
         <v>1791</v>
       </c>
@@ -27433,7 +27466,7 @@
       <c r="L501" s="6"/>
       <c r="M501" s="6"/>
     </row>
-    <row r="502" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="4">
         <v>1792</v>
       </c>
@@ -27466,7 +27499,7 @@
       <c r="L502" s="6"/>
       <c r="M502" s="6"/>
     </row>
-    <row r="503" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="4">
         <v>1793</v>
       </c>
@@ -27497,7 +27530,7 @@
       <c r="L503" s="6"/>
       <c r="M503" s="6"/>
     </row>
-    <row r="504" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="4">
         <v>1794</v>
       </c>
@@ -27534,7 +27567,7 @@
       </c>
       <c r="M504" s="6"/>
     </row>
-    <row r="505" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="4">
         <v>1795</v>
       </c>
@@ -27567,7 +27600,7 @@
       <c r="L505" s="6"/>
       <c r="M505" s="6"/>
     </row>
-    <row r="506" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="4">
         <v>1796</v>
       </c>
@@ -27600,7 +27633,7 @@
       <c r="L506" s="6"/>
       <c r="M506" s="6"/>
     </row>
-    <row r="507" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="4">
         <v>1797</v>
       </c>
@@ -27633,7 +27666,7 @@
       <c r="L507" s="6"/>
       <c r="M507" s="6"/>
     </row>
-    <row r="508" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="4">
         <v>1798</v>
       </c>
@@ -27666,7 +27699,7 @@
       <c r="L508" s="6"/>
       <c r="M508" s="6"/>
     </row>
-    <row r="509" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="4">
         <v>1799</v>
       </c>
@@ -27703,7 +27736,7 @@
       </c>
       <c r="M509" s="6"/>
     </row>
-    <row r="510" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="4">
         <v>1800</v>
       </c>
@@ -27742,7 +27775,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="511" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="4">
         <v>1801</v>
       </c>
@@ -27758,7 +27791,9 @@
       <c r="E511" s="5" t="s">
         <v>1057</v>
       </c>
-      <c r="F511" s="5"/>
+      <c r="F511" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G511" s="5" t="s">
         <v>1058</v>
       </c>
@@ -27781,7 +27816,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="512" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="4">
         <v>1802</v>
       </c>
@@ -27797,7 +27832,9 @@
       <c r="E512" s="5" t="s">
         <v>1060</v>
       </c>
-      <c r="F512" s="5"/>
+      <c r="F512" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G512" s="5" t="s">
         <v>1061</v>
       </c>
@@ -27820,7 +27857,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="513" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="4">
         <v>1803</v>
       </c>
@@ -27859,7 +27896,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="514" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="4">
         <v>1804</v>
       </c>
@@ -27875,7 +27912,9 @@
       <c r="E514" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="F514" s="5"/>
+      <c r="F514" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G514" s="5" t="s">
         <v>1064</v>
       </c>
@@ -27898,7 +27937,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="515" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="4">
         <v>1805</v>
       </c>
@@ -27929,7 +27968,7 @@
       <c r="L515" s="6"/>
       <c r="M515" s="6"/>
     </row>
-    <row r="516" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="4">
         <v>1806</v>
       </c>
@@ -27945,7 +27984,9 @@
       <c r="E516" s="5" t="s">
         <v>1067</v>
       </c>
-      <c r="F516" s="5"/>
+      <c r="F516" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G516" s="5" t="s">
         <v>1068</v>
       </c>
@@ -27968,7 +28009,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="517" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="4">
         <v>1807</v>
       </c>
@@ -27984,7 +28025,9 @@
       <c r="E517" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="F517" s="5"/>
+      <c r="F517" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G517" s="5" t="s">
         <v>76</v>
       </c>
@@ -28007,7 +28050,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="518" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="4">
         <v>1808</v>
       </c>
@@ -28023,7 +28066,9 @@
       <c r="E518" s="5" t="s">
         <v>1071</v>
       </c>
-      <c r="F518" s="5"/>
+      <c r="F518" s="5" t="s">
+        <v>2385</v>
+      </c>
       <c r="G518" s="5" t="s">
         <v>78</v>
       </c>
@@ -28046,7 +28091,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="519" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="4">
         <v>1809</v>
       </c>
@@ -28085,7 +28130,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="520" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="4">
         <v>1810</v>
       </c>
@@ -28101,7 +28146,9 @@
       <c r="E520" s="5" t="s">
         <v>1073</v>
       </c>
-      <c r="F520" s="5"/>
+      <c r="F520" s="5" t="s">
+        <v>2385</v>
+      </c>
       <c r="G520" s="5" t="s">
         <v>72</v>
       </c>
@@ -28124,7 +28171,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="521" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="4">
         <v>1811</v>
       </c>
@@ -28140,7 +28187,9 @@
       <c r="E521" s="5" t="s">
         <v>1074</v>
       </c>
-      <c r="F521" s="5"/>
+      <c r="F521" s="5" t="s">
+        <v>2385</v>
+      </c>
       <c r="G521" s="5" t="s">
         <v>74</v>
       </c>
@@ -28163,7 +28212,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="522" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="4">
         <v>1812</v>
       </c>
@@ -28179,7 +28228,9 @@
       <c r="E522" s="5" t="s">
         <v>1075</v>
       </c>
-      <c r="F522" s="5"/>
+      <c r="F522" s="5" t="s">
+        <v>2385</v>
+      </c>
       <c r="G522" s="5" t="s">
         <v>75</v>
       </c>
@@ -28202,7 +28253,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="523" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="4">
         <v>1813</v>
       </c>
@@ -28218,7 +28269,9 @@
       <c r="E523" s="5" t="s">
         <v>1076</v>
       </c>
-      <c r="F523" s="5"/>
+      <c r="F523" s="5" t="s">
+        <v>2385</v>
+      </c>
       <c r="G523" s="5" t="s">
         <v>77</v>
       </c>
@@ -28241,7 +28294,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="524" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="4">
         <v>1814</v>
       </c>
@@ -28280,7 +28333,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="525" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="4">
         <v>1815</v>
       </c>
@@ -28319,7 +28372,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="526" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="4">
         <v>1816</v>
       </c>
@@ -28358,7 +28411,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="527" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="4">
         <v>1817</v>
       </c>
@@ -28389,7 +28442,7 @@
       <c r="L527" s="6"/>
       <c r="M527" s="6"/>
     </row>
-    <row r="528" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="4">
         <v>1818</v>
       </c>
@@ -28420,7 +28473,7 @@
       <c r="L528" s="6"/>
       <c r="M528" s="6"/>
     </row>
-    <row r="529" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="4">
         <v>1819</v>
       </c>
@@ -28459,7 +28512,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="530" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="4">
         <v>1820</v>
       </c>
@@ -28496,7 +28549,7 @@
       </c>
       <c r="M530" s="6"/>
     </row>
-    <row r="531" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="4">
         <v>1821</v>
       </c>
@@ -28527,7 +28580,7 @@
       <c r="L531" s="6"/>
       <c r="M531" s="6"/>
     </row>
-    <row r="532" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="4">
         <v>1822</v>
       </c>
@@ -28566,7 +28619,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="533" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="4">
         <v>1823</v>
       </c>
@@ -28605,7 +28658,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="534" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="4">
         <v>1824</v>
       </c>
@@ -28644,7 +28697,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="535" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="4">
         <v>1825</v>
       </c>
@@ -28683,7 +28736,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="536" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="4">
         <v>1826</v>
       </c>
@@ -28722,7 +28775,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="537" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="4">
         <v>1827</v>
       </c>
@@ -28761,7 +28814,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="538" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="4">
         <v>1828</v>
       </c>
@@ -28800,7 +28853,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="539" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="4">
         <v>1829</v>
       </c>
@@ -28831,7 +28884,7 @@
       <c r="L539" s="6"/>
       <c r="M539" s="6"/>
     </row>
-    <row r="540" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="4">
         <v>1830</v>
       </c>
@@ -28862,7 +28915,7 @@
       <c r="L540" s="6"/>
       <c r="M540" s="6"/>
     </row>
-    <row r="541" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="4">
         <v>1831</v>
       </c>
@@ -28901,7 +28954,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="542" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="4">
         <v>1832</v>
       </c>
@@ -28940,7 +28993,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="543" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="4">
         <v>1833</v>
       </c>
@@ -28977,7 +29030,7 @@
       </c>
       <c r="M543" s="6"/>
     </row>
-    <row r="544" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="4">
         <v>1834</v>
       </c>
@@ -29018,7 +29071,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="545" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="4">
         <v>1835</v>
       </c>
@@ -29059,7 +29112,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="546" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="4">
         <v>1836</v>
       </c>
@@ -29100,7 +29153,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="547" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="4">
         <v>1837</v>
       </c>
@@ -29131,7 +29184,7 @@
       <c r="L547" s="6"/>
       <c r="M547" s="6"/>
     </row>
-    <row r="548" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="4">
         <v>1838</v>
       </c>
@@ -29168,7 +29221,7 @@
       </c>
       <c r="M548" s="6"/>
     </row>
-    <row r="549" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="4">
         <v>1839</v>
       </c>
@@ -29209,7 +29262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="4">
         <v>1840</v>
       </c>
@@ -29240,7 +29293,7 @@
       <c r="L550" s="6"/>
       <c r="M550" s="6"/>
     </row>
-    <row r="551" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="4">
         <v>1841</v>
       </c>
@@ -29271,7 +29324,7 @@
       <c r="L551" s="6"/>
       <c r="M551" s="6"/>
     </row>
-    <row r="552" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="4">
         <v>1842</v>
       </c>
@@ -29302,7 +29355,7 @@
       <c r="L552" s="6"/>
       <c r="M552" s="6"/>
     </row>
-    <row r="553" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="4">
         <v>1843</v>
       </c>
@@ -29333,7 +29386,7 @@
       <c r="L553" s="6"/>
       <c r="M553" s="6"/>
     </row>
-    <row r="554" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="4">
         <v>1844</v>
       </c>
@@ -29364,7 +29417,7 @@
       <c r="L554" s="6"/>
       <c r="M554" s="6"/>
     </row>
-    <row r="555" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="4">
         <v>1845</v>
       </c>
@@ -29395,7 +29448,7 @@
       <c r="L555" s="6"/>
       <c r="M555" s="6"/>
     </row>
-    <row r="556" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="4">
         <v>1846</v>
       </c>
@@ -29426,7 +29479,7 @@
       <c r="L556" s="6"/>
       <c r="M556" s="6"/>
     </row>
-    <row r="557" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="4">
         <v>1847</v>
       </c>
@@ -29457,7 +29510,7 @@
       <c r="L557" s="6"/>
       <c r="M557" s="6"/>
     </row>
-    <row r="558" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="4">
         <v>1848</v>
       </c>
@@ -29473,7 +29526,9 @@
       <c r="E558" s="5" t="s">
         <v>1145</v>
       </c>
-      <c r="F558" s="5"/>
+      <c r="F558" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G558" s="5" t="s">
         <v>1146</v>
       </c>
@@ -29496,7 +29551,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="559" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="4">
         <v>1849</v>
       </c>
@@ -29527,7 +29582,7 @@
       <c r="L559" s="6"/>
       <c r="M559" s="6"/>
     </row>
-    <row r="560" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="4">
         <v>1850</v>
       </c>
@@ -29560,7 +29615,7 @@
       <c r="L560" s="6"/>
       <c r="M560" s="6"/>
     </row>
-    <row r="561" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="4">
         <v>1851</v>
       </c>
@@ -29576,7 +29631,9 @@
       <c r="E561" s="5" t="s">
         <v>1130</v>
       </c>
-      <c r="F561" s="5"/>
+      <c r="F561" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G561" s="5" t="s">
         <v>44</v>
       </c>
@@ -29599,7 +29656,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="562" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="4">
         <v>1852</v>
       </c>
@@ -29630,7 +29687,7 @@
       <c r="L562" s="6"/>
       <c r="M562" s="6"/>
     </row>
-    <row r="563" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="4">
         <v>1853</v>
       </c>
@@ -29667,7 +29724,7 @@
       </c>
       <c r="M563" s="6"/>
     </row>
-    <row r="564" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="4">
         <v>1854</v>
       </c>
@@ -29700,7 +29757,7 @@
       <c r="L564" s="6"/>
       <c r="M564" s="6"/>
     </row>
-    <row r="565" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="4">
         <v>1855</v>
       </c>
@@ -29739,7 +29796,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="566" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="4">
         <v>1856</v>
       </c>
@@ -29755,7 +29812,9 @@
       <c r="E566" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="F566" s="5"/>
+      <c r="F566" s="5" t="s">
+        <v>2385</v>
+      </c>
       <c r="G566" s="5" t="s">
         <v>31</v>
       </c>
@@ -29778,7 +29837,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="567" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="4">
         <v>1857</v>
       </c>
@@ -29809,7 +29868,7 @@
       <c r="L567" s="6"/>
       <c r="M567" s="6"/>
     </row>
-    <row r="568" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="4">
         <v>1858</v>
       </c>
@@ -29825,7 +29884,9 @@
       <c r="E568" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="F568" s="5"/>
+      <c r="F568" s="5" t="s">
+        <v>2385</v>
+      </c>
       <c r="G568" s="5" t="s">
         <v>52</v>
       </c>
@@ -29848,7 +29909,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="569" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="4">
         <v>1859</v>
       </c>
@@ -29864,7 +29925,9 @@
       <c r="E569" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="F569" s="5"/>
+      <c r="F569" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G569" s="5" t="s">
         <v>22</v>
       </c>
@@ -29887,7 +29950,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="570" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="4">
         <v>1860</v>
       </c>
@@ -29926,7 +29989,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="571" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="4">
         <v>1861</v>
       </c>
@@ -29965,7 +30028,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="572" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="4">
         <v>1862</v>
       </c>
@@ -29996,7 +30059,7 @@
       <c r="L572" s="6"/>
       <c r="M572" s="6"/>
     </row>
-    <row r="573" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="4">
         <v>1863</v>
       </c>
@@ -30035,7 +30098,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="574" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="4">
         <v>1864</v>
       </c>
@@ -30072,7 +30135,7 @@
       </c>
       <c r="M574" s="6"/>
     </row>
-    <row r="575" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="4">
         <v>1865</v>
       </c>
@@ -30088,7 +30151,9 @@
       <c r="E575" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="F575" s="5"/>
+      <c r="F575" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G575" s="5" t="s">
         <v>53</v>
       </c>
@@ -30111,7 +30176,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="576" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="4">
         <v>1866</v>
       </c>
@@ -30127,7 +30192,9 @@
       <c r="E576" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="F576" s="5"/>
+      <c r="F576" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G576" s="5" t="s">
         <v>1159</v>
       </c>
@@ -30150,7 +30217,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="577" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="4">
         <v>1867</v>
       </c>
@@ -30166,7 +30233,9 @@
       <c r="E577" s="5" t="s">
         <v>1160</v>
       </c>
-      <c r="F577" s="5"/>
+      <c r="F577" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G577" s="5" t="s">
         <v>56</v>
       </c>
@@ -30189,7 +30258,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="578" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="4">
         <v>1868</v>
       </c>
@@ -30205,7 +30274,9 @@
       <c r="E578" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="F578" s="5"/>
+      <c r="F578" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G578" s="5" t="s">
         <v>50</v>
       </c>
@@ -30228,7 +30299,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="579" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="4">
         <v>1869</v>
       </c>
@@ -30244,7 +30315,9 @@
       <c r="E579" s="5" t="s">
         <v>1162</v>
       </c>
-      <c r="F579" s="5"/>
+      <c r="F579" s="5" t="s">
+        <v>2385</v>
+      </c>
       <c r="G579" s="5" t="s">
         <v>55</v>
       </c>
@@ -30267,7 +30340,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="580" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="4">
         <v>1870</v>
       </c>
@@ -30308,7 +30381,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="581" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="4">
         <v>1871</v>
       </c>
@@ -30324,7 +30397,9 @@
       <c r="E581" s="5" t="s">
         <v>1242</v>
       </c>
-      <c r="F581" s="5"/>
+      <c r="F581" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G581" s="5" t="s">
         <v>1243</v>
       </c>
@@ -30347,7 +30422,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="582" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="4">
         <v>1872</v>
       </c>
@@ -30363,7 +30438,9 @@
       <c r="E582" s="5" t="s">
         <v>1240</v>
       </c>
-      <c r="F582" s="5"/>
+      <c r="F582" s="5" t="s">
+        <v>2386</v>
+      </c>
       <c r="G582" s="5" t="s">
         <v>1241</v>
       </c>
@@ -30384,7 +30461,7 @@
       </c>
       <c r="M582" s="6"/>
     </row>
-    <row r="583" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="4">
         <v>1873</v>
       </c>
@@ -30415,7 +30492,7 @@
       <c r="L583" s="6"/>
       <c r="M583" s="6"/>
     </row>
-    <row r="584" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="4">
         <v>1874</v>
       </c>
@@ -30446,7 +30523,7 @@
       <c r="L584" s="6"/>
       <c r="M584" s="6"/>
     </row>
-    <row r="585" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="4">
         <v>1875</v>
       </c>
@@ -30477,7 +30554,7 @@
       <c r="L585" s="6"/>
       <c r="M585" s="6"/>
     </row>
-    <row r="586" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="4">
         <v>1876</v>
       </c>
@@ -30508,7 +30585,7 @@
       <c r="L586" s="6"/>
       <c r="M586" s="6"/>
     </row>
-    <row r="587" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="4">
         <v>1877</v>
       </c>
@@ -30547,7 +30624,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="588" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="4">
         <v>1878</v>
       </c>
@@ -30586,7 +30663,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="589" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="4">
         <v>1879</v>
       </c>
@@ -30627,7 +30704,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="590" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="4">
         <v>1880</v>
       </c>
@@ -30666,7 +30743,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="591" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="4">
         <v>1881</v>
       </c>
@@ -30705,7 +30782,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="592" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="4">
         <v>1882</v>
       </c>
@@ -30736,7 +30813,7 @@
       <c r="L592" s="6"/>
       <c r="M592" s="6"/>
     </row>
-    <row r="593" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="4">
         <v>1883</v>
       </c>
@@ -30777,7 +30854,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="594" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="4">
         <v>1884</v>
       </c>
@@ -30816,7 +30893,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="595" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="4">
         <v>1885</v>
       </c>
@@ -30857,7 +30934,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="596" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="4">
         <v>1886</v>
       </c>
@@ -30898,7 +30975,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="597" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="4">
         <v>1887</v>
       </c>
@@ -30939,7 +31016,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="598" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="4">
         <v>1888</v>
       </c>
@@ -30980,7 +31057,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="599" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="4">
         <v>1889</v>
       </c>
@@ -31021,7 +31098,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="600" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="4">
         <v>1890</v>
       </c>
@@ -31058,7 +31135,7 @@
       </c>
       <c r="M600" s="6"/>
     </row>
-    <row r="601" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="4">
         <v>1891</v>
       </c>
@@ -31089,7 +31166,7 @@
       <c r="L601" s="6"/>
       <c r="M601" s="6"/>
     </row>
-    <row r="602" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="4">
         <v>1892</v>
       </c>
@@ -31120,7 +31197,7 @@
       <c r="L602" s="6"/>
       <c r="M602" s="6"/>
     </row>
-    <row r="603" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="4">
         <v>1893</v>
       </c>
@@ -31151,7 +31228,7 @@
       <c r="L603" s="6"/>
       <c r="M603" s="6"/>
     </row>
-    <row r="604" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="4">
         <v>1894</v>
       </c>
@@ -31190,7 +31267,7 @@
       </c>
       <c r="M604" s="6"/>
     </row>
-    <row r="605" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="4">
         <v>1895</v>
       </c>
@@ -31231,7 +31308,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="606" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="4">
         <v>1896</v>
       </c>
@@ -31270,7 +31347,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="607" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="4">
         <v>1897</v>
       </c>
@@ -31311,7 +31388,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="608" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="4">
         <v>1898</v>
       </c>
@@ -31350,7 +31427,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="609" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="4">
         <v>1899</v>
       </c>
@@ -31391,7 +31468,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="610" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="4">
         <v>1900</v>
       </c>
@@ -31430,7 +31507,7 @@
       </c>
       <c r="M610" s="6"/>
     </row>
-    <row r="611" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="4">
         <v>1901</v>
       </c>
@@ -31463,7 +31540,7 @@
       <c r="L611" s="6"/>
       <c r="M611" s="6"/>
     </row>
-    <row r="612" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="4">
         <v>1902</v>
       </c>
@@ -31496,7 +31573,7 @@
       <c r="L612" s="6"/>
       <c r="M612" s="6"/>
     </row>
-    <row r="613" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="4">
         <v>1903</v>
       </c>
@@ -31535,7 +31612,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="614" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="4">
         <v>1904</v>
       </c>
@@ -31574,7 +31651,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="615" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="4">
         <v>1905</v>
       </c>
@@ -31607,7 +31684,7 @@
       <c r="L615" s="6"/>
       <c r="M615" s="6"/>
     </row>
-    <row r="616" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="4">
         <v>1906</v>
       </c>
@@ -31640,7 +31717,7 @@
       <c r="L616" s="6"/>
       <c r="M616" s="6"/>
     </row>
-    <row r="617" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="4">
         <v>1907</v>
       </c>
@@ -31673,7 +31750,7 @@
       <c r="L617" s="6"/>
       <c r="M617" s="6"/>
     </row>
-    <row r="618" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="4">
         <v>1908</v>
       </c>
@@ -31706,7 +31783,7 @@
       <c r="L618" s="6"/>
       <c r="M618" s="6"/>
     </row>
-    <row r="619" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="4">
         <v>1909</v>
       </c>
@@ -31745,7 +31822,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="620" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="4">
         <v>1910</v>
       </c>
@@ -31784,7 +31861,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="621" spans="1:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="4">
         <v>1911</v>
       </c>
@@ -31829,16 +31906,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M621">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="BS-MCN-FA19-10042"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A286:M286">
-      <sortCondition ref="E1:E621"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="E1:E625"/>
   <sortState ref="A2:L621">
     <sortCondition ref="A2:A621"/>
   </sortState>
